--- a/backend/app/iitsrc/articles.xlsx
+++ b/backend/app/iitsrc/articles.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomca\Desktop\App\backend\app\iitsrc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10078972-9EEA-40F1-91DE-9E93FC519DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Pravda" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="SME" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="DennikN" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Trend" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Teraz.sk" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Forbes" sheetId="6" r:id="rId9"/>
+    <sheet name="Pravda" sheetId="1" r:id="rId1"/>
+    <sheet name="SME" sheetId="2" r:id="rId2"/>
+    <sheet name="DennikN" sheetId="3" r:id="rId3"/>
+    <sheet name="Trend" sheetId="4" r:id="rId4"/>
+    <sheet name="Teraz.sk" sheetId="5" r:id="rId5"/>
+    <sheet name="Forbes" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="598">
   <si>
     <t>URL clanku</t>
   </si>
@@ -132,7 +141,7 @@
     <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/26798b6a-6013-45e6-90a3-5b02b352912f/!ut/p/z1/rZZdd5pAEIZ_Sy-8RAaWj6V3QBRRQoIIRm560BClCFjYaJNf34WmH0Zd7EnxQj37vLM7szvvwkf8Ax8V8T5dxyQti3hL_y8i5Yun2tgwBB3AcBDY44nvjsyhaAUyP28B09JHkuoAYMeSwdZHwVTzEAId8dE1erjw6HCdPnTufwKWOhPAdl0_CLGHBkO11V8YDjzE1jfA0fzYCEWwVXcqTDzPGlnSm_4CIBjqh_QNwFi_NID3emsUYAoYYFmaI0iGep2eATD0d6bQNb90nZ4BHNdPVoEO-wFA6IMpKSf1OwFY82PUsf6xfJ2eATDWP7FF9vonE-ljegow9Pqso36-gj6kbwBG_0pwUv9ToKP_Qz7io1VBdmTDL8plHW-4OuPS4omLM9ID-qOscupm-yLh6l0V7196sK8TktFvUVE1vFRiTgEBcZKcKJwGMeLkJYhLJIuaID414Xer9JFfXEXPu_wyYrvdmI_SZd4_rPI-9LGsaYIqyVgCURAQbtw4_frtW6TTlMuCJN8J__Ar5x7UhOa54tqRguZOkpwmmcdZVSZZWZR5uspirqVqkmZxD4q4Kh9pYZ5XhJLPWfxa7mOSbBOaR3R88u_8QKcbO7Vl0zEQHspvwJ-dn5gmBeTZjRy66L5x7hYY-veirkmWeTO9G4I9M0XsO4oIILwBrLujq1wR83j5XWuwlPdpnrk_mIB7soYzN8AxcMaimZUcSF0RToD3LtgVYSyzI7Q-xAJao2AC0LVZv8-D7nme74QhWKFINwsJFrgBjWIoHQA1mwVtP_Vi-wkqP9-nyYEPisYUtrz_j909ahuU3eCsHv2fvkTnEatb83ZNM4jJpgld8g9XSY9MRsUqIFXFkihpioxQE1gvlgjTwFXylFRJ1X-u6JvghpBd_bkHPTgcDv11Wa63SX9V5j04J9mUNU38mOR3eXDy5Bi9cNFSmQ7--oxeDZez5pjgF7Rdf_oBI1At_w!!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
   </si>
   <si>
-    <t>Na Slovensku pracuje historicky najviac ľudí, solídne stúpajú aj platy. Z priemyslu utekajú pracovníci do služie</t>
+    <t>Na Slovensku pracuje historicky najviac ľudí, solídne stúpajú aj platy. Z priemyslu utekajú pracovníci do služieb</t>
   </si>
   <si>
     <t>https://ekonomika.pravda.sk/ludia/clanok/722557-priemerna-mzda-uz-presiahla-1-500-eur-za-rok-si-zamestnanci-prilepsili-o-100-eur-v-hrubom/</t>
@@ -207,6 +216,132 @@
     <t>Problém zdražovania je na Slovensku takmer na konci. Nové čísla inflácie nás vrátili dva roky naspäť</t>
   </si>
   <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/748919-vlanajsi-deficit-bol-vyrazne-nizsi-ako-predpokladal-schvaleny-rozpocet/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/08f3b8fa-9fc3-41a6-af17-878dd2ad738d/!ut/p/z1/rZNLc5swFIX_SrrwUqML4iEvsSfBuLan4ODY2nRkHraKDcSoJPTXV8TTaTtTHouyEYzuPTo69wMzvMcs57U4cSmKnF_U94FZX33bo7OZ5gDMVgS85eftZjF_0t3QxC9_F9BN8Ajes_PFDZaGBoaJmdp2fN_frnY7cHf6E3hEc2EThkrNwjvMMItyWcozPhTHip9RlSGRp4hncgLqpbhdlZs6T1BV3njdTKCuEpmpFWhKjjTlaJpGBBkatxBPNRtRm8axzmOb0LiVLyMR48Oo6vt1evyyMXHMXWdh2CtlcOWa4DmLMJj6hIBDhuK490PH48C4_h6DrF_-pc1r4AZDGqzX5LOFt1WGD8qo3VkUqCRrkbzhMG_Hf8Hb33M0U1MjugEojRMLGUako6nOKbLN9BjpoBESmXgBeDmUlWJbv63n65NS5vLcQlfgfcYlvxSnhz_Ia6Lzwwd7bYv49vrKHMVskcvkXeL9L2gnUElVHqGPnVzBW96K-Hsmmw6Me0-659M1SM3uzmcU58shkP8dzijtvpD-559dXsMrJY0QAmUBXT8Sgx0b8mO2QWp9cz79BOVMuZE!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Vlaňajší deficit bol výrazne nizší, ako predpokladal schválený rozpočet</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/743191-nezamestnanost-na-slovensku-dosiahla-historicke-minima-pokles-zaznamenali-vsetky-kraje/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/49a0126e-5f59-4281-948d-4ab90ca3101f/!ut/p/z1/tVNNc5swFPwtOXAUeiA-RG7C0wCO4yl2MDaXjkwwEJuPgApxfn3F9JSZpriH6iJpZnf1dt8TTvAeJzUfypyLsqn5Rd4PifUjtAPquhoDcFcEguXjdu0vHnQvMnH8GUDXm28QPLPv3mZpaGCYOLmFv_CYb9grALryTAiYH22ckBBg5DY-fLEYzPF3OMFJWotWFPjQHHteoP6MyvqE-FkoIA9NV8k0hjpDfdvx4arA0GfiLHfD4aDpVobMk-kgQ6cacgz6ggx-dCDlRAPtNMm3afmCDzeh47m8k7-7jaf3ZgKd0_gNYGEYble7HXg7_QEConmwjiKAZ2sG4Fr4IF3YX7rQbBwPZTbiqJ6yveDtP4bkA17O9VUOrt49LZ5yqcxFMXW0wfub5CW1fH17S5gcjKYW2bvA-_8xGdJDeazUMa1UUG1qA7FtauiGY5mETFWw-kioNNBlp6zLOvVnJz9kIUTb3yugwDiOat40-SVT06ZS4E-Uoull9Z-RuK2iKKoouaLzxv9w18iLqaBXcsnv7n4BYmTSig!!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Nezamestnanosť na Slovensku dosiahla historické minimum, pokles zaznamenali všetky kraje</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/743168-priemerna-mzda-v-hospodarstve-za-vlanajsi-rok-dosiahla-1524-eur/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/8baa52e9-3aa0-4f29-8a4e-a0bb7b9ea848/!ut/p/z1/tVNNc5swFPwtOXAUekZgRG-ypwFcx1Ps4A8uHeHKQG0QARXq_vqKppfMJCY5VBdJM7vv7T6tcIL3OKl4V2RcFbLiF30_JNNvkRvS2WzCAGZLAuHiy2YVzO8tP3bw7iWArtafIXxkX_31wp6A7eDkNn-LE5wcK1WrHB9k2vIctWdUVCfEz8oAfZBNqdV0lUBt3fDuakDXCnXWO005dyzhIcI5IPtkeYhyWyAOaeqmnuDUpkP5-lh8x4d3oXdjfgc78MZi8I8_91lgu0sAuvQdCFkQr72IEGBkbBzP_BsNRvnJX8gtBWMengEsiqLNcrsFf2vdQ0gmPqziWLecjgAep_igXbhvypy4eNcVosdxNbztBW8--EgB4MXYIHRwreZh_pDpylzlQ6Ik3r-rvKYWP56eEqaDKSslfim8_x_J1B6KtDT7Y2mC6VIXiOtS27K9qUPIoIJVKaHaQCNOohGN-bPRHzJXqm4_GWBA3_dmJmV2EeZRlga8Rsllq9W_ROK6jEtKrkWBzuvg92yF_B1V9Eou2d3dH3j5vNo!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Priemerná mzda v hospodárstve za vlaňajší rok dosiahla 1524 eur</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/748787-slovenska-ekonomika-vlani-rastla-rychlejsie-ako-ukazovali-prve-zverejnene-data/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/a3da2d02-25bd-4226-850c-15513c042413/!ut/p/z1/tZbLkppAFIafJQuXyKGbhjY7cBRQRJDLjGxSqHiJIxglmnn7NM4kFWCmMZUKLtTq7z-X7j5_IcbikxhnyWW3SYpdniXP7P88Vr54qkV1XdIAdBuDNRr7jtkfIiMk4uMN6BuaKas2ALUNApZmhrOehzFoWIzv0cMHjwb36X8DhhlSsBwdDKNnSzJ-1Ue2-7asBhJbdvwwoh6mtlTXUz1CYKnOTBp7nqGFSjV_bdls6sf9PktAggcSOdhlCXj5p6ihJyowwA8BIt_wQK7lry5r6pv-gwReD_HyewFp0TOAow9tma8fRPI_6UuAo5-OUMv56-Q-PQeo6KlpDkBziTsjIw8ZXqP-JlDRT2fSEDyAsTOmgWU8qPX6qxdcBuk-PQfg9D8JWva_BHjnp-OW89MxVx9KLfqw1j_4kx5YkS8HU6oiPIK6vgm0-EckxmK8zIpjsRXn-eKcbIXzXthlayHZFx1gP_LTgbnhJUuF8_GUXF46cDmnxZ59J3iVoBUgAZHFSpARUgRKYClIhEh4CTKSJVyGPy53K3F-F_3Y5rcx3y0fy3wthtwWI-Z53jhU34Ch7yKtJxv9h9l0CFbQR9S3FQSG0gKUl7qa4h3XrtVQtdWB3AD-NEYAu6WLm7FzU9gSN8WrNfMArfROrvuW5swDbu7JBRxo2Um9UQM1JyzC0HYjdxBIs6gR4R0H4s4wtHUxVOtAbUglxAeI-wvQPM_z7SgCI0LsRmHJACdk2x0oLYCuiHM2WeqHkyUxJ73s0qsYZuW8P4v-Xw6uCeKozWvYyxQ6TfqTDYucFNvSZXLx6a7wTLr7-u1brDGzyrMi_VGIT__DrVgPu8Whe10eutBVqQpYVSlb6ikE36rQsgWmrIFTuk5P6an7_cReErdFcTx_7kAHrtdrd5Pnm-e0u8wPHXhPss3PrPoqKR4PYfM5UPwi7GeDyodeg_X2-WKvJwWZf_oJx9YAww!!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Slovenská ekonomika vlani rástla rýchlejšie, ako ukazovali prvé zverejnené dáta</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/krajina/clanok/743586-slovenska-ekonomika-v-minulom-roku-rastla-vyrazne-ju-podporila-spotreba-domacnosti-aj-verejnej-spravy/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/a69d33e2-2837-4413-84ce-5b2b92ad38ef/!ut/p/z1/tVPLcqMwEPyWHDgKDYiHvDfsSgDHcS128INLCrAMxAYR0EK8X79ik0uqEpM9rC6SqrpnukctHOEdjqq4K7JYFLyKz_K-j6ynwPbpdKo5ANMFAX9-v156szvdDU28_Qigy9Ut-I_OT3c1NzQwTBxd529whKO0ErXI8Z4nbZyj9oSK6ojik1BAHnhTSjVdxVBbN3F3UaBrmTjJPbYmB0KYjnRKbGQYGkHUSBkyEz2Z6PGBUHYcytdpccD7b6G3Y34HO_DFcuCdP3Mdz7AXAHThmuA7XriaBISAQ8bG8ca_0mCUH_2FXFMw5uEN4ARBsF5sNuBu9DvwiebCMgxlS2sE8GjhvXRhfylTs_G2K1iPw2p42zNe_-MjeYDnY4OQwdWbh9lDJivHIh8SxfHuW-UltXh-eYkcGUxeCfYq8O5_JFN6KJJS7dNSBdWmNhDbpoZuTCyTkEGFUyWESgMNO7KGNeqvRn7IXIi6_aGAAn3fqxnn2ZmpKS8V-IyS81aq_4jEdRmWlFyKAp1W3u_pErlbKuiFnLObmz-l1WjK/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Slovenská ekonomika v minulom roku rástla, výrazne ju podporila spotreba domácností aj verejnej správy</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/741853-su-sr-ceny-pohonnych-latok-sa-v-7-tyzdni-menili-iba-minimalne/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/f4cb0889-c2de-4499-a9d8-34d1dcde9ff0/!ut/p/z1/tVFNc4IwFPwtPXjMvIeJBY7RsYBVp2qpkksn8qEUDSgZrP--odNLD3700FxeMrO72X0LAlYglGzyjdR5qeTOvCPx-D6zA6fftzhif0wxGD0vpv7gqeuFPVj-BjjT-RCDV_7izUfMQtYDcZ3_BgJErHSltxCV61puSV2QXGVEFrqD5lIe98ZNo1JSV0fZnDvY1KkuzMxYvEbHcUncTVLCmOsS6SYOoSyxkjhJ3SzDVr6K8wSiu9DLW3nbOHjh8JYvviEDj_vMHiM6Y6-HAffDuTujFDn9AVzRiIwH-6IHy4Zlk6cnCFW7mR0s_hjRRxjdasXUnn8cDoKbbkql008Nq_8ox_zTPU4Gk41JIPW2lS5hdRe12od7h55JkU2GlIn1-cQfvgA5M2JY/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Ako sa menili ceny pohonných látok? Benzín a nafta zlacneli, ceny plynov sa mierne zvýšili</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/748809-hospodarenie-v-minulom-roku-nezlepsilo-dlhodobe-zdravie-verejnych-financii-vzrastol-deficit-i-dlh/?utm_source=pravda&amp;utm_medium=hp-box&amp;utm_campaign=shp_bleskove_spravy</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/08f3b8fa-9fc3-41a6-af17-878dd2ad738d/!ut/p/z1/tVPLcqMwEPyWHDgKDQgjeW_YlQCO41rs4AeXlMw7No-AFuL9-hWbXFKVmOxhdZFU1d3TPRrhAO9xUPIuT7nIq5Kf5f0QmE8eddlsplkAsyUBd3G_WTnzO932J3j3EcBW61twH62f9nphaGBMcHCdv8UBDsJS1CLDh-rY8gy1J5SXCeInoYA8VE0h3XRljNq64d1Fga6NxUnuwBJyZAlH0yQkyNC4iXiiUcQoiyKdR5SwaJCvwzzCh2-hd2N5hzjwxbLgnT-3LcegS2lwaU_AtRx_PfUIAYuMteONf6XAKD_4C7nmYCzDG8DyPG-z3G7B3up34BLNhpXvy5LmCODRxAeZgn5pU6N41-Vxj_1yeNsz3vzjIzmAF2ONkIObP7-8BJacrqoU8avA-_8xXrKO3jzMH1KZgItskK7w_ltUmSE_FmofFiqolFEglDJDN6bmhJBB2CqPhEnhJk7iJm7UX438kJkQdftDAQX6vlfTqkrPsRpWhQKfUbKqlcE_InFd-AUjlzxHp7Xze7ZC9o4JdiHn9ObmD_Htfk4!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Hospodárenie v minulom roku nezlepšilo dlhodobé zdravie verejných financií, vzrástol deficit i dlh</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/740761-cisla-ukazali-ze-slovaci-zarabaju-coraz-viac-vyssie-platy-dostavaju-ludia-vo-vacsine-odvetvi/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/bee3177a-4a80-424f-8c75-05f150666fc4/!ut/p/z1/tVNNc5swEP0tOXAUWixASm_Y0wCu4yl28AeXDqYCVBtEQIW6v76i6SUzjUkP1UXamffe7ttd4QQfcFKnvShSJWSdXnR8TNwvEQ3ZfG55APMVgXD5absOFg8zP3bw_jWArTcfIXzyPvubpW2B7eDkNn-HE5xktWpUiY_y1KUl6s5I1DlKz8oA_ZBtpavpa466pk37qwF9x9VZ3yfOiUVpiuyUAbJndo5YRh0ETm454LpuntmjfJOJr_j4LvR-yu9oB944HvzhL3wvsOkKgK18B0IviDf3ESHgkal2vPBvJJjkJ78htyqY8vAC8KIo2q52O_B3swcIieXDOo51SncC8OTio3ZB3yzTonjfCz7guB5ne8HbfxxSAHg51Qi9uOLb83Pi6e2SteI_FD78j_XSeWbt4-Kx0A5SVY7SEh_eRdUexKkyh6wywaSMAqGUaey96xAyCnv1iTAt3PKct7w1v7f6Q5ZKNd0HAwwYhsEspCwu3MxkZcDfKKXstPHXSNxUccXIVQh03gQ_52vk75liV3Ip7u5-AbyllbQ!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Čísla ukázali, že Slováci zarábajú čoraz viac. Vyššie platy dostávajú ľudia vo väčšine odvetví</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/firmy-a-trhy/clanok/740216-priemyselna-produkcia-sa-vlani-znizila-poklesla-vo-vacsine-odvetvi/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/d3aca4d1-8f5f-4f26-a89a-2daa27b0be9f/!ut/p/z1/tZRdd5pAEIZ_jZe4w-7CYu8Wq0iChg_ByE3PqqDUCAapxv76LokXsTaQnp7CBXB43tmZnXcWxegRxbk4ZmtRZUUunuT3PNa_ecw2TFPlAKZDwL67Dyaj_hBboYZmr0DkuG-AMRqrYA8dN3IHU5UBQ_H73w9hQIFrTMU918UGv9FfA5aO_0lfA_H7_A2NAdiTIASIAuhT_aJvAK71ZoTBZhNfvfc8S_Xpjf4GuNZP_AHYU-5a_h1VgWo3-hsgbt7_CMUoXubVvtqgebE4iI1y2CpZnipiW3VAvhTlTnbzmCfKYV-K47kDx0NSbeVzRcRS0JWqGKmWKjTFuiKMnlDwSgjMFrBIemkdfr_MVmj-KXrW5pe6HPjg4nDR9y0-oswBMBxLA5uPQr_nEQKctG3Hm75hgVZ9fO243w2tNQN-BBdgGLiY96jV_-o_DGVL-9gIHB0DqBegqci2bYqbxuJ1app9T1uStPSbCNfGNtkF4J7nBU4UgRVhGYGoFkxCuYyptwBTHc1ls9iH3VAZmh2z5ITCvLbwEwr-0osjQHdt_ZbnGy7H_fFaRhbVph6cAj1-KryUZt-fn2Mu56_Iq-SlQo__YwBlDdli1z0td13oMoMBYcygmPZ0jZA6C54viCELKJM0KZOy-6OU5_amqvaHLx3owOl06q6LYv2UdJfFrgN_kmyKg8z-mkT7Xfh67QxyzjJl6w_qOx0PCI0XZ_LTSWb8F888qos!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Priemyselná produkcia sa vlani znížila, poklesla vo väčšine odvetví</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/740074-maloobchodu-sa-vlani-darilo-najlepsi-vysledok-dosiahol-v-decembri/</t>
+  </si>
+  <si>
+    <t>https://susr.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/7899ac81-97ab-45d2-98b2-ac75bf8970ed/!ut/p/z1/tVbZcuI4FP2aPIKvJNuS5804eMFmMV4CfukyxAlMwtLAwGS-fgTp6SqbcEVX18ADSekc6e73aIU20Yp1eVy-loflZl2-y_-nhfkt5oHodIgN0IkYBL0wGfiOS73M0J7qANHJKQR8MCZhHHujMdWK28fGkFzxDQ4QDJIMIE-82P_k59Ho89jjKZHH8jwXMTNd1uTXDdQTwN63h_CD73i2r_MIQESeAYHtZ2MrZgxsVuff8h9ufGy4j3_DwT5jmP99V8HPoBG_4Zi4EAOEg1CkQQZ4_CExGcY3CTTfh6RvQZAnejoUnDICdX7jOKIKvo_yeyng9oeh3sh__ThQvU8a_gsWGGAHj9BlrAdubCrqF_QGPxePMn596HldwWBIcfshAsx-GADef6TDsfonueJ9R0fj59Ar_z0_ExLQAc-zIqL3DLR-chU_RetfBAyv_26uY_yM8SZ_mGS2BIwDw4k6TLhN-2vHQ1DNL4uj-R9f80PHkXwjfTTyARtFpB7_enjCmODxA4dj9gvgeP7TZv028jfSVf1D0f7vKN5PPILVXxJSPP9miu4f2yd4_9iZ-Xt8n9zX_wgAm386VfQPA7R_RgSP3xmA8Iepief_bCDWf7oif91m__0iP8Pf7-uq-W2Z9_ERwF3zDwH8Tv7OCVLoj1wrtGK-PmwPC226me3LRWv_1lquX1rl2-EB5B-b3UqqweO6au23u_L48QDHfXV4k79cWFY5F6Rl8XLW0o1n2rLEjLbKOTdmL8LiUD2fr9_Ol8_a9C70k0pvFrjaejq_pxCkF4CbjKht6Z7zOB66EKQOFUlkUvBMBUDO_E8AphlVZhbIWJOql-EAOzVUN9Am4AthjI62zMQBYcZ_ADDtigJSHQdc1CsG6A7wSH7qVxQAVzc0JmjnOg71Fd1VeHHRIOgWJIADjBFV3OAr4nDRwbgNipK7KFlUi0ZXXgi_L-PgRqN81E3JOFeU3EWsonJT1xXJ6hmqbHIFIGW4FxyMJuALyYgWjLL9La64ISKqbBLczYsuxEKdgrJgqKKzPKKaUQojL-IF7SxXNQYtU1UP_91gx3GcRHkOXk7ltGfEg0Emb_nZ_rcAcsNO5c7iN3cWkRr3uKxOWrY-b9J3LfnFlSibu6fa4hNtSnd9p_8qby4Pi_P-3miTu66X1OWf378XtpQBm_Wh-vugTf4PHSB9WM5W7dN81YY2FxwY50KnumUaclNIK-z1jAnpwK56qXbVrv3X7l2bLA6H7f6PB3iA0-nUft1sXt-r9nyzeoCvKIvNXlpfR2rbVXbfZyXYR-tt3MW_L_0u04vZB_snqp7-BdlpNcQ!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Maloobchodu sa vlani darilo, najlepší výsledok dosiahol v decembri</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/739393-ceny-benzinu-vystrelili-za-tankovanie-uz-platime-viac-ako-pred-rokom/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/7ce48437-9eca-46a1-aa03-44823ade621e/!ut/p/z1/tVNNc5swEP0tOXAUWpCM5N6wpwFcx1Ps4A8uHZkoQG0-AirE_fUVTS6ZSUx6qC7Szrz3dt_uCsd4j-NSdHkqVF6V4qzjQ-z8CFnAZzPLBZgtCQSLb5uVP7-1vWiCd28BfLX-CsG9-91bL6gFdILj6_wtjnGclKpWGT5Ux1ZkqD2hvHxE4qQM0I-qKXQ1XSlRWzeiuxjQtVKd9M0SSTklDE1lIhB1hIWEAIIo5TYRD9KxLTnI10n-gA-fQu_G_A524IPjwit_7rk-ZUsAvvQmELh-tJ6GhIBLxtrxwr-SYJQf_4Vcq2DMwwvADcNws9xuwdvatxAQy4NVFOmUzgjg3sEH7YJ9WKbF8K7LZY-jcpjtGW_-cUg-4MVYI_Ti5j-fnmJXb1dVKvms8P5_rJfOYzd387tUOxAqG6QrvP8UVXvIj4XZJ4UJJuMMCGOc2nTqTAgZhN3ySLgWbuSjbGRj_mr0h8yUqtsvBhjQ972ZVlV6lmZSFQa8R8mqVht_i8R1ERWcXPIcndb-79kKeTuu-IWc05ubPyhPUmM!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Ceny benzínu vystrelili. Za tankovanie už platíme viac ako pred rokom</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/733093-rast-slovenskej-ekonomiky-sa-citelne-spomalil/</t>
+  </si>
+  <si>
+    <t>https://susr.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/501faeed-4e1e-4781-8dd9-4585edd8d49e/!ut/p/z1/tVfLduI4EP2WWbA0LluSJWZn3GAbDPidxJs5JDjAhFeDGybz9aOQ7pxju1MiiyGLkFP3VqneFb3Q7_ViNz-vl_Nqvd_NN_Lvh8L6K-K-6PcNG6AfEPBH42TqOUPTzZh-dwU4ru1RHgCIwGXg214W9yJCwCZ6cQsfPvnYcBv_AyDGjgP-lKXfWD4lYWDU-a6XCSnug-v2AmMcGS1-PzfB59NYCiPXzqw6vyEOrRafcZAGkgwgT9zIe_c_D8J38SzJbCmOfeYEfTKzGcoHCBr-N8QxbfLrDtI-rdt3eWpIsVSQi0jaN3_yPwCQTHrg5wlNZ4KbxIM6vy4eBVThf49j9icTonh_SjC-yEjz_XVABmYj_rExhAhgPB2L1M_AwOPvUIrxLZ-o4mei8RsaqvxZaP5Chvs_yNH8Z6HZtF9vMJqg_UdleeD-Gwbqv89VfDR-hKvqZ8TQ-AmC5388plj_jRNTYZ8AWr-BYv6EsYnNHzZT1A84HJs_bt7KX3tAYfPLoQq-06g_4U2k_8MgzMNBanBo5b8NKJDxEjPF_InZF-d_G_C1-LcBN_UPAkDqZzAFRf9P0f2RzPD9dQUo9m-uF3rxtKsO1Up_2D-e5ivt9KKtd8_a_KXqgPyyP27lNXHeldrpcJyfXztwPpXVi_zNwHiel-VCo6VRapQLQxOLRU-jTLBysRAL2ivf1B-e1gv94Sb0nepeKfBr4-7NnuKgQAED-hMwTELT7lHX-RbPhuCnjimSwDIBfmnAbibVMwusLKKeqXiDa7W8aN89GGCc8RagfflgADtlTS-as5_gABaaqIn36wnr_-t5hL7BA4WbPa4wkRI8kkZfFUmgeLqvR45qTKCBup45qIYhVwXKVIXaUpjIVbkwWiZ-c6zgGgzFI0etmqzvMzFkivZX9eaEEAUgpXiyrjcJ6gUBvOSuVwWm4Xo2oIsDWm42FzfDAXGu6ixP0d2J-yubdhRFSZDn4OamnHLEcGGaSdBHyX0GSC39Qe4L_um-MOR9cl6XFz3bvW2xjZ58cR3J-TFSbVD5L_b67-_fC1vu0f2uKv-p9Pv_Y5FKO-Zx4kyW0oN5tXpTvdfvb6JKH9aP2-7laduFLhccCOeCmrRnMVnPUrG9eyRCKj6Wz-WxPHZ_HDf6_aqqDqc_O9CBy-XSXe73y03ZfdpvO_A7ymp_ko7Xkfphmyk-W0FetZd4gPx4__anmnsnKvFKNss__gORschI/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Rast slovenskej ekonomiky sa citeľne spomalil</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/723704-nove-cisla-inflacie-zdrazovanie-opat-nabralo-na-sile-hore-isli-aj-ceny-potravin/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/3d709c18-e9c1-465f-8385-b69f021b267f/!ut/p/z1/tVNNc5swEP0tOXAUWhAgOTfsSQDX8RQ7-INLBghftUEEVIjz6yuaXjLTmPRQHfQx897bfbsrHOIDDuuoL_NIlLyOzvJ9DK0nn3psPtdsgPmKgLf8tl27i3vdCUy8_whg680deI_2d2ezNDQwTBxe5-9wiMOkFo0o8JHHXVSg7oTKOkPRSSggL7ytZDZ9naKuaaP-okDfpeIkT_JMYZZoDKVyR4ZlZogRZqLYmmWga7Fu0WyUb5LyGR-_hN5P-R3twCfLhj_8hWO7Bl0BsJVjgme7wWbmEwI2mSrHO_9KgEl--BtyLYMpD-8A2_f97Wq3A2en34NHNAfWQSBDWhOARwsfpQv6aZoaxfu-TAcc1GNvz3j7j01yAS-nCiEHt_zx8hLacrp4LdJXgQ__Y7xkHL19WDzk0kEkilGa48OXqNJDGVfqkFQqqJRRIJQyQzdmlknIKGzXMWFSuE2ztE1b9WcrP2QhRNPdKqDAMAxqznl-TtWEVwr8jVLwThr_iMRNFVSMXMoSnTbu23yNnD0T7ELO-c3NL4zO_bY!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Nové čísla inflácie: Zdražovanie opäť nabralo na sile, hore išli aj ceny potravín</t>
+  </si>
+  <si>
+    <t>https://ekonomika.pravda.sk/ludia/clanok/723582-platy/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/91a80319-7d74-444d-922b-b36b297e8d5a/!ut/p/z1/tVfRcqIwFP2WPviI3CRAwr4BFaRSBBHa8rKDLatuq1hldbtfv6HT7o6gSTs7iw_q5JzknntvToKaq7dqvi72y3lRL6t18cT_3-XG15j6zLaRBWAHBPyrURIOHRd7qa7eiABaAmouGB7CGz8LojdAcm2CnyXadMwoJgi98s8MX_m0zffoFIEfhkmasZgMMu2Yfzyckne-41lDjQYALPB08K1hOjFjQsAiovj_6oczjwUf4_8JcGwgzprogW4Hxp_1zw0PSIefpBYXOPF1J7AJc_UW_2h4rGFZ_rEw_4Da9feGKeML2OB5ZoDAoaL1vUxa_5Z-RnwdLP-SKydX4MaGpP-g1T_jCXIhBhiFIzb1vUtZ_7hU2D8xEfMbgICvDaT6QZR_EnX0M50CXyBJAbIEEoOI9PNmEvK9GLTj_m0NJ5pYf2y2-ocNr_mwG0RZNJiiid3R3wWI8o9BVj_9n_gN4JP7rwPIBeUBkNQP4GP9d2b_aTb9ZP91Acf600QDS6cIm1GEGe7q7wAE9adAxfVvAA3fiuM4CbIMvAy74BPkQZjyFE3f-18AkPhvpuZqfr-uN_VCvatmu2Kh7B6V5fqbUjzWPeA_qu2Kn4b7dansNtti_9KD_a6sH_m3iQoGBJkKfaCaomnag2JiPFNmxJhhk5bsQS-a6Tf3ywf17kPoG9l5m4tPm5tmPcmGFgGsqf4GcJMIW6bmOZeTMU_p1MEsCQwMjaW-AkRnpizMXHgtSEASg2e8AUT3BhFAj3AbcOLmIASEHRUn9l4r1SPH4QB9eqlnIYkG3VrYGQafhhM0imMPnZjhCDBKaTvIE_cHoQNn0Jmhe4MQqrBAVgssTtTrJUFmk5IliKSjAEmq6VLZEiAJ0iCSfiAgjuH1sBQHqXeKdWS3noHF5abwPsM5w7QNCYA76h33KHrWoxD39P2yPKjpunHOJzX5pAXyl4IrmWvz1xK8vXau53zmol40fl2ptx-anlOX35-fc4vbfrWuy5-1evs_fJ9rWM5W_cP9qg99yigQSpmGNdPQCWmisNYzwriAbfmt3Jbb_o8tf91a1PVm96UHPTgcDv15Vc2fyv59terBKcqi2vHoj5HqZpWef1aMvCiPk8GJz_CXHSreDavZC3maX1z8BiVQBZk!/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/</t>
+  </si>
+  <si>
+    <t>Štatistici potvrdzujú citeľný rast platov. Mzdy vzrástli vo všetkých odvetviach</t>
+  </si>
+  <si>
     <t>https://index.sme.sk/c/23456209/firmy-ocakavaju-zlepsenie-vyvoja-v-ekonomike-spotrebitelia-su-opatrni.html</t>
   </si>
   <si>
@@ -321,18 +456,12 @@
     <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/d3aca4d1-8f5f-4f26-a89a-2daa27b0be9f/!ut/p/z1/rZPLcpswFIZfJVl4qdFB4uYl9iQYF3sKNo7NpiMDMhQbiFFJ_PYV8XTazITLomwEcy76z38-cIj3OCxYk52YyMqCneX3IdR_eIZjzmaKBTBzKTjLb5v1Yv5M7EDDL58TzLX_BM7W-m77S1UBVcOhDFue523c3Q7sHXkGhyo2rINAdtPxDoc4jApRiRQfymPNUlTnKCs4YrmYgHwprxeppikSVFdX1twm0NSJyOUZUxYxNVaQyTWOVE50xMwpQyRmjBhHOCZT3ravoizGh1HZ93F69IZj7Jjb1kI1XADTtTVwrEXgTz1KwaJDdtzroeOxYFx9j8Cwv_1L69fABEM9wl6RWx0fpEijM8GXLjZZ8oaDol39GW_-7lDjmkKJCojHiY5UNSJoSpiJDI0fIwIKpZGGF4CXQz5JrrOfr6-hJeErC5G8C7z_Q98EaiGJi9BHpJAUVtcy_pWLWwePORPsXJ4e_gneovThI9zeRK6r-eokZ2AibdEu8b635O5P1xIVo9ufUYwvhyDuM-d__ppfWzOqtLoEF5PesixDuW--bXl6bly-eqKaPK3Hx9_bJI3K/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
   </si>
   <si>
-    <t>Priemyselná produkcia sa vlani znížila, poklesla vo väčšine odvetví</t>
-  </si>
-  <si>
     <t>https://index.sme.sk/c/23446329/maloobchodu-sa-vlani-darilo-najlepsi-vysledok-dosiahol-v-decembri.html</t>
   </si>
   <si>
     <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/7899ac81-97ab-45d2-98b2-ac75bf8970ed/!ut/p/z1/rZPLcpswFIZfJVl4qdEBgRFL7EkwLvYU2zi2Nh1xMxQbiFFJ_PYV8XTazITLomwEcy76z3d-MMMHzAreZCcusrLgZ_l9ZNMfnuHQ2UyxAGYuAWf5bbtezJ9V29fxy-cEut48gbOzvtubpaaApmMmw5bneVt3vwd7rz6DQxQb1r4vu03xHjPMwkJUIsXHMqh5iuocZUWCeC4mIF_K60WqaYoY1dWVN7cJNHUscnka1DR5SBVkGjxAmh6pyKSBinho6EFCTQPiqG1fhVmEj6Oy7-P06GVjcMxta6EZLgB1bR0ca-FvTI8QsMgQjns9dDwWjKvvEcj627-0vAYmGOrBekXupvgoRRqdCRtJscniN-wX7erPePt3h3qiK0TVACVRPEWaFsodqpwiQ0-CUAWFkFDHC8DLIU7S19nP11dmSfOVhYjfBT78cd8EaiEdF6KPSCFdWF3L6Fcubh1-zLng5_L08E_wFqYPH-H2JvW6mq9OcgYu0tbaJT70ltz5dC1RMbr5jPL4csjEfXD-56_5NZpRpdXFv1Byy7IM5Rv6tkvSc-Mmqyeiy9N6fPwNCkWMIQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
   </si>
   <si>
-    <t>Maloobchodu sa vlani darilo, najlepší výsledok dosiahol v decembri</t>
-  </si>
-  <si>
     <t>https://index.sme.sk/c/23443675/ceny-pohonnych-latok-opatovne-stupli-a-dosiahli-nove-maxima.html</t>
   </si>
   <si>
@@ -378,6 +507,204 @@
     <t>Návštevnosť v hoteloch sa v novembri zlepšila. Najnavštevovanejší bol Bratislavský kraj</t>
   </si>
   <si>
+    <t>https://index.sme.sk/c/23458287/priemerna-mzda-zamestnanca-na-slovensku-sa-vlani-vratila-k-rastu.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/8baa52e9-3aa0-4f29-8a4e-a0bb7b9ea848/!ut/p/z1/rZPNcpswFIVfJVl4qdEFgRFL7EkwLvYUbBxbm47AYCg2EKOS-O0r4um0mQk_i7IRjO49Ojr3AzO8x6zgTXbiIisLfpbfBzb94RkOnc0UC2DmEnCW3zbrxfxZtQMdv3wuoGv_CZyt9d32l5oCmo6Z3LY8z9u4ux3YO_UZHKLYsA4CqTbFO8wwiwpRiRQfyrDmKapzlBUJ4rmYgHwprxfppiliVFdX3twm0NSxyOVKQ851NTYR4RyQlqgmolyLEYcwNEIz5lSjrXwVZUd8GFV9v06PXzYmjrltLTTDBaCurYNjLQLf9AgBiwzFce-HjseCcf09Blm__Eub18ANhjRYr8ntFB-kSaOzwJcpNln8hoOiHf0Zb_7OUE90hagaoOQYT5GmRSoyVU6RoSdhpIJCSKTjBeDlUE6Sa_W6mq9OUpmLtAWuxPucC34uTw__UHeL0ocP7tqW7OfrK7Mkr2Uh4neB93-AnUAtZHmEPnYKCW51LY-_cnHrQLj3pHs-XUNUjO58RjG-HIL463BGafeF9D__6uoSXCi5ZVmGcp--bZP03LjJ6onocrUeH38D0qfnwg!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Mzdy Slovákov po dvoch rokoch rástli rýchlejšie ako inflácia</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23458288/miera-nezamestnanosti-na-slovensku-dosiahla-vlani-nove-rocne-minimum.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/49a0126e-5f59-4281-948d-4ab90ca3101f/!ut/p/z1/rZNLc5swFIX_SrLwUqMrxHOJPQnGxZ6CjWNr05ExGIoNxKgk_vcV8XTazITHomwEo3uPjs79wAzvMCt4k524yMqCn-X3nuk_fMM1p1NiA0w9Cu7i23o1nz0rTqjhl88F5ip4Andjf3eChUpA1TCT27bv-2tvuwVnqzyDS4kDqzCUajreYoZZVIhKpHhfHmqeojpHWZEgnosJyJfyepFumiJGdXXlzW0CTR2LXK6qxYEoeoy0RLOQqpgEWap5RCo_WBBxSoAkrXwVZUe8H1V9v06PXzYmjpljz1XDAzA9RwPXnoeB5VMKNh2K494PHY8N4_p7DLJ--Zc2r4EbDGmwXpMbHe-lSaOzIJApNln8hsOiHf0Zr__OUI6OUEUFlBxjHalqpCBL4SYytOQQKUAojTQ8B7wYyklyrVyXs-VJKnORtsCVeJdzwc_l6eEf6m5R-vDBXduS_Xx9ZbbktSxE_C7w7g-wE6iFLI_Qx04hwa2u5fFXLm4dCPeedM-na4jE6M5nFOOLIYi_DmeUdl9I__Ovri7hxaS3LMtQHphvmyQ9N16yfKKaXO3Hx98BJ2T1/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Miera nezamestnanosti na Slovensku dosiahla vlani nové ročné minimum</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23458518/rast-miezd-na-slovensku-sa-spomali.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/katalog%20informativnych%20sprav/!ut/p/z1/tVHBcoIwFPwVe_CYyYOA4DE6FnHUKVio5tKJEYSigJBi-fsGx0Mv0umhuSW7-7L7FjO8xSznTXrkMi1yflL3HRu9U8_zNsswBCfUn8ElmgPrIACYjPDbjeBZrj2ZaBTstT8D95W-OP7C0MAwMevXh5hhJnJZygTvin3NE1RnQ6ilciCQKHIZ5XIIZVUcPjPZDiHN46I6K7TJI1SXFW_UY8YlPxXHwQ-wFcngBncflCI94J0ZmxrRDUDxIRohwxA6GuvcRpYZ74UOGiHCvAfqcdwFggeHgtKzG2Xq0LlhLQHspWOCS-eBP_YIAUruhJ4ZO-XBeujBVyabNLriIO_CnvDmjxHngBe_9aKK16vVdHVUk7lMULdZvO3ds5KkH5cLo6rQrrcvibf_02h5Ds42aVEWr2bEYPv2Sp--AR0A-0M!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Rast miezd na Slovensku sa spomalí</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23458849/pocet-dokoncenych-bytov-vlani-medzirocne-klesol-o-16-percent.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/899b1327-86b2-4721-be1a-595daa07f686/!ut/p/z1/rZNLc5swFIX_SrLwUqMLQjyW2JNgXOwptnFsbToCg6HYQIxK4n9fEU-nzUx4LMpGMLr36OjcD8zwHrOCN9mJi6ws-Fl-H5j-wzdcczpVbICpR8BdfNus5rNn1QkofvlcYK7WT-Bu7e_OeqEpoFHM5Lbt-_7G2-3A2anP4BLFgVUQSDUd7zDDLCpEJVJ8KMOap6jOUVYkiOdiAvKlvF6km6aIUV1deXObQFPHIperaVmhQlQDmXqoIs1QFRTGCkfUokfOwUh0U2_lqyg74sOo6vt1evyyMXHMHHuuGR6A6TkUXHserC2fELDJUBz3fuh4bBjX32OQ9cu_tHkN3GBIg_Wa3Or4IE0anQVrmWKTxW84KNrRn_Hm7wxpQuUINUDJMdaRpkUqslRuIoMmYaSCQkhE8RzwYignybV6Xc6WJ6nMRdoCV-J9zgU_l6eHf6i7RenDB3dtS_bz9ZXZkteyEPG7wPs_wE6gFrI8Qh87hQS3upbHX7m4dSDce9I9n64hKkZ3PqMYXwxB_HU4o7T7Qvqff3V1CS4muWVZhvK1-bZN0nPjJcsnQuVqPz7-BmmC3qI!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Počet dokončených bytov vlani medziročne klesol o 16 percent</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23459421/trzby-maloobchodu-v-januari-medzirocne-mierne-stupli.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/c3088cac-bb9d-4da3-8b4a-7006c43cb2df/!ut/p/z1/rZNLc5swFIX_SrLwUqML4uUl9iQYF3uKbRxbm44QYCg2EKOS-N9XxNNpMxMei7IRjO49Ojr3A1N8wLRgTXZiIisLdpbfR2r88E3Xms0UG2DmEXCX37brxfxZdQIdv3wusNabJ3B39ndns9QU0HRM5bbt-_7W2-_B2avP4BLFgXUQSDUD7zHFlBeiEik-lmHNUlTnKCsSxHIxAflSXi_STVPEqK6urLlNoKljkcuVE7AszjgKw2mEtIgRZIUaQyaAwTXCQzVKWvmKZxE-jqq-X6fHLx0Tx9yxF5rpAVieo4NrL4LN1CcEbDIUx70fOh4bxvX3GKT98i9tXgM3GNKgvSZ3Bj5Kk2ZnwUam2GTxGw6KdvRnvP07Qz3RFaJqgJIoNpCmcRVNVWYhU09CroJCCNfxAvByKCfJtXpdzVcnqcxE2gJX4kPOBDuXp4d_qLvx9OGDu7Yl-_n6Sm3Ja1mI-F3gwx9gJ1ALWc7Rx04hwa2uZfQrF7cOhHtPuufTNUTF7M5nFOPLIYi_DmeUdl9I__Ovri7BxSK3LMtQvrHedkl6brxk9UR0udqPj78BZVCLWw!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Tržby maloobchodu v januári medziročne mierne stúpli</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23459929/slovenska-ekonomika-v-minulom-roku-rastla-o-dve-percenta.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/a69d33e2-2837-4413-84ce-5b2b92ad38ef/!ut/p/z1/rZNLc5swFIX_SrLwUqOLxMtL7EkwLvYUbBxbm47Mw1BsIEYl8b-viKfTZiY8FmUjGN17dHXOB2Z4j1nBm-zERVYW_Cy_D0z_4RmOOZspFsDMpeAsv23Wi_kzsQMNv3wuMNf-Ezhb67vtL1UFVA0zuW15nrdxdzuwd-QZHKrYsA4CqabjHWaYhYWoRIoP5bHmKapzlBUJ4rmYgHwprxc5TVPEqK6uvLlNoKljkcuV69OI0pggYlIDqapCkamGMdKO5DglPKJmnLTyVZhF-DCq-n6dnnnZGDvmtrVQDRfAdG0NHGsR-FOPUrDokB33fuh4LBjX3zMg65d_af0auMGQBusdcqvjgxzS6CzwpYtNFr_hoGijP-PN3wy1RFMoUQElUazLDEOCZHQmMrTkGBJQKA01vAC8HPJJck2uq_nqJJW5SFvgSrzPueDn8vTwD3W3MH344K5tyX6-vjJL8loWIn4XeP8H2AnUQpaH6GOnkOBW1zL6lYtbB8K9J9396QpRMbr9GcX4cgjir80Zpd1n0v_8q6tLcDHpLcsylPvm2zZJz42brJ6oJlfr8fE3ke3IKA!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Slovenská ekonomika v minulom roku rástla o dve percentá</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23461117/slovensky-priemysel-zaznamenal-prvy-pokles-po-siestich-mesiacoch.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/bcef9365-ecf0-4943-8b03-1af6feaa22f5/!ut/p/z1/rZNfc6IwFMW_SvvgYyYXQgAf0WkRF51FxWpediISYVGgkqX122-os7PbmfLnYXkJTO49OTn3B2Z4h1nO6_TEZVrk_Ky-98z8EViePZloDsDEJ-DNv62Xs-mz7oYUv3wusJerJ_A2znd3NTc0MChmatsJgmDtb7fgbvVn8IjmwjIMlZqJt5hhFuWylAneF4eKJ6jKUJoLxDM5AvVSXC_KTZ3HqCqvvL6NoK5iman1EMViTEyK4kgAMsYGQfYBCNK4MEXMua4L2siXUXrE-0HV9-t0-GVD4pi6zsywfADbdyl4zixcjQNCwCF9cdz7oeVxYFh_h0HWLf_S5NVzgz4N1mlyY-K9Mmm1FqxUinUav-Ewb0Z_xuu_M6SCakQ3AIljbCLDiHQ01rmNLCoOkQ4aIRHFM8DzvpwU1_p1MV2clDKXSQNcgXcZl_xcnB7-oe4WJQ8f3DUt6c_XV-YoXotcxu8S7_4AO4JKqvIIfezkCtzyWhx_ZfLWgnDnSfd82oaoWe35DGJ83gfx1-EM0u4K6X_-1eUlvNjklqYpylb220Yk59oXiydC1eo8Pv4GP8yVsQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Slovenský priemysel zaznamenal prvý pokles po šiestich mesiacoch</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23461629/zahranicny-obchod-slovenska-skoncil-v-januari-v-deficite.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/c1e95346-f8f5-46af-9326-c800983a8a85/!ut/p/z1/rZPNcpswFIVfJVl4qdEFIRBL7EkwLvYU2zi2Nh0Fg6HYQIxK4reviKfTdqb8LMpGMLr36OjcD8zxHvNCNNlJyKwsxFl9H7j5LbA8Np1qDsDUJ-AtvmxW89mz7oYUv_xdwFbrJ_C2zld3vTA0MCjmatsJgmDj73bg7vRn8IjmwioMlZqJd5hjHhWykik-lK-1SFGdo6xIkMjlBNRLeb0oN00Ro7q6iuY2gaaOZa7WSIttSgwTJSyhyDBFgmyimyhiADYjgglGW_kqyo74MKr6fp0ev3xMHDPXmRuWD8B8l4LnzMO1HRACDhmK494PHY8D4_p7DPJ--Zc2r4EbDGnwXpNbEx-USauzYK1SbLL4HYdFO_oz3vyeIU2oRnQDUHKMTWQYkY5sXTBk0eQ10kEjJKJ4DngxlJPiWr8uZ8uTUhYybYEr8T4XUpzL08Mf1N2i9OGTu7Yl-_72xh3Fa1nI-EPi_S9gJ1BLVR6hz51CgVtdy-OPXN46EO496Z5P1xA1qzufUYwvhiD-dzijtPtC-p9_dXUJL4zcsixD-Zq9b5P03PjJ8olQtTqPjz8Bx-gTzg!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Zahraničný obchod Slovenska skončil v januári v deficite</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23462754/nominalna-mzda-v-januari-medzirocne-rastla-vo-vsetkych-odvetviach.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/529ce5a6-5914-4e60-a187-177cd44f241c/!ut/p/z1/rZNfc6IwFMW_SvvgYyY3JPzxEZ0WcdFZVKzmZSeNICwKVLK0fvsNdXamO7MCD8tLYHLvycm5PzDHO8wL0WRHobKyECf9vefWj9D2ncmEuACTgII__7ZezqbPhheZ-OXvAme5egJ_4373VnNGgJmY6203DMN1sN2CtzWewafEg2UUaTULbzHHXBaqUinel6-1SFGdo6xIkMjVCPRLeTlrN00Ro7q6iOY6gqaOVa5X0xjL2BQWMseEIRZbgARxbERsWx4YSwxGZCtfyeyA94Oqb9fp8MuHxDH13BmzAwAn8Ezw3Vm0GoeUgkv74rj1w53HhWH9HQZ5t_xLm1fPDfo0eKfJjYX32qR9t2ClU2yy-B1HRTv6E15_mWFiEmowQMkhthBj0kBjQzjINpNXaQChVJp4Bnjel5Pm2rgspoujVhYqbYEr8S4XSpzK48MX6q4yffjkrm3Jfr69cVfzWhYq_lB49wfYEdRKl0v0uVNocKtLefiVq-sdhDtPuuVzb4jE7shnCOPzPoj_Hc4g7a6Q_udfXZ2js0OvWZahfOW8b5L01ATJ4omaenUfH38Dt46JCg!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Nominálna mzda v januári medziročne rástla vo všetkých odvetviach</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23463288/inflacia-sa-na-slovensku-vo-februari-mierne-spomalila.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/77169fbd-956c-4a87-add1-93f21079fbfa/!ut/p/z1/rZNNb6MwEIb_SnvI0fKA-TySqCWkJFpISBNfVg4fgZIADV7a_PuaRtVupfJxWC7GmpnX43ceY4p3mBasyY6MZ2XBTmK_p9pvT3eM6VSyAKYuAWfxtF7NZ4-yHaj4-XuCsfIfwNlYv2x_oUigqJiKsOV53trdbsHeyo_gEMmGVRAINQ1vMcU0LHjFU7wvDzVLUZ2jrEgQy_kExE95OYtumiJGdXVhzXUCTR3zXKy6LmlmcoiQqWohUpihIxZFEjJJIkugi1DCWvkqzCK8H5V9u05Pv3SMHTPbmiu6C2C4tgqONQ980yMELDJkx60eOj4LxtX3NEj75Z9bvwZuMKRBe5vcaHgvmtQ7E3zhYpPFbzgo2tGf8PrvDNVElYisAEqiWEOKEsrIlJmBdDU5hDJIhIQqngNeDPkkuJYvy9nyKJQZT1vgSrzLGWen8nj3D3XXML375K4tyV5eX6kleC0LHr9zvPsCdgI1F-kh-owUAtzqUkZ_cn7tQLj3pJs_XUOU9G5_RjG-GIL4Z3NGafeZ9D9fdXUOzga5ZlmGct942yTpqXGT5QNRxWrd338At5bepw!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Inflácia sa na Slovensku vo februári mierne spomalila</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23465542/harmonizovana-inflacia-vo-februari-spomalila.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/1e4c8eae-3ec7-46d7-9b42-13ca468457e9/!ut/p/z1/rZNLk6IwFIX_SvfCZSoXEh4u0epGHLQGFVvZTMUYhEGBlgzd_vsJbU3NdFXzWAybQOXek5NzP3CEdzjKWZ2emEyLnJ3V9z4yfwSWZ08mmgMw8Ql482_r5Wz6rLuhgV8-F9jL1RN4G-e7u5pTDaiBI7XtBEGw9rdbcLf6M3hEc2EZhkrNxFsc4YjnspQJ3heHiiWoylCax4hlcgTqpbhelJs6F6gqr6y-jaCuhMzUqgnKbcEEIoJbiJpHC40PVEca4YyaNjUsMW7kS54e8X5Q9f06HX6jIXFMXWdGLR_A9l0DPGcWrsYBIeCQvjju_dDyODCsv8Ng1C3_0uTVc4M-jajT5MbEe2XSai1YqRTrVLzhMG9Gf8brvzM0YkMjOgUUH4WJKOU6GuvMRpYRH7gOGiHcwDPA876cFNf6dTFdnJQyk0kDXIF3GZPsXJwe_qHuxpOHD-6alvTn62vkKF6LXIp3iXd_gB1BJVU5Rx87uQK3vBbHX5m8tSDcedI9n7YhalZ7PoMYn_dB_HU4g7S7Qvqff3V5CS82uaVpirKV_baJk3Ptx4snYqjVeXz8DfNLgb0!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Harmonizovaná inflácia vo februári spomalila</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23465700/chudoba-vlani-ohrozovala-980-tisic-ludi-najviac-jednorodicov.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/katalog%20informativnych%20sprav/!ut/p/z1/tVHBcoIwFPwVe_CYyYOA4DE6FnHUKVio5tKJEYSigJBi-fsGx0Mv0umhuSW7-7L7FjO8xSznTXrkMi1yflL3HRu9U8_zNsswBCfUn8ElmgPrIACYjPDbjeBZrj2ZaBTstT8D95W-OP7C0MAwMevXh5hhJnJZygTvin3NE1RnQ6ilciCQKHIZ5XIIZVUcPjPZDiHN46I6K7TJI1SXFW_UY8YlPxXHwQ-wFcngBncflCI94J0ZmxrRDUDxIRohwxA6GuvcRpYZ74UOGiHCvAfqcdwFggeHgtKzG2Xq0LlhLQHspWOCS-eBP_YIAUruhJ4ZO-XBeujBVyabNLriIO_CnvDmjxHngBe_9aKK16vVdHVUk7lMULdZvO3ds5KkH5cLo6rQrrcvibf_02h5Ds42aVEWr2bEYPv2Sp--AR0A-0M!/dz/d5/L2dBISEvZ0FBIS9nQSEh/?1dmy&amp;urile=wcm%3apath%3a/Obsah-SK-INF-AKT/informativne-spravy/vsetky/1b9668e5-6a36-4050-9a8c-5a4f8d0d4451</t>
+  </si>
+  <si>
+    <t>Chudoba vlani ohrozovala 980-tisíc ľudí, najviac jednorodičov</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23469991/velkoobchodne-ceny-paliv-zacali-mierne-rast.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/9eaafb85-7fc2-4ff4-93d4-431caff0c46d/!ut/p/z1/rZNLc5swFIX_SrLwUqMLEg8vsSfBuNhTsHFsNh0ZkKHYQIxK4n9fEU-nzUx4LMpGMLr36OjcDxziPQ4L1mQnJrKyYGf5fQj1H57hmLOZYgHMXALO8ttmvZg_q3ag4ZfPBebafwJna323_SVVgGo4lNuW53kbd7cDe6c-g0MUG9ZBINV0vMMhDqNCVCLFh_JYsxTVOcoKjlguJiBfyutFummKBNXVlTW3CTR1InK5ThPG-NHUkMEjFVHOKZqSmCJKlIhxDhHV41a-irIYH0ZV36_T4zccE8fcthbUcAFM19bAsRaBP_UIAYsMxXHvh47HgnH9PQbDfvmXNq-BGwxphL0mtzo-SJNGZ4EvU2yy5A0HRTv6M978naHGNYWoFBCPEx1RKgc5VZmJDI0fIxUUQiINLwAvh3KSXKvX1Xx1kspMpC1wJd7nTLBzeXr4h7pblD58cNe2ZD9fX0NL8loWInkXeP8H2AnUQpZH6GOnkOBW1zL-lYtbB8K9J93z6RqiYnTnM4rx5RDEX4czSrsvpP_5V1eX4GKSW5ZlKPfNty1Pz43LV09Ek6v1-PgbierCHg!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Veľkoobchodné ceny palív začali mierne rásť</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23474346/trzby-maloobchodu-vo-februari-prvykrat-po-roku-klesli-o-26-percenta.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/4de13c45-319f-4522-b0a6-f410025e5e9d/!ut/p/z1/rZNLc5swFIX_SrLwUqOLhAAvsSfBuNhTsHFsNh2Zh6HYQIxK4n9fEU-nzUx4LMpGMLr36OjcDxzgPQ4K3mQnLrKy4Gf5fQi0H65uG7OZYgLMHAr28ttmvZg_E8tn-OVzgbH2nsDemt8tb6kqoDIcyG3Tdd2Ns9uBtSPPYFPFgrXvSzUN73CAg7AQlUjxoTzWPEV1jrIiQTwXE5Av5fUi3TRFjOrqypvbBJo6Frlc1ShWaKgyRJVpglRGCDoC11AiTwbCYhZPo1a-CrMIH0ZV36_T4zcYE8fcMheq7gAYjsXANhe-N3UpBZMOxXHvh47HhHH9PQaDfvmXNq-BGwxpBL0mtxo-SJN6Z4EnU2yy-A37RTv6M978nSFLmEKJCiiJYg2pakjQlHAD6Sw5hgQUSkOGF4CXQzlJrsl1NV-dpDIXaQtcifc5F_xcnh7-oe4Wpg8f3LUt2c_X18CUvJaFiN8F3v8BdgK1kOUh-tgpJLjVtYx-5eLWgXDvSfd8uoao6N35jGJ8OQTx1-GM0u4L6X_-1dXFvxj0lmUZyj3jbZuk58ZJVk-UydV8fPwNXbcbSw!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Tržby maloobchodu vo februári prvýkrát po roku klesli o 2,6 percenta</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23475337/deficit-zahranicneho-obchodu-slovenska-o-februari-presiahol-41-milionov-eur.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/465aeb78-ce75-4b7f-9586-0b2f7a60d2f1/!ut/p/z1/rZPNcpswFIVfJVl4qdEFIcBL7EkwLvYUbBxbm47AYCg2EKOS-O0r4um0mQk_i7IRjO49Ojr3AzO8x6zgTXbiIisLfpbfB6b_8AzHnM0UC2DmEnCW3zbrxfxZtQOKXz4XmGv_CZyt9d32l5oCGsVMblue523c3Q7snfoMDlFsWAeBVNPxDjPMokJUIsWHMqx5iuocZUWCeC4mIF_K60W6aYoY1dWVN7cJNHUscrlqOuVxaJgoig2KtNBI0JSaOoJQTQyuw1FNlFa-irIjPoyqvl-nxy8bE8fcthaa4QKYrk3BsRaBP_UIAYsMxXHvh47HgnH9PQZZv_xLm9fADYY0WK_JrY4P0qTRWeDLFJssfsNB0Y7-jDd_Z0gTqhBVA5QcYx1pWqSiqcpNZNAkjFRQCIkoXgBeDuUkuVavq_nqJJW5SFvgSrzPueDn8vTwD3W3KH344K5tyX6-vjJL8loWIn4XeP8H2AnUQpZH6GOnkOBW1_L4Kxe3DoR7T7rn0zVExejOZxTjyyGIvw5nlHZfSP_zr64uwcUktyzLUO6bb9skPTdusnoiVK7W4-NvjrGy-A!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Deficit zahraničného obchodu Slovenska o februári presiahol 41 miliónov eur</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23475436/americke-cla-zasiahnu-slovenske-zavody-automobiliek.html</t>
+  </si>
+  <si>
+    <t>Americké clá zasiahnu slovenské závody automobiliek</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23475851/priemyselna-produkcia-slovenska-vo-februari-medzirocne-klesla.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/7746e1d9-0015-4a45-83c2-3ef215760689/!ut/p/z1/rZPNcpswFIVfJVl4qdEVQoCX2JNgXOwp2Di2Nh0Fg6HYQIxK4reviKfTdqb8LMpGMLr36OjcD8zxHvNCNNlJyKwsxFl9H7jxzTddazYjNsDMo-Auv2zWi_mz5oQMv_xdYK2DJ3C39lcnWOoEdIa52rZ93994ux04O-0ZXEocWIehUjPwDnPMo0JWMsWH8rUWKapzlBUJErmcgHoprxflpiliVFdX0dwm0NSxzNVqmroRk-MUARCGdKEzZNFIQzRONMJMAwxr2spXUXbEh1HV9-v0-OVj4pg79kI3PQDLcxi49iIMpj6lYNOhOO790PHYMK6_xyDvl39p8xq4wZAG7zW5NfBBmTQ7CwKVYpPF7zgs2tGf8eb3DFnCCNV0QMkxNpCuq_FNNWEhkyWvkQaE0ojhBeDlUE6Ka-26mq9OSlnItAWuxPtcSHEuTw9_UHeL0odP7tqW7PvbG7cVr2Uh4w-J97-AnUAtVXmEPncKBW51LY8_cnnrQLj3pHs-XUMkZnc-oxhfDkH873BGafeF9D__6uoSXix6y7IM5YH1vk3Sc-MlqyfK1Go_Pv4Ela3aDQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Priemyselná produkcia Slovenska vo februári medziročne klesla</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/3d3b921d-69b1-491d-8f51-12a3de9dee7a/!ut/p/z1/rZNLb6MwFIX_SrvI0vIF81ySqCWkJBpISBNvRg6PQEmABg9t_n1No2qmUnksho2NfO_h-NwPTPEO04I12ZHxrCzYSbzvqfbb0x1jOpUsgKlLwFk8rVfz2aNsByp-_l5grPwHcDbWL9tfKBIoKqbi2PI8b-1ut2Bv5UdwiGTDKgiEmoa3mGIaFrziKd6Xh5qlqM5RViSI5XwCYlNezsJNU8Sori6suU6gqWOei5VE5GDKUoQ08yAhxRQ7I1ElJMmMRLEZxbHOWvkqzCK8H1V9u06PXzomjpltzRXdBTBcWwXHmge-6RECFhmK49YPHY8F4_p7DNJ--ec2r4EbDGnQXpMbDe-FSb2zwBcpNln8hoOiHf0Jr__OUBUDI7ICKIliDSlKKCNTZgbS1eQQyiAREqp4DngxlJPgWr4sZ8ujUGY8bYEr8S5nnJ3K490_1F3D9O6Tu7Yle3l9pZbgtSx4_M7x7gvYCdRclIfo86QQ4FaXMvqT82sHwr1fuuXTNURJ785nFOOLIYh_DmeUdl9I__Ovrs7B2SDXLMtQ7htvmyQ9NW6yfCCqWK37-w8c_YFk/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23476400/stavebna-produkcia-vo-februari-medzirocne-vzrastla-o-34-percenta.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/8c0f75c0-d938-4c49-bd7d-14f25c31ba53/!ut/p/z1/rZNfc6IwFMW_SvvgYyYXQgQf0WkRF51FxWpedmIAYVGgkqX122-os7PbmfLnYXkJTO49OTn3B2Z4j1nO6_TEZVrk_Ky-D2z8wzddazrVbICpR8BdfNus5rNn3QkofvlcYK3WT-Bu7e_OemFoYFDM1Lbt-_7G2-3A2enP4BLNgVUQKLUx3mGGmchlKRN8KI4VT1CVoTSPEc_kCNRLcb0oN3Ueoaq88vo2grqKZKZWS0BsUgEonBALGcKYoGNohkgzYp0Koh05JY18KdIQHwZV36_T4ZcNiWPm2HPD9AAsz6Hg2vNgPfEJAZv0xXHvh5bHhmH9HQZZt_xLk1fPDfo0WKfJ7RgflEmztWCtUqzT6A0HeTP6M978nSGNqUZ0A1AcRmNkGEJHE51byKTxUeigESIongNe9OWkuNavy9nypJS5TBrgCrzPuOTn4vTwD3U3kTx8cNe0pD9fX5mteC1yGb1LvP8D7AgqqcoF-tjJFbjltQh_ZfLWgnDnSfd82oaome35DGJ80Qfx1-EM0u4K6X_-1eUluFjklqYpytbW2zZOzrUXL58IVav9-PgbD5E0MA!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Stavebná produkcia vo februári medziročne vzrástla o 3,4 percenta</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23476425/ceny-pohonnych-latok-viditelne-vzrastli-najma-pri-benzinoch.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/af670475-131d-449a-bf51-df865d68e51b/!ut/p/z1/rZNLc5swFIX_SrLwUqMLQoCX2JNgXOwp2Di2Nh2Zh6HYQIxK4n9fEU-nzUx4LMpGMLr36OqcD8zwHrOCN9mJi6ws-Fl-H5j-wzMcczZTLICZS8BZftusF_Nn1Q4ofvlcYK79J3C21nfbX2oKaBQzuW15nrdxdzuwd-ozOESxYR0EUk3HO8wwCwtRiRQfymPNU1TnKCsSxHMxAflSXi9ymqaIUV1deXObQFPHIpcrT3QDNIMihSgR0rQpR8eEKihKTJ1GuhlT5djKV2EW4cOo6vt1euZlY-yY29ZCM1wA07UpONYi8KceIWCRITvu_dDxWDCuv2dA1i__0vo1cIMhDdY75FbHBzmk0VngSxebLH7DQdFGf8abvxlSGRhRNUBJFOsyw1BFU5WbyKDJMVRBISSkeAF4OeST5Fq9ruark1TmIm2BK_E-54Kfy9PDP9TdwvThg7u2Jfv5-sosyWtZiPhd4P0fYCdQC1keoo-dQoJbXcvoVy5uHQj3nnT3pytExej2ZxTjyyGIvzZnlHafSf_zr64uwcUktyzLUO6bb9skPTdusnoiVK7W4-NvRoZMkA!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Ceny pohonných látok viditeľne vzrástli najmä pri benzínoch</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23477501/trzby-vo-vsetkych-sledovanych-odvetviach-ekonomiky-vo-februari-rastli.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/b93721b3-9bcf-4294-bdba-b7a59d2ab176/!ut/p/z1/rZNLc5swFIX_SrLwUqOLxHOJPQnGxZ6CjWOz6YiXodhAjErif18RT6fNTHgsykYwuvfo6NwPHOADDkrW5ifG86pkZ_F9DNQfrmbr87lkAswdCvbq23azXDwTy1fwy-cCfeM9gb0zv1veSpZAVnAgtk3XdbfOfg_WnjyDTSULNr4v1FS8xwEOopLXPMPHKmxYhpoC5WWKWMFnIF6q60W4acsENfWVtbcZtE3CC7GGBtWIFFJkhFGKZGLIKIxDhkKNKUZMWChpaidfR3mMj5Oq79cZ8BtMiWNhmUtZcwB0x1LANpe-Z7iUgknH4rj3Q89jwrT-AYPBsPxLl9fIDcY0gkGTOxUfhUmtt8ATKbZ58ob9shv9GW__zlBJFYkSGVAaJyqS5YgggzAdaUoaRgQkSiMFLwGvxnISXJPrerE-CWXGsw64Ch8Kxtm5Oj38Q90tyh4-uOta8p-vr4EpeK1KnrxzfPgD7AwaLsoj9LFTCnDraxX_KvitB-HBk-759A1R0vrzmcT4agzir8OZpD0U0v_8q-uLf9HpLc9zVHj62y7Nzq2Trp-oIlbz8fE3-2FiNg!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Tržby vo všetkých sledovaných odvetviach ekonomiky vo februári rástli</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23477499/rast-miezd-vo-februari-spomalil-v-styroch-odvetviach-zaostaval-za-inflaciou.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/2f30fed7-c0c3-4de7-b989-219d4a3e8e25/!ut/p/z1/rZNLc5swFIX_SrLwUqOLBAaW2JNgXOwp2Di2Nh2Zh6HYQIxK4n9fEU-nzUx4LMpGMLr36OjcD8zwHrOCN9mJi6ws-Fl-H9j0h6c7xmymWAAzl4Kz_LZZL-bPxA40_PK5wFj7T-Bsre-2v1QVUDXM5Lbled7G3e3A3pFncKhiwzoIpNoU7zDDLCxEJVJ8KI81T1Gdo6xIEM_FBORLeb1IN00Ro7q68uY2gaaORS5XklBI4khHIYQUqVGso6NpmIgoZqRyGhsx0Vr5KswifBhVfb9Oj182Jo65bS1U3QUwXFsDx1oEvulRChYdiuPeDx2PBeP6ewyyfvmXNq-BGwxpsF6T2yk-SJN6Z4EvU2yy-A0HRTv6M978naGWaAolKqAkiqdIVUOCTMINpGvJMSSgUBpqeAF4OZST5JpcV_PVSSpzkbbAlXifc8HP5enhH-puYfrwwV3bkv18fWWW5LUsRPwu8P4PsBOohSwP0cdOIcGtrmX0Kxe3DoR7T7rn0zVERe_OZxTjyyGIvw5nlHZfSP_zr64uwcWgtyzLUO4bb9skPTdusnqimlytx8ffIa_8qA!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Rast miezd vo februári spomalil, v štyroch odvetviach zaostával za infláciou</t>
+  </si>
+  <si>
+    <t>https://index.sme.sk/c/23478025/inflacia-v-marci-dosiahla-uroven-styroch-percent-bola-najvyssia-za-15-mesiacov.html</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/f87ec3ce-5c6f-4a0f-9c70-0f885a5ea884/!ut/p/z1/rZNNc5swEIb_SnLwUaMFIcBH7EkwLvYUbBxbl44ig6HYQIxK4n9fEU-n7Uz5OJSL0Ozuq9W7jzDDe8wK3mQnLrOy4Ge1PzDzW2B59mymOQAzn4C3_LJZL-bPuhtR_PJ3gr0On8DbOl_dcGloYFDMVNgJgmDj73bg7vRn8IjmwjqKlJqJd5hhJgpZyRQfyteap6jOUVYkiOdyAuqnvF5UN00Ro7q68uY2gaaOZa7WxLZiQUSMqDATZHBI0FRYgFTAppzG3LaNVr4S2REfRmXfr9PTLxtjx9x1FoblA9i-S8FzFlE4DQgBhwzZca-Hjs-BcfU9DbJ--ZfWr4EbDGmw3ia3Jj6oJq3OhFC52GTxO46KdvRnvPk9Q5pQjegGoOQYm8gwhI6mOreRRZNXoYNGiKB4AXg55JPiWr-u5quTUuYybYEr8T7nkp_L08Mf1N1E-vDJXVuSfX97Y47itSxk_CHx_hewE6ilShfoM1IocKtrefyRy1sHwr0n3f3pGqJmdfszivHlEMT_NmeUdp9J__NVV5foYpNblmUoD-33bZKeGz9ZPRGqVufx8SfCmKn9/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Inflácia naberá na sile, je najvyššia od konca roka 2023</t>
+  </si>
+  <si>
     <t>URL</t>
   </si>
   <si>
@@ -504,6 +831,156 @@
     <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/f291b6e2-4857-4340-b4cb-98b8caa9db3b/!ut/p/z1/tVFNc4IwFPwtPXjMvAcJAsfoWMCqU22tkksnQVSKAkoG679v6PTSgx89NJeXzOxudt-CgCWIQjbZRuqsLOTOvGPRfZ-6kdfrWRyxN6IYDZ9eJmH_0Q7mDix-A7zJbIDRK38OZkNmIXNAXOe_gQCRFLrSW4hLVcstqXOSFWsic91BcymPe-OmKVJSV0fZnDvY1KnOzVzbvqW6qU2Y57iEUYZEsUQR31NeIqW_UlS18lWSrSC-C724lbeNgxcOR8MX35B-wEPmjhC9UeBgxMP5zJ9Sipz-AK5oxMaDe9GD5cKiydITzIt2Mzt4-WPEEGF4qxVTe_ZxOAhuuikLnX5qWP5HOeYf-zjujzcmgdTbVrqE5V3Uaj_fe_RM8vV4QJlQ5xN_-AJuarR6/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
   </si>
   <si>
+    <t>https://e.dennikn.sk/minuta/4607727</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/7b9c6c80-b318-4a80-bc2d-9fc1fbbc7ca0/!ut/p/z1/tVFNc4IwFPwtPXjMvIdBwWN0LGDVqVqq5NIJEZSiASWD9d8bOr304EcPfZf3MrO7s5sFDivgStTZRuisUGJn3hHvfsycwO33LYbYH1MMRi-LqT94bnthB5a_Ae50PsTgjb1685Ftod0Bfpv_Dhy4VLrUW4iKuBJbUuUkUykRuW6hOYrj3ripVUKq8ijqcwvrKtG52U7ck13pIomp5RJbNJdsr0kvlVYax9KRAhv5UmZriB5CL-_lbeLglWENn39DBh7zbWeM6I69DgbMD-e9GaXI6A_ghkZkPDhXPVgOLOssOUGomp_ZweKPEX2E0b1WTO3t42Qw2RhlobdNHwWsHpI31OzzcODM1FoonXxpWP1Hr-U-3Lv0TPJ0MqQ2j88n9nQBb9h3eQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4605622</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/3ad74213-3a47-4a85-8646-267aa74a3828/!ut/p/z1/tVFNc4IwFPwtPXjMvEACSY_BsYBVp2qpkksnKipFA0oG679v6PTSgx899F3y3szuzm4WJMxBatXkG2XyUqudvVPpv49ZzIPAERgHA4Lj_vN0FHWf3DDxYPYbwEeTHo5fxUs46VMHUw_kdf4bSJBLbSqzhbRc1GqL6gLleo1UYTrYLuVxb900OkN1dVTNuYObOjOFfYlaMeo6BBFFGaKKe4j71Eeuz5RiVBHu8la-WuYrSO9Cz27lbePgCyOw5ctvSDcUEWUDjPkg9HAsomTyOCYEC_IDuKKRWg_sogeHwazJsxMkuv2ZHUz_GDHC0L_Viq3dPQ67w41VVmbb9lHC_C55S80_DgcpbK2lNtmngfl_9Frtkz0nZ1Sshz1C5eJ8Eg9fW-SCIQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4601115</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/72b71bda-5e6f-47fa-8d92-72e06f9803e5/!ut/p/z1/tVFNc4IwFPwtPXjMvAcBg8foWMCqU22pkksnKChFA0oG679v6PTSgx89NJeXzOxudt-CgCUIJZt8I3VeKrkz71h032cs9Pp9iyP2xxTD0dPLNBg82n7kwuI3wJvOhxi-8md_PnIsdFwQ1_lvIECslK70FuIyqeWW1AXJVUZkoTtoLuVxb9w0KiV1dZTNuYNNnerCTGYnzErWkrhpNyMOyyTx1j2bMDvFbtbzkKZuK1-t8jXEd6EXt_K2cfDC4Wj44hsy8HngsDGiN_ZdDHkQzXszSpHTH8AVjdh4YBc9WAwWTZ6eIFLtZnbw8seIAcLoVium9vzjcBDcdFMqnX5qWP5HOeYf-zgZTDYmgdTbVrqE5V3Uah_tPXomRTYZUkck5xN_-AIOUtCY/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4589556</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/49a6fd39-f735-47c7-aae6-b7ef602f56b5/!ut/p/z1/tVFNc4IwFPwtPXjMvKcBgsfoWMCqU7VUyaUTFJSiASWD9d8bOr304EcPzeUlM7ub3bcgYAlCyTrbSJ0VSu7MOxLOx5QFbq_X5oi9EcVg-DKf-P3njhfasPgNcCezAQZv_NWbDa02WjaI2_x3ECBWSpd6C1ERV3JLqpxkKiUy1y00l-K4N25qlZCqPMr63MK6SnRuptWVTrqmXZIyahOLrRiRMnFIzJLUwU5qO7HdyJerbA3RQ-jFvbxNHLxyOBq--Ib0Pe5bbITojjwbA-6Hs-6UUuT0B3BDIzIe2FUPbQaLOktOEKpmMzuY_zGijzC814qpPfs8HAQ33RRKJ18alv9Rjvmncxz3xxuTQOptI13A8iFquQ_3Lj2TPB0PqCXi84k_XQDQi-cc/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4589522</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/a3da2d02-25bd-4226-850c-15513c042413/!ut/p/z1/tVFNc4IwFPwtPXjMvEcShB6jYwGrTtVSJZdOBFSKAkoG679v6PTSgx89NJeXzOxudt-ChCXIQjXZRumsLNTOvCPZfZ86gdvrWQKxN2IYDJ_nE7__RL3QhsVvgDuZDTB4FS_ebMgt5DbI6_w3kCDjQld6C1G5qtWW1DnJijVRue6guZTHvXHTFCmpq6Nqzh1s6lTnZiqWKJogJdReJYRT2iWujTGxbNtiMXLKLdbKV3GWQHQXenErbxsHLxyBhi-_IX1P-NwZIbojz8ZA-OHsccoYCvYDuKIRGQ_ORQ-WA4smS08QFu1mdjD_Y0QfYXirFVN79nE4SGG6KQudfmpY_kc55h96HPfHG5NA6W0rXcLyLmq1D_cuO5N8PR4wLlfnk3j4AgRPwe4!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4584254</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4582197</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4577930</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/af670475-131d-449a-bf51-df865d68e51b/!ut/p/z1/tVFNc4IwFPwtPXjMvIcQwGN0LGDVqVqq5NIJAkrRgJLB-u8NnV568KOH5vKSmd3N7lvgsAIuRZNvhMpLKXb6HXH7Y-YEbr9vMMT-2MRg9LKY-oPnrhdSWP4GuNP5EIM39urNR5aBFgV-m_8OHPhaqkptISrjWmxJXZBcZkQUqoP6Uh732k0jU1JXR9GcO9jUqSr0FJntoOVQYphGQiyrJ0icUYMkmWvTxHZTasStfLXOE4geQi_v5W3j4JXDUPP5N2TgMd9yxoju2KMYMD-c92amicz8AdzQiLQH56oHw4Flk6cnCGW7mR0s_hjRRxjda0XXnn8eDpzpbkqp0i8Fq_8oR__TPU4Gk41OINS2lS5h9RC12od71zyTIpsMTYvH5xN7ugDqgxrJ/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4577943</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4575486</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4572892</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4568256</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/4de13c45-319f-4522-b0a6-f410025e5e9d/!ut/p/z1/tVFNc4IwFPwtPXjMvAcBwWN0LGDVqVqq5NKJGpSiASWD9d8bOr304EcPzSV5M7v7drPAYQFciTrbCJ0VSuzMnPD2x8SL_G7XYojdIcVo8DIbh71nO4hdmP8G-ONpH6M39hpMB46Fjgv8Nv8dOPCV0qXeQlIsK7ElVU4ylRKR6xaaR3HcGze1kqQqj6I-t7CupM7N7aylRVeOS6jVSYnj2jZZomiT1GxG25Wu7Kwb-XKVrSF5CD2_l7eJg1cOQ8Pn35BewELHGyL6w8DFiIXxtDOhFBn9AdzQSIwH76oHy4N5nckTxKr5mR3M_hgxRBjca8XUnn0eDpyZbgql5ZeGxX-UY_bYx1FvtDEJhN420gUsHqKW-3jv0zPJ01GfOnx5PrGnC_pEhnQ!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4564389</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/2266b2b5-8ac0-4f88-afb9-d76a2c27a6f6/!ut/p/z1/tVFNc4IwFPwtPXjMvGf4isfoWMCqU7VUyaUTEJSigJLB-u8NnV568KOH5vKSmd3N7lsQsAJRyCbbSJWVhdzpdyjsj5njs36_yxH7YwP90cti6g2eqRtYsPwNYNP5EP03_urOR2YXTQvEbf47CBBxoSq1hbCMarkldU6yIiUyVx3Ul_K4126aIiF1dZTNuYNNnahcT0ptO6KRRZiMkZgpY0SmUY-sHVvSmDrSTu1WvoqzNYQPoZf38rZx8MrhqPniGzJwuWc6Y0Q2di30uRfMezPDQG78AG5ohNqDc9VD14FlkyUnCIp2MztY_DGihzC614quPfs8HATX3ZSFSr4UrP6jHP0PPU4Gk41OINW2lS5h9RC12gd7ZpxJnk6Ghimi84k_XQAH8syn/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4554625</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/472f1f2b-1e83-4ff3-b453-8cc2950c8917/!ut/p/z1/tVFNc4IwFPwtPXjMvAcJBY_RsYBVp9pSJZdOoKAUDSgZrP--odNLD3700FxeMrO72X0LAlYglGyLtdRFpeTWvGNx_zZ3Q28wsDjiYEIxHD8-z4Lhg-1HDix_A7zZYoThC3_yF2NmIXNAXOa_ggCRKl3rDcRV0sgNaUpSqJzIUvfQXKrDzrhpVUaa-iDbUw_bJtOlmcy1cyu3E2JlHiUszylJmEOJl6Z238HU61tuJ1-nxTvEN6GX1_J2cfDM4Wj44hsy9HnA3AmiN_EdDHkQLfpzSpHTH8AFjdh4cM966Ey2RXaESHWb2cLzHyMGCONrrZjai4_9XnDTTaV09qlh9R_lmH_sw3Q4XZsEUm866QpWN1HrXbTz6ImU-XREmUhOR373BcJmA74!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4550419</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/9eaafb85-7fc2-4ff4-93d4-431caff0c46d/!ut/p/z1/tVFNc4IwFPwtPXjMvIcJgsfoWMCqU7VUyaUTkShFASWD9d8bOr304EcPzeUlM7ub3bcgYAkil3W6kTotcrkz70h0PqZO4PZ6FkfsjSgGw5f5xO8_t73QhsVvgDuZDTB446_ebMgsZDaI2_x3ECDiXJd6C1GxquSWVBlJc0VkpltoLsVxb9zUeUKq8ijrcwvrKtGZmd1ESrVybeKouE2YUox06ZoRRq1YKoUx66wb-TJO1xA9hF7cy9vEwSuHo-GLb0jf4z5zRojuyLMx4H44604pRU5_ADc0IuPBuerBcmBRp8kJwrzZzA7mf4zoIwzvtWJqTz8PB8FNN0Wuky8Ny_8ox_zTPo77441JIPW2kS5g-RC13Id7l55JpsYDysTqfOJPF9sPUX8!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4547954</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/03b8b852-9550-433d-82c6-24fa5c44ab5f/!ut/p/z1/tVFNc4IwFPwtPXjMvCdJBI_RsYBVp9pSJZdOQFCKAkoG679v6PTSgx89NJeXzOxudt-ChBXIQjXZRumsLNTOvEPZe5_bvjMYdAXiYELRHz-9zLzho-UGHJa_Ac5sMUL_VTy7izHrIuMgr_PfQIKMC13pLYRlVKstqXOSFSlRue6guZTHvXHTFAmpq6Nqzh1s6kTnZiKNnMjhFulzjoRRuiaOFfeIxVLFY8ZUxNNWvoqzNYR3oZe38rZx8MIRaPjyGzJ0hcfsCaIzcTn6wgsW_TmlKOgP4IpGaDzYFz10bVg2WXKCoGg3s4OXP0b0EMa3WjG1Zx-HgxSmm7LQyaeG1X-UY_6xjtPhdGMSKL1tpUtY3UWt9sHeoWeSp9MRZTI6n8TDFwK4Nkw!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4545265</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/0e2011d3-1271-4965-8421-7d9ae4a627d3/!ut/p/z1/tVFNc4IwFPwtPXjMvBcSBI_RsYBVp2qpkksnCipFASWD9d8bOr304EcPzeUlM7ub3bcgYQEyV3W6UTotcrUz70i2PyZO4Ha7VCB2hwyDwcts7PeeLS-0Yf4b4I6nfQzexKs3HXCK3AZ5m_8OEuQq16XeQlQsK7UlVUbSfE1UpltoLsVxb9zUeUKq8qjqcwvrKtGZmZhYSGnMCLUcSninbROXW5Q4cUclXLUtJ2aNfLlKY4geQs_v5W3i4JUj0PDlN6TnCZ87Q0R36NkYCD-cdiaMoWA_gBsakfHgXPVAHZjXaXKCMG82s4PZHyP6CIN7rZja08_DQQrTTZHr5EvD4j_KMf9Yx1FvtDEJlN420gUsHqKW-3DvsjPJ1qM-43J5PomnC5TPz7s!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4522377</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/446bf649-5a39-4790-9dd4-f52fc66ba32f/!ut/p/z1/tVFNc4IwFPwtPXjMvCcJX8foWMCqU7VUyaUTFJSigJLB-u8NnV568KOH5vKSmd3N7lsQsARRyCbbSJWVhdzpdySsj6kdOL1elyP2RhSD4ct84vefDS80YfEb4ExmAwze-Ks3G7IuMhPEbf47CBCrQlVqC1EZ13JL6pxkRUpkrjqoL-Vxr900RULq6iibcwebOlG5noxZcWoxl5iSuoTZLhJ3vWYkNY10ZVmxpEbaylerbA3RQ-jFvbxtHLxyOGq--Ib0Pe4ze4TojDwTA-6HM3dKKXL6A7ihEWkP9lUPXRsWTZacICzazexg_seIPsLwXiu69uzzcBBcd1MWKvlSsPyPcvQ_xnHcH290Aqm2rXQJy4eo1T7cO_RM8nQ8oEzE5xN_ugD6TxUt/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4522319</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/77169fbd-956c-4a87-add1-93f21079fbfa/!ut/p/z1/tVFNc4IwFPwtPXjMvIcBA8foWMCqU22pkksnCihFA0oG679v6PTSgx89NJckk919u1kQsAShZJNvpM5LJXfmHove-4yFbr9vccT-mGI4enqZBoPHrh85sPgNcKfzIYav_Nmfj2wLbQfEdf4bCBBrpSu9hbhc1XJL6oLkKiOy0B00h_K4N24alZK6Osrm3MGmTnVhdsasnpetEuI5vTWxpcuITBKLeDTrWsjMUyZb-WqdJxDfhV7cytvGwQuLo-GLb8jA54HNxoju2Hcw5EE092aUIqc_gCsasfHALnqwGCyaPD1BpNqf2cHLHyMGCKNbrZja84_DQXDTTal0-qlh-R_lmDnd42Qw2ZgEUm9b6RKWd1GrfbR36ZkU2WRIbbE6n_jDF_ejGCo!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4519978</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/529ce5a6-5914-4e60-a187-177cd44f241c/!ut/p/z1/tVFNc4IwFPwtPXjMvBcIgsfoWMCqU7VUyaUTEZWiASWD9d8bOr304EcPzeUlM7ub3bcgYAFCyTrbSJ0VSu7MOxbtj4kbet0u5YjdoY3h4GU2DnrPlh85MP8N8MbTPoZv_NWfDhhF5oC4zX8HASJRutRbiItlJbekykmm1kTmuoXmUhz3xk2tUlKVR1mfW1hXqc7NdKxOkjqyTZwOZYSlbSSSei6hrpusGFtbjCaNfJlkK4gfQs_v5W3i4JXD0fDFN6Tn84C5Q0Rv6DsY8iCadia2jdz-AdzQiI0H96oH6sK8ztITRKrZzA5mf4wYIAzutWJqzz4PB8FNN4XS6ZeGxX-UY_6xjqPeaGMSSL1tpAtYPEQt99Hes88kX4_6NhPL84k_XQBlLxwc/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4517633</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/b44982a4-7cab-457e-b8de-2579c72a405e/!ut/p/z1/tVFNc4IwFPwtPXjMvCeEBo_BsYBVp2qpkksnICpFA0oG679v6PTSgx89NJckk919u1kQsAShZJNvpM5LJXfmHovH9ykLXc_rckRvZGM4fJ5Pgv6T5UcOLH4D3MlsgOErf_FnQ9pF6oC4zn8DASJVutJbiMuklltSFyRXayIL3UFzKI9746ZRGamro2zOHWzqTBdmTyjtuZakhKUyIdRhGUncVUYsh_VSZh7QyVr5Ks1XEN-FXtzK28bBC4uj4YtvSN_nAWUjRHfkOxjyIJr1praN3P4BXNGIjQd20UOXwaLJsxNEqv2ZHcz_GDFAGN5qxdSefxwOgptuSqWzTw3L_yjHzLGO4_54YxJIvW2lS1jeRa320d61z6RYjwc2Fcn5xB--APYaUTs!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4513029</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4508341</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/4676fbf8-0c5d-438b-9b55-80eb17f58f51/!ut/p/z1/tVFNc4IwFPwtPXjMvIchEo_RsYBVp2qpkksHFJSiASWD9d8bOr304EcPzeUlM7ub3bcgYQlSRXW2iXRWqGhn3qHsfEwdn_d6lkDsjSj6w5f5xOs_t92AweI3gE9mA_TfxKs7G9oW2gzkbf47SJArpUu9hbCIq2hLqpxkKiVRrltoLsVxb9zUKiFVeYzqcwvrKtG5mXbH6aRxygmu2JrYlMekGzNGOCax5aSMp8xq5MtVtobwIfTiXt4mDl45Ag1ffkP6rvBsZ4TIRy5DX3jBrDulFAX9AdzQCI0H56oHy4FFnSUnCFSzmR3M_xjRQxjea8XUnn0eDlKYbgqlky8Ny_8ox_zTPo77441JEOltI13A8iFquQ_2nJ5Jno4H1Jbx-SSeLtOA1ks!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4508367</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4505736</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/c3088cac-bb9d-4da3-8b4a-7006c43cb2df/!ut/p/z1/tVHLbsIwEPyWHjhau2BDzNEgmoQCKrQpxJfKeQBpwAnECuXv61S99MCjh_qytjQzntkBCSuQWtXZRpms0Gpn36Hsvc8dnw8GbYE4mFD0x08vM2_42HGDLix_A_hsMUL_VTy7izFrI-uCvM5_Awky1qY0WwiLqFJbUuUk02uictNCeymOe-um1impyqOqzy2sq9TkdsYUOY9VTKKonxCWKEp4xBRxEHsxo3HUSdaNfBlnCYR3oZe38jZx8MIRaPnyGzJ0hcecCSKfuF30hRcs-nNKUdAfwBWN0HpwLnpoO7Css_QEgW42s4OXP0b0EMa3WrG1Zx-HgxS2m0Kb9NPA6j_Ksf90jtPhdGMTKLNtpAtY3UUt98Ge0zPJ19MRZTI6n8TDF2K1GHU!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4501286</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/8baa52e9-3aa0-4f29-8a4e-a0bb7b9ea848/!ut/p/z1/tVFNU8IwFPwtHjhm3qNJbXoMDLZFYASt0FycFAPUQltopsi_N3W8eODDg7m8ZGZ3s_sWJCxAFqrJ1spkZaG29p3I-7epF_FerysQeyOK0fDxeRL2H5wgdmH-G8AnswFGL-IpmA1ZF5kL8jL_FSTIZWEqs4GkTGu1IXVOsmJFVG46aC_lYWfdNIUmdXVQzamDTa1NbidPlXId7ROqFBK2cnzCFdNEYZp6qa8VZ7yVr5bZOyQ3oefX8rZx8MwRaPnyG9IPRMi8ESIfBS5GIoxn_pRSFPQHcEEjsR68sx66HsybTB8hLtrNbOH5jxFDhOG1Vmzt2cd-L4XtpiyM_jSw-I9y7D_OYdwfr20CZTatdAmLm6jVLt5xeiL5ajygTKano7j7AoYSNQw!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4495272</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/a031b0ae-603e-4811-8c9e-6d57f605be47/!ut/p/z1/tVFNc4IwFPwtPXjMvIcBwWNwLGDVqVqq5NIJGpWiASWD9d8bOr304EcPzSV5M7v7drPAYQFciTrbCJ0VSuzMnPDOx8SNPN-3GKI_pBgNXmbjsPfcDmIH5r8B3njax-iNvQbTgW2h7QC_zX8HDnypdKm3kBRpJbakykmm1kTkuoXmURz3xk2tJKnKo6jPLawrqXNzC6RWikKSDlJJbM-yiLfsmnHluOsOOqm03Ua-XGYrSB5Cz-_lbeLglcPQ8Pk3pBew0HaHiN4wcDBiYTztTihFRn8ANzQS48G96sEyJutMniBWzc_sYPbHiCHC4F4rpvbs83DgzHRTKC2_NCz-oxyzp30c9UYbk0DobSNdwOIharmP9x49k3w96lObp-cTe7oALnYICw!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4495227</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/8765c64c-349f-406c-b63e-006a7801d415/!ut/p/z1/tVHLbsIwEPyWHjhau8HOg6NBNAkFVKApxJfKhABpwAnECuXvcapeeuDRQ31ZW5oZz-yAgAUIJetsI3VWKLkz71g4HxM39LpdiyN2hxTDwctsHPSe235kw_w3wBtP-xi-8Vd_OmAWMhvEbf47CBCJ0qXeQlwsK7klVU4ytSYy1y00l-K4N25qlZKqPMr63MK6SnVupuc6duKwhFDWWROGTkKWDk0JoiNdD60Vs-xGvkyyFcQPoef38jZx8MrhaPjiG9LzecDcIaI39G0MeRBNOxNKkdMfwA2N2Hhwr3qwXJjXWXqCSDWb2cHsjxEDhMG9Vkzt2efhILjpplA6_dKw-I9yzD_t46g32pgEUm8b6QIWD1HLfbT36Jnk61GfMrE8n_jTBZkgKAE!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://e.dennikn.sk/minuta/4492784</t>
+  </si>
+  <si>
     <t>SUSURL</t>
   </si>
   <si>
@@ -741,6 +1218,174 @@
     <t>7.11. 2024 9:12</t>
   </si>
   <si>
+    <t>https://www.trend.sk/spravy/inflacia-slovensku-nabera-sile-sluzby-zdrazuju-rychlejsie-nez-tovar</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/ed43938a-f6ec-43ab-91ed-bda4c8852e48/!ut/p/z1/tZVfd5owGMY_jZeYFxJM3B1SRSpS_rdys4OKyqxgkem6T7_QY7ehNXXHM7gATn7PmyckT4Ji9ITiPNlny6TKijx55t-TuPPVpSbr9WQNoGdhMO9Hvj3UB4oRquixCbBepIBJbU8eua7hUILiy82jiIj1o5Depo9O-1cpgGn7IUDkQ-Ce-28CcKOeA7U-spxj83AsgzmwnMjpBzIFetQLAEH_uqac6g0acL3NiYi5uD846b_ZHCog1teAQN8JFPH4dUKu8y8AbvFfG2zoH_xQ482eqepWDz_o5FR_DjT9214fzEBzDO-eyEDO5_8MiMX5iVCM4llebasVmhTTXbKSdmspyxdSsq5awF-KcsPTuM9Tabctk_1rC_a7tFrzZzonuItZIi066UwiOJlKXTmdS9N5QmaMqUpKWF1-O8vmaHIV_fhZ3uvhwIVLq6cjFiXW8ZQjMPAdResSQ7_zHgb8j-kK862OAkbnEwDkI6Ab2pBQC4BZhgqmNgy9rosxaPgICGwKTb7tOsLc19uCCPDhvYuLwVbFgBedVfgg2kLABrHJt3AKAMMdymJAC848NPPDfpv8U2Gk6xxQgzs1srHD52LClxy9uORkvkXus_SAwrwOwjPy_3FFDwHdfxZCfsop5VgfL3nlpFrV8SvQ01XluTT79vISazzFRV6lPyr09D9izMeQTTftw2zThjZlFDCljCik21Exrl1o-RQzPoAyXaRlWra_l_z0XlXVdvelBS04HA7tZVEsn9P2rNi04CPJqthx900SbTfh39eG4Vdp7fXf78W4j0k8fcU_rfTxF-GhF1s!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inflácia na Slovensku naberá na sile, služby zdražujú rýchlejšie než tovar </t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/slovensky-priemysel-chytil-druhy-dych-rast-trzieb-zrychlil-aj-sluzbach</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/b93721b3-9bcf-4294-bdba-b7a59d2ab176/!ut/p/z1/tZRBk5pAEIV_yx48wjQMMJAbUgooooigckmBohIFXCSY_fcZNiZVYERzyFygive9ft1AowCtUJCFVbIPyyTPwhMaoSCJUva6SVlgiUwAEyILvKBIIsZUvVazCMt7FBTxLi7igj3klxKtrtcru8_z_SlmN3n6N9334oRWh7I8X770oAdNoAd14UD66hBT7vc5FaBvYTBHY9c2tCGve2LtmXx7fw9UFGzyrIx_0LJ5dAkPzOXIJNmOCY9lD-hNXqS0myqLmcu5CKuPHlSXuDzSa6RgwnMRZpRos2MEXhGYaBuFTERCUdnyYcQRqa7DFxNtQrOfw_JQW-do9RK6RuuAPOyBI8hFAXXdJFu0fslwWSXxFXlZ3dKpTtY9omVTMNWUARUYkiqQATf1uc8Rq47juJbvg-7zQzAxp4PtedRNuvHw4KjwGq_pqiEQC0C2dBFM1fDmioMxqPg1vqPBoDtei5ftOe1_oc70-UjgQBCbn9j9eH7xvjW7CVxPBdOem6Jm9fFUE5r8vX2L18mCo7zter7sYGnBf_Id9u38IgEqcOlwfBc0tcU37T0envBCO_-dfWf-ukDQ3V4nPxiKr-X_I5CNCRUMrZk_Gyw4AuS1_A8EC6dV_96-m4fO-dX2bb7v82ASe86NHUcfe-38zcf-7_ff8YM8WZF-vV42WXkuD2j9P3bjP26vWt_R0EK6Cbo2xrN_3gB0TpdyKX_gU5WmzGySN8_ZFitIZvu3t5_byt6_/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Slovenský priemysel chytil druhý dych, rast tržieb sa zrýchlil aj v službách</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/slovensky-priemysel-brzdi-kovovyroba-rast-aut-nestaci-vyvazit-pokles</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/7746e1d9-0015-4a45-83c2-3ef215760689/!ut/p/z1/tZRPk5pAEMU_yx48wjQMMJgbUgoosiJ_VC4pZFGJAi4SzH77DBuTKjAiOWQuUMX7vX7dQKMArVGQhVWyD8skz8ITmqIg2absNUpZYIlMABMiC7wwlESMqXqjZFss71FQxLu4iAv2kF9KtL5er-w-z_enmI3y9G-678UJrQ9leb58GcAAmsAA6sKB9NUmhjwacQrAyMRgTGeOpasTXvPE2jP59v4eKCiI8qyMf9Cy-fYSHpjLkUmyHRMeywHQm7xIaTdVFjOXcxFWHwOoLnF5pFdCBCnm3oYMACcyQiiIjIwjnsHxjudEIoEkD-s6fDFX5zT7OSwPtXWO1r3QDdoE5GEPHEEOCqhrlLyhTS_DVZXEV-RldUunOln3iFZNwas6HFOBLikCGXOvPvc5YsW2bcf0fdB8fgIG5jSwPI-6STceHhwF-vGqpugCMQFkUxPBUHRvObQxBgX34zsaDLrjtXjZWtL-XWWhLacCB4LY_MTux_OL983FTeB4ChjW0hBVc4RfVaHJ39u3eI24HOUtx_NlG0su_8l32LfziwSowKHD8R1QlRbftPd4eMIL7fx39p356wJBd3ud_Hgi9sv_RyDrcyqYmAt_MXY5AqRf_gcC127Vv7fv5qFzfrV9mx_5PBjEWnIz29ZmXjt_87H_-_13_CBPVqRfr5coK8_lAW3-x278x-1V6zsacqWboGtjPPvndUDndCWX8gc-VWnKLOZ585wtsYJksX95-Qm1C3Cw/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenský priemysel brzdí kovovýroba, rast áut nestačí vyvážiť pokles </t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/plasty-voda-elektrina-zdrazeli-ceny-priemyselnych-vyrobcov-medzirocne-zvysili</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/3ad74213-3a47-4a85-8646-267aa74a3828/!ut/p/z1/tZRfc5pAFMU_Sx58xL2wC7vpGzKKRCQgf6K8dDaGKFXAAMXm23dJ086ADbEP3ReY4fzOPfcCF8VojeKcN-mO12mR8yO6Q3H6mI3P22wMY8ooYEoZUcitpmIs1Bs9f8Rsh-IyeU7KpBzvi6pG6_P5PN4Vxe6YjLdF9jfd9_KI1vu6PlVfRjCCLjCCtnCsffWoxSYTWQeY2Bisu4XvzI2ZYoZq65l-e3mJdRRvi7xOfoiyxWPF91J1kNL8WeKHegTipigz0U2TJ1J1KnnzOoKmSuqDuGL-RIkiYwlzQiXCmSoxjWiSolHOKeGYKayto5RLYymyn3i9b60LtL4K3aBNTD_sQabIR7Fw3aZPaHOV4UOTJmcU5m1LxzbZ8IgeuoJ743YqBHNNJ3Qq30fy24h1z_N8O4rAjJQZWFg2wQlD4aa98_DB0eE63jD1OaE2ALNNFSx9Hq5uPYxBx9fxAw3Gw_F6PHNWov9Ad83VHZGBqN1P7HI8v_jIdt8FfqiD5aws1bAn-N4gXf7SvsebNJAF7_hhxDysBcobP2Dfz69SEAJfDCfywdB7fNc-VOATnvTzX9gP5m8LxMPtDfLTmXpd_j8CNl8Kwcx2I3cayBTodfk_EARer_6l_TAPg_Nr7fv8JFLAos5KXnieuQj7-buPo9_vf-AH-WRFRu162eb1qd6jzf_Yjf-4vVr9QEOB9i4Y2hif_fNzQKfsgdXsFR-bLJPcZdE9J0dtIHV3Nzc_AYkoeM4!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Plasty, voda a elektrina zdraželi. Ceny priemyselných výrobcov sa medziročne zvýšili</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/priemerna-mzda-sice-rastie-mnohi-slovaci-nej-vela-nemaju</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/2f30fed7-c0c3-4de7-b989-219d4a3e8e25/!ut/p/z1/tZTNsppAEIWf5S5cwjQMOJgdUgoockV-VDYpRFSigBcJ5r59BmNSBUYki8wGqjjf6dMNNPLRCvlpUMb7oIizNDihCfLjTcJew4QFlkgEMCGSwAuDvogxVa_ldIOlPfLzaBflUc4eskuBVtfrld1n2f4UsWGW_E33PT-h1aEozpcvPehBHehBVdjvf7WILg2HnAwwNDDok6ltasqYV12x8oy_fXz4MvLDLC2iH7RstrkEB-ZyZOJ0xwTHogf0JssT2k2ZRszlnAflZw_KS1Qc6ZXfYdhFW8KEEGJG2EaE2QykAcNzg60Q4EiK-FsdPp8pM5r9HBSHyjpDq07oGq198rQHjiAb-dQ1jLe0RhfDZRlHV-SmVUunKln7iJZ1wbsyGFGB1pcFMuLePe42YtmyLNvwPFA9fgw65lQwXZe69e88PDkydOMVVdYEYgBIhiqCLmvuYmBhDDLuxrc06LfHa_CSuaD9O_JcXUwEDgSx_ok9jucX7xnzu8B2ZdDNhS4qxhC_K0Kdf7Rv8CpxOMqbtutJFu47_I1vsW_mFwlQgU2H49mgyA2-bu_y8IIXmvkf7FvzVwX89vZa-dFY7Jb_j0DSZlQwNubefORwBEi3_E8EjtWo_2jfzkPr_Cr7Jj_0eNCJueCmlqVO3Wb--mPv9_tv-UFerEivWi9hWpyLA1r_j934j9ur0rc05PTvgraN8eqf1wCdk6VUSJ_4VCYJM59l9XM2xRLi-f7t7Se0TSjv/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Priemerná mzda síce rastie, no mnohí Slováci z nej veľa nemajú</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/pumpari-slovensku-menia-cenniky-nafta-benzin-zlacneli</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/c7757b0f-a57b-460f-9b21-836e936e621d/!ut/p/z1/tZRPk5pAEMU_yx48wjQMMJgbUoooosgflUsKDatEARcJ7n77DBuTKjCO5BCqKKji_V6_bqBRiNYozKIq2UdlkmfRCU1QmGxT_rpLeeCJSgATokqi1FdkjKl6o2VbrO5RWMSvcREX_CG_lGh9vV75fZ7vTzG_y9O_6X4UJ7Q-lOX58qUHPWgCPagLh8pXh5jqYCBoAAMLgzmZuvZYH4mGL9eeyfe3t1BD4S7Pyvidls23l-jAXY5ckr1y0bHsAb3Ji5R2U2UxdzkXUfXRg-oSl0d63REiky1QKb1wkkLv-ltR4FSsxH16KqLwra4jFjN9RrOfo_JQW-do3QndoE1IHvYgEOSikLruEirtZLiqkviK_Kxu6VQnY49o1RTM9f6QCsaKJpGhMA-EzxFrjuO4VhCAEYgjMLFggO371E258fDg0KAbrxvaWCIWgGoZMpja2F_2HYxBw914RoMhO16LV-0l7d_TFsZyIgkgyc1P7H48v_jAWtwErq-BaS9NWbcGeK5LTf7evsUbxBMob7t-oDpY8cRPnmHfzi8ToAKXDidwQddafNPeF-EJL7Xz39kz89cFQnZ7TH44krvl_yNQxzMqGFmLYDH0BAKkW_4HAs9p1b-3Z_PAnF9t3-YHgQgmsZfC1HGMqd_O33wc_H7_jB_kyYoM6vWyy8pzeUCb_7Eb_3F71XpGQ55yE7A2xrN_fgzonK7UUv3ApypNucUsbx5nW64gWexfXn4CR37VKA!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Slovenskí pumpári vymenili cenníky, nafta a benzín zlacneli</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/aktivita-priemysle-moze-pokracovat-vyraznejsom-raste-zdoraznil-odbornik</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/edf224e6-0ecf-4052-a9c2-6240ca9054da/!ut/p/z1/tZRLk5pQEIV_yyxcwm2eF7NDSgFFFHmobFKIqER5DBLM_PtcJiZVYESyyN1AFec7fbqBRj7aID8NqvgYlHGWBhc0RX68S-hbmNBAYwkDh7HEs_xQFDiOqLdyuuOkI_KL6BAVUUGfsmuJNrfbjT5m2fES0WGW_E33vbigzaks8-uXAQygCQygLuyLXy2sS6MRIwOMDA706cw2NWXCqq5Qe8bf3t99GflhlpbRD1I2212DE3U9U3F6oIJzOQBykxUJ6aZKI-qaF0H1MYDqGpVnco32B5blI5GCKDxQPAgsFQxDlhJZHsJgCAK_D-o6bDFX5iR7HpSn2jpDm17oFm19_LQHBiMb-cQ1jPdo28twXcXRDblp3dKlTtY9onVTsFCGYyLQRJnHY2bhMZ8jli3Lsg3PA9VjJ6BzjAqm6xI38c7DkyNDP15RZY3HBoBkqALosuauhhbHgcz14zsa9LvjtXjJXJH-HXmprqY8A7zQ_MQex_OL94zlXWC7MujmShcUY8QtFL7JP9q3eBU7DOFN2_UkixMd9pPvsG_nFzAQgU2G49mgyC2-ae-y8ILn2_kf7Dvz1wX87vY6-fFE6Jf_j0DS5kQwMZbecuwwGHC__E8EjtWq_2jfzUPn_Gr7Nj_yWNCxuWJmlqXO3Hb-5mPv9_vv-EFerEivXi9hWublCW3_x278x-1V6zsacsS7oGtjvPrnNUB5spZK6YO7VElCLedZ8-SmUEG8PL69_QSixrY1/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Aktivita v priemysle môže pokračovať vo výraznejšom raste, zdôraznil odborník</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/ceny-agrovyrobkov-pokracuju-raste-zemiaky-zelenina-ale-zlacneli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceny agrovýrobkov pokračujú v raste, zemiaky a zelenina ale zlacneli </t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/benziny-slovenskych-pumpach-zdrazeli-cena-nafty-takmer-nezmenila</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/2266b2b5-8ac0-4f88-afb9-d76a2c27a6f6/!ut/p/z1/tZRLk5pQEIV_yyxcwm2e95odUoooMiCCyiaFDCpRHgMEM_8-l4lJFRjRLHI3UMX5Tp9uoJGPNshPgzo-BFWcpcEZzZAf7xL2EiYssJhgEDAmIi8OZUkQqHqrpDuBHJBfRPuoiAr2mJUV2lwuF_aQZYdzxIZZ8jfd9-KMNseqyssvAxhAGxhAU9iXv9pYJ6MRpwCMDAH02dwxp-qE11yp8Yy_vb_7CvLDLK2iH7RstiuDI1OemDjdM8GpGgC9yYqEdlOnEVPmRVB_DKAuo-pErzwvyzt-JzEkCIER94QwwX43ZN6wHPAhjwN5Lzd1-GKhLmj2PKiOjXWGNk-hW7T18d0eOIwc5FPXMH6jNZ4xXNdxdEFu2rR0bpL1j2jdFryqwzEVTGVFxGPu1eM-R6zYtu0Yngeax09AFzgNTNelbvKVhztHged4VVOmIjYAiKFJoCtTdzm0BQEU4Tm-p0G_P16HJ-aS9r9SLG05EzkQpfYndjueX7xnWFeB4yqgm0tdUo2R8KqKbf7WvsNreMVR3nRcj9iCvOI_-R77bn4JAxU4dDieA6rS4dv2Lg8PeLGb_8a-N39TwO9vr5cfT6Tn8v8RkOmCCiaG5VnjFYcBP5f_jmBld-rf2vfz0Du_xr7LjzwedGwuublta3O3m7_92Pv9_nt-kAcr0mvWS5hWeXVE2_-xG_9xezX6noZW8lXQtzEe_fNTQHmyJhX5EM51kjDWImuf3JRqiK3Dy8tPHfkvLA!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzíny na slovenských pumpách zdraželi, cena nafty sa takmer nezmenila </t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/slovensku-opat-rastu-ceny-priemyselnych-vyrobcov</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/03b8b852-9550-433d-82c6-24fa5c44ab5f/!ut/p/z1/tZRBk5pAEIV_yx484jQMw4y5IaWIIisiqFxSyKISBVwkmP33GTYmVWBEc8hcoIr3vX7dQCMfrZCfBmW8C4o4S4MjGiM_3iTdS5h0oUsZBUwpkyW5pxCMuXqtphvMdsjPo22UR3l3n50LtLpcLt1dlu2OUTfMkr_pvudHtNoXxen8pQMdqAMdqAr7ylebGqzfF1WAvonBGE8ca6QNJd0llWf87f3dV5EfZmkR_eBls8052AvngxCnWyE4FB3gN1me8G7KNBLOpzwoPzpQnqPiwK-AN2zDiCT0CAFBxvhNYFKoCJK8DUgoy8GGbKs6Uj7Vpjz7KSj2lXWGVk-ha7T26d0eRIoc5HPXMH5D66cMl2UcXZCbVi0dq2TtI1rWBa9ab8AFI0WV6UB89cTPEau2bTum54HuSUMwsKiD5brcTbnycOeo8Byv6epIpiYAM3UChjpy5z0bY1Dxc3xLg357vAbPrDnvf6HO9PlYFkEm9U_sdjy_eM-cXQWOq4JhzQ2imX38qsl1_ta-wet0IXLeclyP2VhZSJ98i30zP6HABQ4fjueApjb4ur0rwQNebua_sW_NXxXw29tr5QdD8lz-PwI2mnLB0Jx5s8FCpECfy39HsLAb9W_t23lonV9l3-T7ngQGtebixLb1idvMX3_s_X7_LT_IgxXpVeslTItTsUfr_7Eb_3F7VfqWhhbKVdC2MR798yNAp2TJCvaBj2WSCLNpVj8ni5QQz3YvLz8B6ufC_A!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Na Slovensku opäť rastú ceny priemyselných výrobcov</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/chudoba-slovensku-opat-vzrastla-najviac-ohrozene-zostavaju-neuplne-rodiny</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/1b9668e5-6a36-4050-9a8c-5a4f8d0d4451/!ut/p/z1/tZRBk5pAEIV_yx484jQMMGNuSCmiiCCCyiWFikoUcIFg9t9n2JhUgRHNIXOBKt73-nUDjXy0Qn4SlNEhKKI0Cc5ojPxoE3ev27gLXUIJYEKoKIg9WcKYqddKssH0gPws3IdZmHWPaV6g1fV67R7S9HAOu9s0_pvue3ZGq2NRXPIvHehAHehAVdiXv9pEp_0-rwD0DQz6eOKYI3UoaK5UeUbf3t99BfnbNCnCH6xsusmDI5efuCjZc8Gp6AC7SbOYdVMmIZdfsqD86ECZh8WJXflNT5ZpKHFygGVOBAm4XkC3nBSIe7qDnShKfFVHyKbqlGW_BMWxsk7R6iV0jdY-edgDT5CDfOa6jXZo_ZLhsozCK3KTqqVzlax9RMu6YKb2BkwwkhWRDPiZx3-OWLFt2zE8DzRPGIKOeQ1M12Vu8o2HB0eB13hVU0YiMQCooUmgKyN33rMxBgW_xrc06LfHa_DUnLP-F4qlzcciD6JU_8Tux_OL9wzrJnBcBXRzrkuq0cczVazz9_YNXiMLnvGm43rUxvJC-ORb7Jv5JQJM4LDheA6oSoOv27sCPOHFZv47-9b8VQG_vb1WfjCUXsv_R0BHUyYYGpZnDRY8AfJa_geChd2of2_fzkPr_Cr7Jt_3BNCJOecntq1N3Gb--mPv9_tv-UGerEivWi_bpLgUR7T-H7vxH7dXpW9paCHfBG0b49k_PwJ0iZe0oB_4XMYxZ03T-rmYUgmRdXh7-wniPtD3/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Chudoba na Slovensku opäť stúpla, najviac ohrozené sú neúplné rodiny</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/slovensky-priemysel-polepsil-cast-odvetvi-zostava-minuse</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/d8c54b3d-e3a4-4066-b0a4-9b457adda776/!ut/p/z1/tZRLk5pQEIV_yyxcwm24wMXskFJEkRF5qGxSoIwS5TFIMPPvc5mYVIERySJsuFWc7_TpBhr5aIP8NKjiQ1DGWRqc0Qz5cZiw113CAktkApgQWeCFoSRiTNVbJQ2xfEB-Eb1FRVSwx-xSos31emUPWXY4R-wuS_6m-16c0eZYlvnlywAG0AQGUBf2pa8W0eXRiFMARgYGfTa3zak64TVXrD3jb-_vvoL8XZaW0Q9aNgsvwZG5nJg4fWOCUzkAesiKhHZTpRFzyYug-hhAdYnKE73v5Z0ohHjPRDgQGAEkiQmBnoahIJJgvw8Ikeo6fLFQFzR7HpTH2jpDm17oFm198rAHjiAb-dR1F-_RtpfhuoqjK3LTuqVznax7ROum4FUdjqlgKikCGXOvHvc5YsWyLNvwPNA8fgI65jQwXZe6STceHlwK9ONVTZkKxACQDU0EXZm6q6GFMSi4H9_RoN8dr8XL5or27yhLbTUTOBDE5id2P55fvGcsbwLbVUA3V7qoGiP8qgpN_t6-xWvE4Shv2q4nW1hy-E--w76dXyRABTYdjmeDqrT4pr3LwxNeaOe_s-_MXxfwu9vr5McTsV_-PwJ5uqCCibH0lmOHI0D65X8gcKxW_Xv7bh4651fbt_mRx4NOzBU3tyxt7rbzNx97v99_xw_yZEV69XrZpWVeHtH2f-zGf9xetb6jIUe6Cbo2xrN_fgooT9ZyKX_gc5UkzHKRNa_cFCuIl4eXl5_rKi6e/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Slovenský priemysel si polepšil, no časť odvetví zostáva v mínuse</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/inflacia-slovensku-spomalila-len-mierne-najviac-zdrazeli-potraviny</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/1e4c8eae-3ec7-46d7-9b42-13ca468457e9/!ut/p/z1/tZRBk5pAEIV_yx484jTMwGBuSCmiiCKCyiWF7KwSBVwkmP33GTYmVWBEc8hcoIr3vX7dQKMArVGQhmW8C4s4S8MjGqMg3ibdS5R0oUtVCphSlUikp8gYc_VGS7dY3aEgZ28sZ3l3n50LtL5cLt1dlu2OrBtlyd903_MjWu-L4nT-0oEO1IEOVIUD5atDTbXfFzWAvoXBHE9ce6QPJcOTK8_42_t7oKEgytKC_eBls-053AvngxCnb0J4KDrAb7I84d2UKRPOpzwsPzpQnllx4FeRkUhlIRMwi6hAlFcq9LZEEkQchURRiUxZr6oj5VN9yrOfwmJfWWdo_RS6QZuA3u1BpMhFAXeN4le0ecpwVcbsgry0aulYJWsf0aoumOm9AReMFI3QgTjzxc8Ra47juJbvg-FLQzCxaIDtedxNufJw52jwHK8b2ohQC0C1DBlMbeQteg7GoOHn-JYGg_Z4DV61F7z_pTY3FmMiApHrn9jteH7xvjW_ClxPA9NemLJu9fFMJ3X-1r7BG3Qpct52PV91sLKUPvkW-2Z-mQIXuHw4vgu61uDr9p4ED3jSzH9j35q_KhC0t9fKD4byc_n_CNTRlAuG1tyfD5YiBfpc_juCpdOof2vfzkPr_Cr7Jt_3JTCpvRAnjmNMvGb--mP_9_tv-UEerEi_Wi9RWpyKPdr8j934j9ur0rc0tFSugraN8eifHwE6JSu1UD_wsUwSYT7N6udkyyXE893Ly0-ZC3eN/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Inflácia na Slovensku spomalila len mierne, zdraželi potraviny aj nápoje</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/slovensko-zaznamenalo-plosny-rast-miezd-najviac-polepsil-automobilovy-sektor</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/b94fe5f4-7fa2-4da8-b7d7-215e3371af22/!ut/p/z1/tZRLs5pAEIV_y124hGkYYDA7pBRRRJGHyiaFikqUx0WCuf8-w41JFRiRLDIbqOJ8p0830MhHa-QnQRkdgyJKk-CCJsiPtjF728UssEQmgAmRBV7oSyLGVL1Rki2Wj8jPw0OYhzl7Sq8FWt9uN_aYpsdLyO7S-G-67_kFrU9FkV2_9KAHdaAHVWFf-moRXR4MOAVgYGDQJ1PbHKsjXnPFyjP69v7uK8jfpUkR_qBl0-01ODHXMxMlByY4Fz2gN2ke027KJGSuWR6UHz0or2FxptdtXziE4kFgyCHgGWEfyMyW7AnDc2KIMeGCA89Xdfh8ps5o9iwoTpV1itad0A3a-ORpDxxBNvKp6y7ao00nw1UZhTfkJlVLlypZ-4hWdcFc7Q-pYCwpAhlyc4_7HLFiWZZteB5oHj8CHXMamK5L3aQ7D0-OAt14VVPGAjEAZEMTQVfG7rJvYQwK7sa3NOi3x2vwsrmk_TvKQltOBA4Esf6JPY7nF-8Zi7vAdhXQzaUuqsYAz1Whzj_aN3iNOBzlTdv1ZAtLDv_Jt9g384sEqMCmw_FsUJUGX7d3eXjBC838D_at-asCfnt7rfxwJHbL_0cgj2dUMDIW3mLocARIt_xPBI7VqP9o385D6_wq-yY_8HjQibnkppalTd1m_vpj7_f7b_lBXqxIr1ovu6TIihPa_I_d-I_bq9K3NORId0Hbxnj1z48BZfFKLuQPfCnjmFnM0vrJTLGEaHF8e_sJCpSoeQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Slovensko zaznamenalo plošný rast miezd, najviac si polepšil automobilový sektor</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/slovensko-vlani-viac-nakupovalo-ako-predavalo-dovoz-prekonal-ocakavania</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/c1e95346-f8f5-46af-9326-c800983a8a85/!ut/p/z1/tZTNsppAEIWf5S5c4jQMMGN2SCmiiCI_KpsUElSigBcJ3vv2GYxJFRjRLDIbqOJ8p0830MhHK-SnQRnvgiLO0uCIxsiPN0n3EiZd6BJKABNCRUHsyRLGTL1W0g2mO-Tn0TbKo7y7z84FWl0ul-4uy3bHqBtmyd90P_IjWu2L4nT-0oEO1IEOVIV9-atFdNrv8wpA38Cgjye2OVKHguZKlWf8_f3dV5AfZmkRfbCy2eYc7LnzgYvTLRccig6wmyxPWDdlGnHnUx6Unx0oz1FxYNeQj3oSFmVuS7cSJ8rBluthQeZCCtCjOKABvdYR8qk6ZdlPQbGvrDO0egldo7VPHvbAE2Qjn7mG8Te0fslwWcbRBblp1dKxStY-omVdMFN7AyYYyYpIBvzM468jVizLsg3PA80ThqBjXgPTdZmbfOPhwVHgNV7VlJFIDABqaBLoyshd9CyMQcGv8S0N-u3xGjw1F6x_R5lri7HIgyjVP7H78fziPWN-E9iuArq50CXV6OOZKtb5e_sGrxGHZ7xpux61sOwIV77FvplfIsAENhuOZ4OqNPi6vSvAE15s5r-zb81fFfDb22vlB0Pptfx_BHQ0ZYKhMffmA4cnQF7L_0DgWI369_btPLTOr7Jv8n1PAJ2YC35iWdrEbeavP_Z-v_-WH-TJivSq9RKmxanYo_X_2I3_uL0qfUtDjnwTtG2MZ__8CNApWdKCfuJjmSTcfJrVz8mUSojnu7e3n9KTOVQ!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Slovensko vlani viac nakupovalo ako predávalo, dovoz prekonal očakávania</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/motoristi-tankuju-lacnejsi-benzin-nafta-vacsina-plynov-vsak-zdrazeli</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/4676fbf8-0c5d-438b-9b55-80eb17f58f51/!ut/p/z1/tZRBk5pAEIV_yx484jQMw4y5IaWIIisiqFxS4KISBVwkmP33GTYmVWBEc8hcoIr3vX7dQCMfrZCfBmW8C4o4S4MjGiM_DpPuZZN0oUsZBUwpkyW5pxCMuXqtpiFmO-Tn0TbKo7y7z84FWl0ul-4uy3bHqLvJkr_pvudHtNoXxen8pQMdqAMdqAr7ylebGqzfF1WAvonBGE8ca6QNJd0llWf87f3dV5G_ydIi-sHLZuE52AvngxCnWyE4FB3gN1me8G7KNBLOpzwoPzpQnqPiwK-yQpVtuGUCbMibIGMWCr2QEIFBFIp0S9iWiFUdKZ9qU579FBT7yjpDq6fQNVr79G4PIkUO8rnrJn5D66cMl2UcXZCbVi0dq2TtI1rWBa9ab8AFI0WV6UB89cTPEau2bTum54HuSUMwsKiD5brcTbnycOeo8Byv6epIpiYAM3UChjpy5z0bY1Dxc3xLg357vAbPrDnvf6HO9PlYFkEm9U_sdjy_eM-cXQWOq4JhzQ2imX38qsl1_ta-wet0IXLeclyP2VhZSJ98i30zP6HABQ4fjueApjb4ur0rwQNebua_sW_NXxXw29tr5QdD8lz-PwI2mnLB0Jx5s8FCpECfy39HsLAb9W_t23lonV9l3-T7ngQGtebixLb1idvMX3_s_X7_LT_IgxXpVetlkxanYo_W_2M3_uP2qvQtDS2Uq6BtYzz650eATsmSFewDH8skEWbTrH5OFikhnu1eXn4CMsHypA!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Motoristi tankujú lacnejší benzín. Nafta a väčšina plynov zdraželi</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/ceny-pohonnych-latok-slovensku-nadpriemerne-vzrastli</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/af670475-131d-449a-bf51-df865d68e51b/!ut/p/z1/tZRBk5pAEIV_yx484vQwwGBuSCmiiCKCyiWFikoUcIFg9t9n2JhUgRHJIXOBKt73-nUDjTy0Rl7sF-HRz8Mk9i9ojLxwG3Vvu6gLXSpTIJTKAi_0JJEQpt4o8ZbIR-SlwSFIg7R7SrIcrW-3W_eYJMdL0N0l0d9039MLWp_y_Jp96UAHqkAHysKe9NWiutzvYwWgbxDQxxPbHKlDXnPE0jP89v7uKcjbJXEe_GBlk23mn7jszIXxgfPPeQfYTZJGrJsiDrjsmvrFRweKLMjP7OofJAoCFTlM8J4ThJ7PbQ8i5vYHWRL3khyIeFvW4dOpOmXZr35-Kq0TtG6FbtDGo097wBTZyGOuu3CPNq0MV0UY3JATly1dymTNI1pVBTO1N2CCkaQIdIBnLv4csWJZlm24LmguPwSdYA1Mx2Fu0p2HJ0eBdryqKSOBGgCyoYmgKyNn0bMIAYW04xsa9Jrj1XjZXLD-l8pcW4wFDIJY_cQex_OLd435XWA7CujmQhdVo09mqlDlH-1rvEaXmPGm7biyRaQl_8k32NfzixSYwGbDcW1QlRpftXd4eMEL9fwP9o35ywJec3uN_GAotsv_RyCPpkwwNObufLDEFGi7_E8ES6tW_9G-mYfG-ZX2db7v8qBTc4EnlqVNnHr-6mP39_tv-EFerEi3XC-7OL_mJ7T5H7vxH7dXqW9oaCndBU0b49U_PwJ0jVZyLn-QSxFF3HyaVM_VFAsI58e3t58CST3e/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Ceny pohonných látok na Slovensku nadpriemerne stúpli</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/slovenska-ekonomika-vlani-rastla-rychlejsie-ukazala-revizia</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/a3da2d02-25bd-4226-850c-15513c042413/!ut/p/z1/tZRLk5pAFIV_yyxcQl9ooDE7pBRRRJGHyiaFyChRHoMEM_8-jTGpAiOaRdhgFec7fc5FLvLRGvlpUMX7oIyzNDihCfLjbcJewoQFlsgEMCGywAt9ScSYqjdKusXyHvlF9B4VUcEesnOJ1pfLhd1n2f4UsWGW_E33vTih9aEs8_OXHvSgCfSgPtiXvlpElwcDTgEYGBj0ydQ2x-qI11yx9oy_fXz4CvLDLC2jH_TYbHsODsz5yMTpOxMcyx7QH1mR0DZVGjHnvAiqzx5U56g80nuAdwG_A57hxe2OEXheYmQRQoYTRQ6HQGty1458MVNnNHselIfaOkPrl9AN2vjkYQeOIBv51DWMd2jzkuGqiqMLctO60qlO1j2iVVMwV_tDKhhLikCG3NzjriNWLMuyDc8DzeNHoGNOA9N1qZt04-HBpcBrvKopY4EYALKhiaArY3fZtzAGBb_GdxT0u-O1eNlc0v6OstCWE4EDQWz-xe7H84v3jMVNYLsK6OZSF1VjgOeq0OTv7Vu8RhyO8qbterKFJYe_8h327fwiASqw6XA8G1SlxTftXR6e8EI7_519Z_76AL-7Xic_HImv5f8jkMczKhgZC28xdDgC5LX8DwSO1Tr_3r6bh8751fZtfuDxoBNzyU0tS5u67fzNx97v99_xgTxZkV69XsK0zMsD2vyP3fiP26vWdxRypJuga2M8--bHgPJkJZfyJz5VScIsZlnzyk2xgnixf3v7Ce7wjho!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Slovenská ekonomika vlani rástla rýchlejšie, ukázala revízia</t>
+  </si>
+  <si>
+    <t>https://www.trend.sk/spravy/slovaci-opat-siahli-hlbsie-vrecka-inflacia-vysplhala-15-mesacne-maximum</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/f87ec3ce-5c6f-4a0f-9c70-0f885a5ea884/!ut/p/z1/tZRPk5pAEMU_yx484jQMMGNuSCmiyIoIKpcUElSi_FkguPvtM2xMqsCI5hAuUDXv9_p1A408tEFe4lfRwS-jNPHPaIq8aBf3L0Hchz6hBDAhVBTEgSxhzNRbJdlhekBeHu7DPMz7x7Qo0eZyufQPaXo4h_0gjf-m-5Gf0eZYllnxpQc9aAI9qAt78leL6HQ45BWAoYFBn85sc6KOBc2Ras_o-9ubpyAvSJMyfGdl013hH7nixEXJnvNPZQ_YQ5rHrJsqCbkiy_3qowdVEZYndt9TEgY4CDkpkPec6MOeGwQEOHZAJV8KfUrFuo6Qz9U5y5755bG2TtHmKXSLth652wNPkI085hpE39D2KcN1FYUX5CR1S-c6WfeI1k3BqzoYMcFEVkQy4l9d_nPEimVZtuG6oLnCGHTMa2A6DnOTrzzcuRR4jlc1ZSISA4AamgS6MnGWAwtjUPBzfEeDXne8Fk_NJet_pSy05VTkQZSan9jteH7xrrG4CmxHAd1c6pJqDPGrKjb5W_sWr5EVz3jTdlxqYXklfPId9u38EgEmsNlwXBtUpcU37R0BHvBiO_-NfWf-uoDX3V4nPxpLz-X_I6CTOROMjYW7GK14AuS5_HcEK6tV_9a-m4fO-dX2bX7oCqATc8nPLEubOe38zWP39_vv-EEerEi3Xi9BUmblEW3_x278x-1V6zsaWslXQdfGePTPTwBl8ZqW9AOfqzjmFvO0eWWmVEG0OLy8_AQXYbgj/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Slováci opäť siahli hlbšie do vrecka. Inflácia sa vyšplhala na 15-mesačné maximum</t>
+  </si>
+  <si>
     <t>https://www.teraz.sk/ekonomika/analyza-tyzdna-ceny-potravin-na-sl/860311-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
   </si>
   <si>
@@ -906,6 +1551,111 @@
     <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/d3aca4d1-8f5f-4f26-a89a-2daa27b0be9f/!ut/p/z1/tZJNt5owEIb_yu3CZU6GhC-X6LkXsOgpKn5k0xOBCEWBKynWf9_ovYt2AdhF2YScmXcy7zODGd5hVvI2P3KZVyU_qfuemd9Dy7cnE80BmAQU_NnX1cKbvhE3MvD27wR7sXwFf-18c5czXQPdwEyFnTAMV8FmA-6GvIFPNRcWUaSqmXiDGWZxKWuZ4X11aHiGmgLlpUC8kCNQP9XlrLppyxQ19YW3txG0TSoLdSaUx1xPNGQLQyBdEBNxe8wRSTgn1gEO6Vjcy9dxnuD9U9nbIb93O9DxOfCp7_HLnsE5dR1PtwIAO3AN8B0vWo5DSsGhQzg_9D0NDurZI6WvgyEGbOiR_oS1iVdNgffKidWJSrPwts3TK47K-36c8OofB-0Bng0NQy1__uP9nTlqQ6tSpr8k3v2PFVXvkMt8Oj8qB1xm99IV3j0l_aDUhXJpdFMyhKFRogMSSWoiXY8JGhNuI8sQh5iARmlsfCLqGWUfohE0UmGJ0SNSKlT1pUp-FvLWAa3gkp-q48sfwVucvTzCHZB6JfU5Otv0luc5Kpbe9boW2akNxPyVGup0vvwGuRkKzQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
   </si>
   <si>
+    <t>https://www.teraz.sk/ekonomika/ceny-pohonnych-latok-v-17-tyzdni-kl/875296-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/c7757b0f-a57b-460f-9b21-836e936e621d/!ut/p/z1/tVHLbsIwEPyWHjhau3k6HB3aJqGACjQN8aVyIEAacAKx0vL3dapeeuDRQy1Zu5ZmRjMe4LAALkVbbIQqKil2-p1y921KI8_3DYbojyyMhk_zSTh4NIPYgeQ3wJvMHjB6Yc_BbGgbaDvAL_NfgQNfSlWrLaRV1ogtaUpSyDURpeqhXqrjXrtpZU6a-ijaUw_bJlelnktKHZqhhupBbFdv_cw0iGe5eV9f1zRWnXy9LFaQ3oROruXt4uCZw1Dz-TdkELDQpiNEbxQ4GLEwnvWnloXM-gFc0Jg3JaTaBz3rw6CQtEX-AbHsfmcH8z_GDBGG15rR1ZvH8WC80cpCbbtOKljcJK-pxfvhwJmutpIq_1Sw-I9u632896wTKdf3_oQEidewuy_CnWG_/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Ceny pohonných látok v 17. týždni klesli</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/ekonomicka-nalada-na-slovensku-sa-v-ap/874523-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/7b9c6c80-b318-4a80-bc2d-9fc1fbbc7ca0/!ut/p/z1/tVFNc4IwFPwtPXjMvIeA4DHYFrDqVC1FcumECErRgJKh9d83dHrpwY8e-i7vZWZ3ZzcLDFbAJG-LDVdFJflOvxM2eJs7oet5BkX0JiaG46flLBg99v3Ihvg3wJ0tHjB8oc_-YmwZaNnALvNfgQETUtVqC0mVNnxLmpIUMie8VD3UR3XcazetzEhTH3l76mHbZKrU20mHYiBcJKlpuMTi3SX6azLMhZGnqXAEx06-FsUakpvQ8bW8XRw8M7Tjs2_IyKeB5UwQ3YlvY0iDaDGcmyZS8wdwQWPZlJBoH85ZH4YDcVtkHxDJ7nd2sPxjzABhfK0ZXX3_OB1NN1qZq23XSQWrm-Q1tXg_HBjV1VZSZZ8KVv_Rbb2P9q55ImV-782IH7sNvfsCzkj1KQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Ekonomická nálada na Slovensku sa v apríli výraznejšie nezmenila</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/analytik-ceny-v-priemysle-nadvazuju-n/874262-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/3ad74213-3a47-4a85-8646-267aa74a3828/!ut/p/z1/tVFNU8IwFPwtHjhmXtqkTTymqG0RGAFraS5OhAK1kBaaqfLvTR0vHvjw4LvkvZndnd0sSJiD1Kot1soUlVZbe2fSf52wmAeBIzAOhgTHg8fZOOo_uGHiQfobwMfTexw_i6dwOqAOph7I8_wXkCAX2tRmA1n11qgNakpU6BVSpelhu1SHnXXT6hw19UG1xx5um9yU9iVqyajrEEQUZYgq7iHuUx-5PlOKUUW4yzv5elEsIbsKnV7K28XBJ0Zgy5ffkH4oIsqGGPNh6OFYRMn0dkIIFuQHcEZj1pSQWR_spA-HQdoW-QckuvudLcz-GDPCMLjUjK3ePYz6o7VVVmbTdVLB_Cp5Sy3e93spbLWVNvmngfl_dFvvkh0nR1Su7oIxClPeiJsvBgVZsQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Analytik: Ceny v priemysle nadväzujú na cenový nárast v ekonomike</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/ceny-priemyselnych-vyrobcov-boli-v-mar/874241-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>Ceny priemyselných výrobcov boli v marci medziročne vyššie o 2,6 %</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/ceny-pohonnych-latok-v-16-tyzdni-op/873647-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/72b71bda-5e6f-47fa-8d92-72e06f9803e5/!ut/p/z1/tVFNc4IwFPwtPXjMvMeXicdAW8CqU7UUyaUTFZSigJKh9d83dHrpwY8e-i55b2Z3ZzcLAhYgStnmG6nyqpQ7fSei_zalIXNdgyO6IwvD4dN8EniPph85EP8GsMnsAcMX_uzPhraBtgPiMv8VBIhVqWq1haRaNnJLmoLkZUZkoXqol-q4127aMiVNfZTtqYdtk6pCv9RcUmO5lsRJ-xmxaSYJWw9MQs0U-9mAoZU6nXy9yteQ3ISOr-Xt4uCZ4aj54hvi-Tyw6QiRjXwHQx5Es8HUspBbP4ALGvOmgET7oGd9GBTiNk8_ICq739nB_I8xA4ThtWZ09eZx7I03WlmqbddJBYub5DU1fz8cBNfVVqVKPxUs_qPbeh_tmXUiRXbvTogfs4bffQEuRjXD/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Ceny pohonných látok v 16. týždni opäť medzitýždenne klesli</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/analytik-deficit-moze-dosiahnut-do-5/872085-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>Analytik: Deficit môže dosiahnuť do 5% HDP, konsolidácia je nevyhnutná</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/spotreba-slepacich-vajec-na-slovensku/872048-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/aboutus/office.activites/officeNews/vsetkyaktuality/20adbfe8-7c62-4445-926f-55a15ac47d32/!ut/p/z1/tZNNc9owEIb_Si4chVaWZJujzaRACkxtYgK6dISxwTX-CFZI6K_vmrSTpB0oPdQHWR_v7kqPXlFFF1SV-pBttMmqUu9wvFT218AZub7PPIDJ5z6M-GgY-F7IBLPow0eBOw1vYXTvfRmEd4KBkFThshcEwWw8n8Ngbn3CeDaAaRQB-DadU0VVXJrabOmyWjV6S5qcZGVKdG46gE12yMwR_096h50OHJrE5O8nLNDrVZq4xIltiwghJOlZdkqk1EzqWDhrbrVV6jhb0-VV6tdTXdi2-icqfwraeDjzeYDx6iTpD7yhcMYA7nggYeQNo7AXcA4e_ym4kENdRH9v01mT0yVu1DkrCiV9OGTJM43Kal-gHWZvHGUqGbcEkHSd2MgxtpCjRqwyXcUWMM5jSYdA7_7mALSYtZ_0JxvMrM22vfuKLnJt9K7a3LQjLI0uKI_x9qap9_rQhmTfHh-Vh9apSpO8GLr45Z0ONAblMTmtlOihel-tn_LWKe-SJeSUCicvVnrlc-4ih-w8n6t8hnCyVdF9josudJnr2q4Am0kpHNaDc2h-ewB0cVWpS8z-w3uri6hw-TEjeehObrlQqyP_7k-JWrrNDwtQyI8!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Spotreba slepačích vajec na Slovensku už tretí rok po sebe klesá</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/rrz-hospodarenie-vlani-nezlepsilo-dlh/872027-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>RRZ: Hospodárenie vlani nezlepšilo dlhodobé zdravie verejných financií</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/jarna-revizia-ukazala-vyssi-vykon/871981-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/a3da2d02-25bd-4226-850c-15513c042413/!ut/p/z1/rZNLc5swFIX_SrrwUqOLHkCW2JNgXNtT7ODY2nRkwDbFBmJUEvrrK-LpNJkpj0XZCEb3Hh2d-4EF3mKRySo5SpXkmTzr750wv_uWZ4_HhgMwnlPwZl_Xy-nkkbgBx8-fC-zl6gG8J-ebu5oxAxjHQm87vu-v55sNuBvyCB41XFgGgVYz8QYLLMJMFeqEd_m-lCdUpijJDkimagT6Jb9etJsqi1FZXGVVj6AqY5XqVdJIkggIInwfIUaIiWwOITI4N2gIjDCDNvJFmER4N6j6dp0Ov2JIHBPXmTJrDmDPXQ6eMw1W9z6l4NC-OG790PI4MKy_w6Doln9u8uq5QZ-G6DT5ZOJ1meKdNmq1Fq10klUSv-Iga8Z_xuu_c-QHPS_CAB2i2ESMhQTdE2kjix_2IQGD0pDjKeBZX1aabXJdTBZHrSzVqYEux9tUKnnOj3cfyKvD0907e01L8uPlRTia2TxT8ZvC2z_QjqBUujxE7zuZhre45tHPVNUtGHeedMunbZCG1Z7PIM5nfSD_O5xB2l0h_c8_u7gEF5vWSZKgdGUvHigT-5r-Gi-RXl-dL78BAsmzZw!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Jarná revízia ukázala vyšší výkon ekonomiky SR v rokoch 2024 a 2023</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/ceny-pohonnych-latok-v-15-tyzdni-vi/871980-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/49a6fd39-f735-47c7-aae6-b7ef602f56b5/!ut/p/z1/rZNfk5owFMW_yvbBx0wuhAA-orOLWHUKLq7mpRMQNEWBlZRd-ukb1um0nSl_HspLYHLvycm5PzDDe8xyXosTl6LI-UV9H5j51bc8ezbTHIDZioC3_LzdLOZPuhtS_PJ3gb0JHsF7dr64wdLQwKCYqW3H9_3tarcDd6c_gUc0FzZhqNRMvMMMsziXpTzjQxFV_IyqDIk8RTyTE1Avxe2q3NR5gqryxutmAnWVyEytxpSb6ZFMUWoRigwrthDniYkiK0lN0FNqRrSVL2NxxIdR1ffr9PhlY-KYu87CsFYA9sql4DmLMJj6hIBDhuK490PH48C4_h6DrF_-pc1r4AZDGqzX5LOJt1WGD8qo1VkUqCRrkbzhMG_Hf8Hb33OkKdWIbgBKj2p6hhHraKpzG1k0jWIdNEJiiheAl0NZKbb123q-PillLs8tdAXeZ1zyS3F6-IO8Jj4_fLDXtohvr6_MUcwWuUzeJd7_gnYClVTlMfrYyRW85a04fs9k04Fx70n3fLoGqVnd-YzifDkE8r_DGaXdF9L__LPLa3i1SSOEQFlgrx-JwaKG_JhtkFrfnE8_AceXl1Y!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Ceny pohonných látok v 15. týždni viditeľne klesli</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/analytik-inflacia-bude-rast-firmy-p/871728-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/ed43938a-f6ec-43ab-91ed-bda4c8852e48/!ut/p/z1/rZNLc5swFIX_SrrwUqMLEiAvsSfBuLan2MGxtemIl02xgRiVhP76ing6bWfKY1E2gtG9R0fnfmCOD5jnok5PQqZFLi7q-8jNr57lstlMswFmKwLu8vNus5g_6Y5v4Je_C9hm-wjus_3F2S6pBtTAXG3bnuftVvs9OHv9CVyiObDxfaVm4j3mmIe5LOUZH4ugEmdUZSjNEyQyOQH1Utyuyk2dx6gqb6JuJlBXsczUGkeUTAkTKDHjEFEiAjTV4ggFkaAhY4YeU9bKl2Ea4eOo6vt1evzyMXHMHXtBrRUAWzkGuPbC3049QsAmQ3Hc-6HjsWFcf49B3i__0uY1cIMhDd5r8tnEuyrDR2XU6izaqiTrNH7Dft6O_4J3v-doJIZGdAooiWITURrqaKoLhiwjCUIdNEJCAy8AL4eyUmzrt_V8fVLKQp5b6Ap8yIQUl-L08Ad5TXh--GCvbUm_vb5yWzFb5DJ-l_jwC9oJVFKVh-hjJ1fwlrci-p7JpgPj3pPu-XQNUrO68xnF-XII5H-HM0q7L6T_-WeXV__KSJOmKcq2bP1IKA8a8mO2QWp9sz_9BCow_pI!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Analytik: Inflácia bude rásť, firmy prenášajú do cien transakčnú daň</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/analytik-aktivita-v-priemysle-moze-po/871719-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/edf224e6-0ecf-4052-a9c2-6240ca9054da/!ut/p/z1/rZNLc5swFIX_SrrwUqOLJB5eYk-CcW1PwcGxtenIPGyKDcSoJPTXV8TTaTtTHouyEYzuPbo65wNzvMc8F3V6EjItcnFR3wdufPVM15rNNBtgtqLgLj9vN4v5E3ECHb_8XWBt_Edwn-0vjr9kGjAdc7Vte563Xe124OzIE7hUc2ATBErNwDvMMQ9zWcozPhTHSpxRlaE0T5DI5ATUS3G7qmnqPEZVeRN1M4G6imWm1jhKCGGxgSAOE8RAJ0hMQ4IMwiAUU9BZJFr5MkwjfBhVfb9Oz7x8jB1zx14wcwVgrRwdXHsR-FOPUrDpkB33fuh4bBjX3zMg75d_af0auMGQBu8d8tnA2yrDBzWo2VnkKyfrNH7DQd7Gf8Hb3znqia5RlRlKIhUmYyrCKREWMvXkGBLQKA11vAC8HPJKsU1u6_n6pJSFPLfQFXifCSkuxenhD_Ka8PzwwV7bkn57feW2YrbIZfwu8f4XtBOopCoP0cdOruAtb0X0PZNNB8a9J9396QpSM7v9GcX5cgjkf5szSrvPpP_5Z5fX4GrRJk1TlPnW-pEyfmzoj9kGqfXN_vQTBBQzjQ!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>Analytik: Aktivita v priemysle môže pokračovať vo výraznejšom raste</t>
+  </si>
+  <si>
+    <t>https://www.teraz.sk/ekonomika/harmonizovana-medzirocna-inflacia-do/871674-clanok.html?utm_source=teraz&amp;utm_medium=organic&amp;utm_campaign=click&amp;utm_content=.%253Bsearch</t>
+  </si>
+  <si>
+    <t>Harmonizovaná medziročná inflácia dosiahla v marci 2025 hodnotu 4,2 %</t>
+  </si>
+  <si>
     <t>article_url</t>
   </si>
   <si>
@@ -1009,170 +1759,285 @@
   </si>
   <si>
     <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/d8423218-3d8d-4a32-972a-31df60a84f1a/!ut/p/z1/rZPLcpswFIZfJVl4qdFB4qIssSfBuNhTbOPY2nQULoZiAzEqid--Ip5Om5lwWZSNYM5F__nOD-Z4j3khmuwoZFYW4qS-D9z84Vsum041G2DqUXAX3zar-eyJOIGBnz8nsNX6Edyt_d1ZL3QNdANzFbZ93994ux04O_IELtUcWAWB6mbiHeaYh4WsZIoP5UstUlTnKCsSJHI5AfVSXs5KTVPEqK4uorlOoKljmaszYjqhRGOIRixCuqAEPVhEIKpFiQmC6Ykm2vZVmEX4MCr7Nk6PXj4Gx8yx57rlATDPMcC158H6wacUbDqE41YPHY8N4-p7BPL-9s8tr4EJhnrwXpFbEx-USKszYa0oNln8hoOiXf0Jb_7u0EgMjRIdUBLFJtL1UO2QCIYsI3kJCWiUhgaeA14McVK-zn6-vnJbma8sZPwu8f6P-yZQS-W4EH1ECuXC6lJGv3J57fBjLqQ4lce7f4LXML37CLc3kctytjyqGYRMW2uXeN9bcuPTtUTN6uYzyuOLIRP3wfmfv-bXaEaVVufgzOg1yzKUr9nbNklPjZcsH6mhTvv-_je4EnQf/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.sk/inflacia-na-slovensku-v-marci-predstavovala-styri-percenta-bola-najvyssia-od-konca-2023/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/f87ec3ce-5c6f-4a0f-9c70-0f885a5ea884/!ut/p/z1/rZNPk5pAEMW_yubgcWoahgE8oskihrUCiqtzSY0jCEHBlQku3z7DblJJqsKfQ7gA1d2PN69_YIZ3mBW8zk5cZmXBz-p9z8yvgeXZs5nmAMx8At7y83q1mD_qbkTx898N9ir8BN7G-eKGS0MDg2Kmyk4QBGt_uwV3qz-CRzQXVlGk1Ey8xQwzUcirTPG-PFQ8RVWOsiJBPJcTUA_l7aLc1EWMquuN180E6iqWubonthULImJEhZkgg0OCpsICpAo25TTmtm208leRHfF-VPf7cXr8sjFxzF1nYVg-gO27FDxnEYXTgBBwyFAc7_PQcTkwbr7HIOuXf27zGjjBkAbrNbkx8V6ZtDobQpVincV3HBXt6s94_XuHNKEa0Q1AyTE2kWEIHU11biOLJgehg0aIoHgBeDmUk-Javz3Nn05Kmcu0Ba7Eu5xLfi5PD39Q14j04Y27diT79vLCHMVrWcj4VeLdL2AnUEnVLtBbpVDgXm_l8Xsumw6Ee7-0rvKfGXUtUrO6MxrF-XII5H8HNEq7L6j_-WdfL9HFJk2WZSgP7fsmSc-1n3ycrRA7NHfnww98ky5S/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.sk/pokles-priemyselnej-produkcie-slovenska-sa-spomalil-vyroba-automobilov-zatial-rastie/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/7746e1d9-0015-4a45-83c2-3ef215760689/!ut/p/z1/rZPNcpswFIVfJV14qdEFIcBL7DYYl3gKNo6tTUbGYCg2EKPi8PYVSTtNZsrPImwEo3sPR-d-wgzvMMt5nZ64SIucn-X3nulPnuGYs5liAcxcAs7y-3q1mN-rdkDx48cCc-V_A2dj_bD9paaARjGT25bneWt3uwV7q96DQxQbVkEg1XS8xQyzMBelSPC-OFQ8QVWG0jxGPBMTkC_F9SLd1HmEqvLK62YCdRWJTK6GoemRcpwiAIUijWsUmSRUEYliVaGGDro5beXLMD3i_ajqt-P0-GVj4pjb1kIzXADTtSk41iLwpx4hYJGhON76oeOxYFx_j0HWL__Y5jVwgiEN1mtyo-O9NGl0FvgyxTqNbjjI29Gf8frfDGlMFaJqgOJjpCNNk-ObqtxEBo0PoQoKISHFC8DLoZwk1-r1Yf5wkspcJC1wBd5lXPBzcbp7R10TJnev3LUt6c_nZ2ZJXotcRC8C7_4CO4FKyPIQve7kEtzyWhx_ZaLpQLj3T-sq-5NR1yAVozujUZwvh0D-f0CjtPuC-sybXV6Ci0maNE1R5pu3TZycazf-Olshdmhu1pffUOafTw!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.sk/nalada-podnikatelov-a-spotrebitelov-na-slovensku-sa-zhorsuje-klesa-zaujem-o-zabavu-aj-rekreacie/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/daee938f-b1f3-4f8a-b72b-d8a92b5f0773/!ut/p/z1/rZNLc5swFIX_SrrwUqMLAoOX2G0wLvEUbBxbm454yFBsIEbF4d9XJO20nSmPRdkIRvcejs79hCk-YlqwJjszkZUFu8jvE51_9QzHXC4VC2DpEnA2n3fb9epRtQMdP_9dYG79T-DsrS-2v9EU0HRM5bbled7OPRzAPqiP4BDFhm0QSLU5PmCKaVSISqT4VIY1S1Gdo6zgiOViBvKlvF2lm6ZIUF3dWNPOoKkTkcs1ZkmyICZHocIJ0rjJUGioIYpNtlBDnYNhkE6-irIYnyZVvx9nwC-dEsfKttaa4QKYrq2DY60Df-ERAhYZi-O9H3oeC6b1Dxikw_LPXV4jJxjToIMm93N8kiaN3gJfpthkyR0HRTf6C979nqHOdYWoGiAeJ3OkaZGKFiozkaHzMFJBISTS8RrwZiwnybV6e1o9naUyE2kHXImPORPsUp4f_qCujdKHN-66luzbywu1JK9lIZJXgY-_gJ1BLWR5hN52CgludSvj77loexAe_NOuzn9m1DdIxejPaBLnmzGQ_x3QJO2hoP7nza6uwdUkbZZlKPfN-56nl8blH5dbRMP2bn34AXLrHs4!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.sk/inflacia-sa-na-slovensku-mierne-spomalila-na-38-percenta-ceny-potravin-vsak-stale-rastu/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/77169fbd-956c-4a87-add1-93f21079fbfa/!ut/p/z1/rZPLcptAEEV_xVloOTUNw3OJlBihYFVAQpZm4xrxEAQJsJgg8_cZ7KRiV4XHwmyA6u7LndsHTPEe04I12YnxrCzYWbwfqPbk6Y4xn0sWwNwl4Ky-b9bLxb1sByp-_NhgrP1v4GytH7a_UiRQVExF2fI8b-PudmDv5HtwiGTDOgiEmoZ3mGIaFrziKT6Ux5qlqM5RViSI5XwG4qG8XoSbpohRXV1Z086gqWOei7uuS5qZHCNkqlqIFGboiEWRhEySyBLoopSwTr4KswgfJnW_HWfAL50Sx8K2loruAhiurYJjLQPf9AgBi4zF8TYPPZcF0-YHDNJh-ccur5ETjGnQQZNbDR-ESb23wRcpNll8w0HRrf6MN_92qCaqRGQFUBLFGlKUUEamzAykq8kxlEEiJFTxEvBqLCfBtXx9WDychDLjaQdcifc54-xcnu7eUdeG6d0rd91I9vP5mVqC17Lg8QvH-7_AzqDmoj1Er5VCgFtdy-hXztsehAe_tKnzPxn1LVLS-zOaxPlqDOT_BzRJeyioz_yzq0twMUibZRnKfeO2TdJz4yZf52tEj-3N-vIbcoh73g!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.sk/realne-mzdy-na-slovensku-rastli-napriec-ekonomikou-najviac-az-o-9-percent-v-dvoch-sektoroch/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/529ce5a6-5914-4e60-a187-177cd44f241c/!ut/p/z1/rZNfk5owFMW_yvbBx0xuIPzxEW0XsaxTUFzNSydGEIoCKyku375ht53ZzlTgobwEJvceTs79BTO8w6zgTXbiMisLflbfe2Z-DyzPns2IAzDzdfCWX9erxfxRcyMDP_9dYK_CL-BtnG9uuKQEqIGZ2naCIFj72y24W-0RPJ24sIoipWbiLWaYiUJWMsX78lDzFNU5yooE8VxOQL2U14ty0xQxqqsrb9oJNHUsc7Ua2lTEBjeRMSUU0dgExIltIWJZ4khpolEiOvlKZEe8H1X9fpwev2xMHHPXWVDLB7B91wDPWUThNNB1cPShON774c7jwLj-HoOsX_65y2vgBEMarNfkxsR7ZdK6WxCqFJssvuGo6EZ_xusPM0wMomsUUHKMTUSp0NBU4zayjOQgNCC6Lgy8ALwcyklxrV2f5k8npcxl2gFX4l3OJT-Xp4cP1LUifXjjrmvJfry8MEfxWhYyfpV49wfYCdRSlQv0tlMocKtrefyZy_YOwr1_Wtf574zuDZJYPRmN4Xw5BPK_Axql3RfU_7zZ1SW62HqbZRnKQ_u2SdJz4yefZyvEDu3N-fQLHclJ0Q!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://www.forbes.sk/zahranicny-obchod-slovenska-sa-v-januari-vyrazne-prepadol-a-to-este-pred-trumpovymi-clami/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/katalog%20informativnych%20sprav/!ut/p/z1/tVJNc4IwFPwrevCYyeObHqPTIg46BYVqLp2IIBQEhBTrv2-wHnoRpofmlry32d33FlO8xbRgbXpkPC0Llov7jurvxHXdtRMEYAXyC9iKZMHK9wGmOn67NbiGbU6nEgFz5T2DvSGvlrdQJVA1TPvxAaaYhgWveIJ35b5hCWqyCTRcKAhRWBY8KvgEqro8fGb8OoG0iMv6JKptEaGmqlkrHjPGWV4eR7-K1zAZ3codQRWmB7zTYk1SZBVQfIh0pKqhjJ5kZiJDi_ehDJKihNrdUI_izhA8OATu-JlF5qrhAJiOpYFN5r735CoKEGVoID_4HoJBPL219CkY8kB7STY63gmRxsMGT0yxTaML9otuGzle_3EHc8CLIZ8imXK9nC2P4mfGE9StHm97gyAg6cf5TIlIXBesL463_xO56uSfTOWapijzzMsmTvLWIWQ8_gbuVHiT/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/?1dmy&amp;urile=wcm%3apath%3a/Obsah-SK-INF-AKT/informativne-spravy/vsetky/c1e95346-f8f5-46af-9326-c800983a8a85</t>
+  </si>
+  <si>
+    <t>https://www.forbes.sk/mzdy-na-slovensku-po-dvoch-rokoch-realne-stupli-najviac-sa-zaraba-vo-financnom-a-poistovacom-sektore/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/katalog%20informativnych%20sprav/!ut/p/z1/tVJNc4IwFPwrevCYyeObHqPTIg46BYVqLp2IIBQEhBTrv2-wHnoRpofmlry32d33FlO8xbRgbXpkPC0Llov7jurvxHXdtRMEYAXyC9iKZMHK9wGmOn67NbiGbU6nEgFz5T2DvSGvlrdQJVA1TPvxAaaYhgWveIJ35b5hCWqyCTRcKAhRWBY8KvgEqro8fGb8OoG0iMv6JKptEaGmqlkrHjPGWV4eR7-K1zAZ3codQRWmB7zTYk1SZBVQfIh0pKqhjJ5kZiJDi_ehDJKihNrdUI_izhA8OATu-JlF5qrhAJiOpYFN5r735CoKEGVoID_4HoJBPL219CkY8kB7STY63gmRxsMGT0yxTaML9otuGzle_3EHc8CLIZ8imXK9nC2P4mfGE9StHm97gyAg6cf5TIlIXBesL463_xO56uSfTOWapijzzMsmTvLWIWQ8_gbuVHiT/dz/d5/L0lDUmlTUSEhL3dHa0FKRnNBLzROV3FpQSEhL3Nr/?1dmy&amp;urile=wcm%3apath%3a/Obsah-SK-INF-AKT/informativne-spravy/vsetky/8baa52e9-3aa0-4f29-8a4e-a0bb7b9ea848</t>
+  </si>
+  <si>
+    <t>https://www.forbes.sk/ekonomicka-nalada-podnikatelov-a-spotrebitelov-sa-zlepsuje-v-stavebnictve-a-priemysle-panuje-pesimizmus/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/59e322ac-dcb8-403b-a5da-625a1e4c65d2/!ut/p/z1/rZNLc5swFIX_SrrwUqOLxMtL7DYYl3gKNo6tTUe8DMUGYlQc_n1F0s6kMzWwKBvB6N7D0bmfMMMHzEre5icu8qrkZ_l9ZPp3z3DMxUKxABYuBWf9dbtZLR-JHWj4-e8Cc-N_AWdnfbP9taqAqmEmty3P87bufg_2njyCQxUbNkEg1XS8xwyzqBS1yPCxChueoaZAeZkiXogZyJfqepFu2jJBTX3lbTeDtklEIVdtnlBCeITiKDSRCjREXIs50onGlUSNdC0mvXwd5TE-Tqp-P86AXzYljqVtrVTDBTBdWwPHWgX-3KMULDoWx3s_3HksmNY_YJANyz_3eY2cYEyDDZrc6fgoTRp3C3yZYpsnNxyU_ejPePthhqmmUKICSuNER6oaETQn3ESGloYRAYXSSMMrwOuxnCTX5Pq0fDpJZS6yHrgKHwou-Lk6PXygrouyhzfu-pb8x8sLsySvVSmSV4EPf4CdQSNkeYTedkoJbn2t4p-F6O4gPPinbVP8zujeIBVjIKMpnK_HQP53QJO0h4L6nze7vgQXk3Z5nqPCN2-7NDu3bvp5sUEs7G7Wp1_xJG40/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://www.forbes.sk/vysledok-konsolidacie-inflacia-sa-prudko-zvysila-na-39-percenta/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/f0acb0dd-8eab-4381-962f-98af590ce48d/!ut/p/z1/rZNLc5swFIX_SrrwUqML4rnEboNxiadg49jadMTLUGwgRsXh31ck7bSdKY9F2QhG9x6Ozv2EKT5iWrI2PzOeVyW7iO8T1b56umMsl5IFsHQJOJvPu-169SjbgYqf_y4wtv4ncPbWF9vfKBIoKqZi2_I8b-ceDmAf5EdwiGTDNgiEmoYPmGIalbzmGT5VYcMy1BQoL1PECr4A8VLdrsJNWyaoqW-s7RbQNgkvxJoCi0KIY2QkLEQKMSRkanKKTIOlqglRohhxL19HeYxPs6rfjzPil86JY2Vba0V3AQzXVsGx1oFveoSARabieO-HgceCef0jBum4_HOf18QJpjToqMm9hk_CpD5Y4IsU2zy546DsR3_Bu98zVFNVIrICKI0TDSlKJCNTZgbS1TSMZJAIiVS8BryZyklwLd-eVk9nocx41gNX4WPBOLtU54c_qOui7OGNu74l__byQi3Ba1Xy5JXj4y9gF9BwUR6ht51SgFvfqvh7wbsBhEf_tGuKnxkNDVLShzOaxflmCuR_BzRLeyyo_3mz62twNUiX5zkqfOO-T7NL66Yfl1tEw-5uffgBZa-1qg!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/b88275c9-ec62-46c1-8af0-4dd0060910fb/!ut/p/z1/rZNLc5swFIX_SrrwUqPLGy-x22Bc4inYOLY2GSHAUGwgRsXh31ck7TSZKY9F2AhG9x6Ozv2ECT5gUtAmO1GelQU9i-8j0Z88wzEXC8kCWLgKOOvv281qeS_bgYYfPxaYG_8bODvrh-2vVQlUDROxbXmet3X3e7D38j04imTDJgiEmo73mGDCCl7xFB_LsKYpqnOUFQmiOZ-BeCmvF-GmKWJUV1fatDNo6pjnYg1NUzY0Nkcx02Wk6kxCJk0AqVEEoMNcgiTs5CuWRfg4qfrtOAN-yZQ4lra1Ug0XwHRtDRxrFfhzT1HAUsbieOuHnseCaf0DBsmw_GOX18gJxjTIoMmdjo_CpNFb4IsUmyy-4aDoRn_G238z1BJNUmQVUBLFOlJVJqO5TE1kaEnIZJAUhWl4BXg9lpPgWr4-LB9OQpnytAOuxIeccnouT3fvqGtZevfKXdeS_Xx-JpbgtSx4_MLx4S-wM6i5KGfodacQ4FbXMvqV87YH4cE_bev8T0Z9g5SM_owmcb4eA_n_AU3SHgrqM292dQkuptJmWYZy37ztkvTcuMnXxQaRsL1ZX34DNGz1tg!!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
+  </si>
+  <si>
+    <t>https://slovak.statistics.sk/wps/portal/ext/products/informationmessages/inf_sprava_detail/bced2cf3-66b4-4923-8440-2c28b3920947/!ut/p/z1/rZNLc5swFIX_SrrwUqOLxMtL7DYYl3gKNo6tTUdgMBQbiFFx-PcVSTttZ8pjUTaC0b2Ho3M_YYYPmBW8yc5cZGXBL_L7yPSvnuGYi4ViASxcCs7683azWj4SO9Dw898F5sb_BM7O-mL7a1UBVcNMblue523d_R7sPXkEhyo2bIJAqul4jxlmUSEqkeJjGdY8RXWOsiJBPBczkC_l7SrdNEWM6urGm3YGTR2LXK5hFJ9IlFCk66GK1DmhyFRVQCQiZkjnBOaq0clXUXbCx0nV78cZ8MumxLG0rZVquACma2vgWKvAn3uUgkXH4njvh57Hgmn9AwbZsPxzl9fICcY02KDJnY6P0qTRW-DLFJssvuOg6EZ_wdvfM9QSTaFEDi05xTpS1YigOeEmMrQkjAgolEYaXgFej-UkuSa3p-XTWSpzkXbAlfiQc8Ev5fnhD-raKH14465ryb69vDBL8loWIn4V-PAL2BnUQpZH6G2nkOBWt_L0PRdtD8KDf9rW-c-M-gapGP0ZTeJ8PQbyvwOapD0U1P-82dU1uJq0zbIM5b553yXppXGTj4sNYmF7tz78ANe-zPQ!/dz/d5/L2dBISEvZ0FBIS9nQSEh/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="d.m. h:mm"/>
-    <numFmt numFmtId="165" formatCode="d.m.yyyy"/>
+    <numFmt numFmtId="164" formatCode="d\.m\.\ h:mm"/>
+    <numFmt numFmtId="165" formatCode="d\.m\.yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="16">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF313131"/>
+      <name val="Fedra-display-heavy"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="3">
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1362,23 +2227,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="A36:C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="102.5"/>
+    <col min="3" max="3" width="102.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1389,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1400,7 +2270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1411,7 +2281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1422,29 +2292,29 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +2325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1466,51 +2336,51 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1521,7 +2391,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1532,51 +2402,51 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -1587,18 +2457,18 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -1609,55 +2479,246 @@
         <v>62</v>
       </c>
     </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="B5"/>
-    <hyperlink r:id="rId6" ref="A6"/>
-    <hyperlink r:id="rId7" ref="B6"/>
-    <hyperlink r:id="rId8" ref="A7"/>
-    <hyperlink r:id="rId9" ref="A8"/>
-    <hyperlink r:id="rId10" ref="A9"/>
-    <hyperlink r:id="rId11" ref="B9"/>
-    <hyperlink r:id="rId12" ref="A10"/>
-    <hyperlink r:id="rId13" ref="B10"/>
-    <hyperlink r:id="rId14" ref="A11"/>
-    <hyperlink r:id="rId15" ref="B11"/>
-    <hyperlink r:id="rId16" ref="A12"/>
-    <hyperlink r:id="rId17" ref="B12"/>
-    <hyperlink r:id="rId18" ref="A13"/>
-    <hyperlink r:id="rId19" ref="A14"/>
-    <hyperlink r:id="rId20" ref="A15"/>
-    <hyperlink r:id="rId21" ref="B15"/>
-    <hyperlink r:id="rId22" ref="A16"/>
-    <hyperlink r:id="rId23" ref="B16"/>
-    <hyperlink r:id="rId24" ref="A17"/>
-    <hyperlink r:id="rId25" ref="B17"/>
-    <hyperlink r:id="rId26" ref="A18"/>
-    <hyperlink r:id="rId27" ref="B18"/>
-    <hyperlink r:id="rId28" ref="A19"/>
-    <hyperlink r:id="rId29" ref="A20"/>
-    <hyperlink r:id="rId30" ref="B20"/>
-    <hyperlink r:id="rId31" ref="A21"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A9" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A11" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A12" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A14" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A15" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B16" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A17" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B17" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A18" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B18" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A20" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B20" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A21" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A22" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B22" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A23" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B23" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A24" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B24" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A25" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A26" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B26" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A27" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B27" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A28" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B28" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A29" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B29" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A30" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B30" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A31" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A32" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B32" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A33" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A34" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B34" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A35" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
   </hyperlinks>
-  <drawing r:id="rId32"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1668,1411 +2729,2630 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>105</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>108</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>111</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>114</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>120</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>79</v>
+        <v>123</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>84</v>
+        <v>125</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>128</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>131</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>134</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>137</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>139</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>141</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>103</v>
+        <v>143</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>106</v>
+        <v>145</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>109</v>
+        <v>148</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>112</v>
+        <v>151</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>154</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>118</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>158</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
+        <v>159</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3"/>
+    <row r="45" spans="1:3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="A3"/>
-    <hyperlink r:id="rId4" ref="B3"/>
-    <hyperlink r:id="rId5" ref="A4"/>
-    <hyperlink r:id="rId6" ref="B4"/>
-    <hyperlink r:id="rId7" ref="A5"/>
-    <hyperlink r:id="rId8" ref="B5"/>
-    <hyperlink r:id="rId9" ref="A6"/>
-    <hyperlink r:id="rId10" ref="B6"/>
-    <hyperlink r:id="rId11" ref="A7"/>
-    <hyperlink r:id="rId12" ref="B7"/>
-    <hyperlink r:id="rId13" ref="A8"/>
-    <hyperlink r:id="rId14" ref="B8"/>
-    <hyperlink r:id="rId15" ref="A9"/>
-    <hyperlink r:id="rId16" ref="B9"/>
-    <hyperlink r:id="rId17" ref="A10"/>
-    <hyperlink r:id="rId18" ref="B10"/>
-    <hyperlink r:id="rId19" ref="A11"/>
-    <hyperlink r:id="rId20" ref="B11"/>
-    <hyperlink r:id="rId21" ref="A12"/>
-    <hyperlink r:id="rId22" ref="B12"/>
-    <hyperlink r:id="rId23" ref="A13"/>
-    <hyperlink r:id="rId24" ref="B13"/>
-    <hyperlink r:id="rId25" ref="A14"/>
-    <hyperlink r:id="rId26" ref="B14"/>
-    <hyperlink r:id="rId27" ref="A15"/>
-    <hyperlink r:id="rId28" ref="B15"/>
-    <hyperlink r:id="rId29" ref="A16"/>
-    <hyperlink r:id="rId30" ref="B16"/>
-    <hyperlink r:id="rId31" ref="A17"/>
-    <hyperlink r:id="rId32" ref="B17"/>
-    <hyperlink r:id="rId33" ref="A18"/>
-    <hyperlink r:id="rId34" ref="B18"/>
-    <hyperlink r:id="rId35" ref="A19"/>
-    <hyperlink r:id="rId36" ref="B19"/>
-    <hyperlink r:id="rId37" ref="A20"/>
-    <hyperlink r:id="rId38" ref="B20"/>
-    <hyperlink r:id="rId39" ref="A21"/>
-    <hyperlink r:id="rId40" ref="B21"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="B11" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="A12" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="B12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="A13" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="B13" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="A14" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="B14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="A15" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="B15" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="A16" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="B16" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="A17" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="B17" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="A18" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="B18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="A19" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="B19" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="A20" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="B20" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="A21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="B21" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="A22" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="B22" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="A23" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="B23" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="A24" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="B24" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="A25" r:id="rId47" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="B25" r:id="rId48" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="A26" r:id="rId49" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="B26" r:id="rId50" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="A27" r:id="rId51" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="B27" r:id="rId52" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="A28" r:id="rId53" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="B28" r:id="rId54" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="A29" r:id="rId55" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="B29" r:id="rId56" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="A30" r:id="rId57" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="B30" r:id="rId58" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="A31" r:id="rId59" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="B31" r:id="rId60" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="A32" r:id="rId61" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="B32" r:id="rId62" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="A33" r:id="rId63" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="B33" r:id="rId64" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="A34" r:id="rId65" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="B34" r:id="rId66" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="A35" r:id="rId67" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="B35" r:id="rId68" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="A36" r:id="rId69" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="B36" r:id="rId70" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="A37" r:id="rId71" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="B37" r:id="rId72" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="A38" r:id="rId73" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="B38" r:id="rId74" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="A39" r:id="rId75" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="B39" r:id="rId76" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="A40" r:id="rId77" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="B40" r:id="rId78" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="A41" r:id="rId79" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="B41" r:id="rId80" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="A42" r:id="rId81" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="B42" r:id="rId82" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="A43" r:id="rId83" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="B43" r:id="rId84" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
   </hyperlinks>
-  <drawing r:id="rId41"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.5"/>
-    <col customWidth="1" min="2" max="2" width="14.75"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-    </row>
+    <row r="1" spans="1:2" ht="13.2">
+      <c r="A1" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.2">
+      <c r="A2" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.2">
+      <c r="A3" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.2">
+      <c r="A4" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.2">
+      <c r="A5" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.2">
+      <c r="A6" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="13.2">
+      <c r="A7" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="13.2">
+      <c r="A8" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.2">
+      <c r="A9" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.2">
+      <c r="A10" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.2">
+      <c r="A11" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.2">
+      <c r="A12" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.2">
+      <c r="A13" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.2">
+      <c r="A14" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.2">
+      <c r="A15" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.2">
+      <c r="A16" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.2">
+      <c r="A17" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.2">
+      <c r="A18" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.2">
+      <c r="A19" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.2">
+      <c r="A20" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.2">
+      <c r="A21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.2">
+      <c r="A22" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.2">
+      <c r="A23" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.2">
+      <c r="A24" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.2">
+      <c r="A25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.2">
+      <c r="A26" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.2">
+      <c r="A27" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.2">
+      <c r="A28" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.2">
+      <c r="A29" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="13.2">
+      <c r="A30" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.2">
+      <c r="A31" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.2">
+      <c r="A32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.2">
+      <c r="A33" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.2">
+      <c r="A35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.2">
+      <c r="A36" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="13.2">
+      <c r="A37" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="13.2">
+      <c r="A38" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="13.2">
+      <c r="A39" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="13.2">
+      <c r="A40" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="13.2">
+      <c r="A41" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="13.2">
+      <c r="A42" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.2">
+      <c r="A43" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.2">
+      <c r="A44" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.2">
+      <c r="A45" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="13.2">
+      <c r="A46" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="13.2">
+      <c r="A47" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="13.2">
+      <c r="A48" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="13.2">
+      <c r="A49" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="13.2">
+      <c r="A50" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="13.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="A3"/>
-    <hyperlink r:id="rId4" ref="B3"/>
-    <hyperlink r:id="rId5" ref="A4"/>
-    <hyperlink r:id="rId6" ref="B4"/>
-    <hyperlink r:id="rId7" ref="A5"/>
-    <hyperlink r:id="rId8" ref="B5"/>
-    <hyperlink r:id="rId9" ref="A6"/>
-    <hyperlink r:id="rId10" ref="B6"/>
-    <hyperlink r:id="rId11" ref="A7"/>
-    <hyperlink r:id="rId12" ref="B7"/>
-    <hyperlink r:id="rId13" ref="A8"/>
-    <hyperlink r:id="rId14" ref="B8"/>
-    <hyperlink r:id="rId15" ref="A9"/>
-    <hyperlink r:id="rId16" ref="B9"/>
-    <hyperlink r:id="rId17" ref="A10"/>
-    <hyperlink r:id="rId18" ref="B10"/>
-    <hyperlink r:id="rId19" ref="A11"/>
-    <hyperlink r:id="rId20" ref="B11"/>
-    <hyperlink r:id="rId21" ref="A12"/>
-    <hyperlink r:id="rId22" ref="B12"/>
-    <hyperlink r:id="rId23" ref="A13"/>
-    <hyperlink r:id="rId24" ref="B13"/>
-    <hyperlink r:id="rId25" ref="A14"/>
-    <hyperlink r:id="rId26" ref="B14"/>
-    <hyperlink r:id="rId27" ref="A15"/>
-    <hyperlink r:id="rId28" ref="B15"/>
-    <hyperlink r:id="rId29" ref="A16"/>
-    <hyperlink r:id="rId30" ref="B16"/>
-    <hyperlink r:id="rId31" ref="A17"/>
-    <hyperlink r:id="rId32" ref="B17"/>
-    <hyperlink r:id="rId33" ref="A18"/>
-    <hyperlink r:id="rId34" ref="B18"/>
-    <hyperlink r:id="rId35" ref="A19"/>
-    <hyperlink r:id="rId36" ref="B19"/>
-    <hyperlink r:id="rId37" ref="A20"/>
-    <hyperlink r:id="rId38" ref="B20"/>
-    <hyperlink r:id="rId39" ref="A21"/>
-    <hyperlink r:id="rId40" ref="B21"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B11" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
+    <hyperlink ref="A12" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
+    <hyperlink ref="B12" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
+    <hyperlink ref="A13" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
+    <hyperlink ref="B13" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
+    <hyperlink ref="A14" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
+    <hyperlink ref="B14" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
+    <hyperlink ref="A15" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
+    <hyperlink ref="B15" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
+    <hyperlink ref="A16" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
+    <hyperlink ref="B16" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
+    <hyperlink ref="A17" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
+    <hyperlink ref="B17" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
+    <hyperlink ref="A18" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
+    <hyperlink ref="B18" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
+    <hyperlink ref="A19" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
+    <hyperlink ref="B19" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
+    <hyperlink ref="A20" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
+    <hyperlink ref="B20" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
+    <hyperlink ref="A21" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
+    <hyperlink ref="B21" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
+    <hyperlink ref="A22" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
+    <hyperlink ref="B22" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
+    <hyperlink ref="A23" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
+    <hyperlink ref="B23" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
+    <hyperlink ref="A24" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
+    <hyperlink ref="B24" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
+    <hyperlink ref="A25" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
+    <hyperlink ref="B25" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
+    <hyperlink ref="A26" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
+    <hyperlink ref="B26" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
+    <hyperlink ref="A27" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
+    <hyperlink ref="B27" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
+    <hyperlink ref="A28" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
+    <hyperlink ref="B28" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
+    <hyperlink ref="A29" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
+    <hyperlink ref="B29" r:id="rId56" xr:uid="{00000000-0004-0000-0200-000037000000}"/>
+    <hyperlink ref="A30" r:id="rId57" xr:uid="{00000000-0004-0000-0200-000038000000}"/>
+    <hyperlink ref="B30" r:id="rId58" xr:uid="{00000000-0004-0000-0200-000039000000}"/>
+    <hyperlink ref="A31" r:id="rId59" xr:uid="{00000000-0004-0000-0200-00003A000000}"/>
+    <hyperlink ref="B31" r:id="rId60" xr:uid="{00000000-0004-0000-0200-00003B000000}"/>
+    <hyperlink ref="A32" r:id="rId61" xr:uid="{00000000-0004-0000-0200-00003C000000}"/>
+    <hyperlink ref="B32" r:id="rId62" xr:uid="{00000000-0004-0000-0200-00003D000000}"/>
+    <hyperlink ref="A33" r:id="rId63" xr:uid="{00000000-0004-0000-0200-00003E000000}"/>
+    <hyperlink ref="B33" r:id="rId64" xr:uid="{00000000-0004-0000-0200-00003F000000}"/>
+    <hyperlink ref="A34" r:id="rId65" xr:uid="{00000000-0004-0000-0200-000040000000}"/>
+    <hyperlink ref="B34" r:id="rId66" xr:uid="{00000000-0004-0000-0200-000041000000}"/>
+    <hyperlink ref="A35" r:id="rId67" xr:uid="{00000000-0004-0000-0200-000044000000}"/>
+    <hyperlink ref="B35" r:id="rId68" xr:uid="{00000000-0004-0000-0200-000045000000}"/>
+    <hyperlink ref="A36" r:id="rId69" xr:uid="{00000000-0004-0000-0200-000046000000}"/>
+    <hyperlink ref="B36" r:id="rId70" xr:uid="{00000000-0004-0000-0200-000047000000}"/>
+    <hyperlink ref="A37" r:id="rId71" xr:uid="{00000000-0004-0000-0200-000048000000}"/>
+    <hyperlink ref="B37" r:id="rId72" xr:uid="{00000000-0004-0000-0200-000049000000}"/>
+    <hyperlink ref="A38" r:id="rId73" xr:uid="{00000000-0004-0000-0200-00004A000000}"/>
+    <hyperlink ref="B38" r:id="rId74" xr:uid="{00000000-0004-0000-0200-00004B000000}"/>
+    <hyperlink ref="A39" r:id="rId75" xr:uid="{00000000-0004-0000-0200-00004C000000}"/>
+    <hyperlink ref="B39" r:id="rId76" xr:uid="{00000000-0004-0000-0200-00004D000000}"/>
+    <hyperlink ref="A40" r:id="rId77" xr:uid="{00000000-0004-0000-0200-00004E000000}"/>
+    <hyperlink ref="B40" r:id="rId78" xr:uid="{00000000-0004-0000-0200-00004F000000}"/>
+    <hyperlink ref="A41" r:id="rId79" xr:uid="{00000000-0004-0000-0200-000050000000}"/>
+    <hyperlink ref="B41" r:id="rId80" xr:uid="{00000000-0004-0000-0200-000051000000}"/>
+    <hyperlink ref="A42" r:id="rId81" xr:uid="{00000000-0004-0000-0200-000052000000}"/>
+    <hyperlink ref="B42" r:id="rId82" xr:uid="{00000000-0004-0000-0200-000053000000}"/>
+    <hyperlink ref="A43" r:id="rId83" xr:uid="{00000000-0004-0000-0200-000054000000}"/>
+    <hyperlink ref="B43" r:id="rId84" xr:uid="{00000000-0004-0000-0200-000055000000}"/>
+    <hyperlink ref="A44" r:id="rId85" xr:uid="{00000000-0004-0000-0200-000056000000}"/>
+    <hyperlink ref="B44" r:id="rId86" xr:uid="{00000000-0004-0000-0200-000057000000}"/>
+    <hyperlink ref="A45" r:id="rId87" xr:uid="{00000000-0004-0000-0200-000058000000}"/>
+    <hyperlink ref="B45" r:id="rId88" xr:uid="{00000000-0004-0000-0200-000059000000}"/>
+    <hyperlink ref="A46" r:id="rId89" xr:uid="{00000000-0004-0000-0200-00005A000000}"/>
+    <hyperlink ref="B46" r:id="rId90" xr:uid="{00000000-0004-0000-0200-00005B000000}"/>
+    <hyperlink ref="A47" r:id="rId91" xr:uid="{00000000-0004-0000-0200-00005C000000}"/>
+    <hyperlink ref="B47" r:id="rId92" xr:uid="{00000000-0004-0000-0200-00005D000000}"/>
+    <hyperlink ref="A48" r:id="rId93" xr:uid="{00000000-0004-0000-0200-00005E000000}"/>
+    <hyperlink ref="B48" r:id="rId94" xr:uid="{00000000-0004-0000-0200-00005F000000}"/>
+    <hyperlink ref="A49" r:id="rId95" xr:uid="{00000000-0004-0000-0200-000060000000}"/>
+    <hyperlink ref="B49" r:id="rId96" xr:uid="{00000000-0004-0000-0200-000061000000}"/>
+    <hyperlink ref="A50" r:id="rId97" xr:uid="{00000000-0004-0000-0200-000062000000}"/>
+    <hyperlink ref="B50" r:id="rId98" xr:uid="{00000000-0004-0000-0200-000063000000}"/>
   </hyperlinks>
-  <drawing r:id="rId41"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="71" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="8">
+        <v>321</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="11">
         <v>45672.479166666664</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="8">
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" s="11">
         <v>45700.375</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>327</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>131</v>
+        <v>329</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="8">
+        <v>330</v>
+      </c>
+      <c r="D4" s="11">
         <v>45705.388194444444</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
-        <v>175</v>
+        <v>331</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="8">
+        <v>332</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="11">
         <v>45670.395833333336</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="8">
-        <v>45670.38263888889</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>334</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D6" s="11">
+        <v>45670.382638888892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>183</v>
+        <v>337</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>187</v>
+        <v>341</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>343</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>191</v>
+        <v>345</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>195</v>
+        <v>349</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
-        <v>197</v>
+        <v>353</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>199</v>
+        <v>354</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>355</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
-        <v>201</v>
+        <v>357</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>203</v>
+        <v>358</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
-        <v>205</v>
+        <v>361</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>207</v>
+        <v>362</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>363</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>211</v>
+        <v>365</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>215</v>
+        <v>369</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>219</v>
+        <v>373</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>375</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>223</v>
+        <v>377</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>379</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>227</v>
+        <v>381</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>383</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>229</v>
+        <v>385</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>231</v>
+        <v>386</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>235</v>
+        <v>389</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>391</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>239</v>
+        <v>393</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>240</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D22" s="11">
+        <v>45763.397916666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23" s="11">
+        <v>45761.383333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" s="11">
+        <v>45757.390277777777</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D25" s="11">
+        <v>45775.390277777777</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D26" s="11">
+        <v>45761.398611111108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D27" s="11">
+        <v>45779.383333333331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D28" s="11">
+        <v>45763.488194444442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D29" s="11">
+        <v>45775.40347222222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D30" s="11">
+        <v>45751.38958333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D31" s="11">
+        <v>45743.388888888891</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D32" s="11">
+        <v>45735.465277777781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D33" s="11">
+        <v>45733.390972222223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D34" s="11">
+        <v>45735.417361111111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D35" s="11">
+        <v>45729.392361111109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D36" s="11">
+        <v>45727.39166666667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" s="11">
+        <v>45723.385416666664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D38" s="11">
+        <v>45758.381944444445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D39" s="11">
+        <v>45764.381944444445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D40" s="11">
+        <v>45762.395833333336</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="A3"/>
-    <hyperlink r:id="rId4" ref="B3"/>
-    <hyperlink r:id="rId5" ref="K3"/>
-    <hyperlink r:id="rId6" ref="A4"/>
-    <hyperlink r:id="rId7" ref="B4"/>
-    <hyperlink r:id="rId8" ref="A5"/>
-    <hyperlink r:id="rId9" ref="A6"/>
-    <hyperlink r:id="rId10" ref="B6"/>
-    <hyperlink r:id="rId11" ref="A7"/>
-    <hyperlink r:id="rId12" ref="B7"/>
-    <hyperlink r:id="rId13" ref="A8"/>
-    <hyperlink r:id="rId14" ref="B8"/>
-    <hyperlink r:id="rId15" ref="A9"/>
-    <hyperlink r:id="rId16" ref="B9"/>
-    <hyperlink r:id="rId17" ref="A10"/>
-    <hyperlink r:id="rId18" ref="B10"/>
-    <hyperlink r:id="rId19" ref="A11"/>
-    <hyperlink r:id="rId20" ref="A12"/>
-    <hyperlink r:id="rId21" ref="A13"/>
-    <hyperlink r:id="rId22" ref="A14"/>
-    <hyperlink r:id="rId23" ref="B14"/>
-    <hyperlink r:id="rId24" ref="A15"/>
-    <hyperlink r:id="rId25" ref="B15"/>
-    <hyperlink r:id="rId26" ref="A16"/>
-    <hyperlink r:id="rId27" ref="B16"/>
-    <hyperlink r:id="rId28" ref="A17"/>
-    <hyperlink r:id="rId29" ref="B17"/>
-    <hyperlink r:id="rId30" ref="A18"/>
-    <hyperlink r:id="rId31" ref="B18"/>
-    <hyperlink r:id="rId32" ref="A19"/>
-    <hyperlink r:id="rId33" ref="A20"/>
-    <hyperlink r:id="rId34" ref="B20"/>
-    <hyperlink r:id="rId35" ref="A21"/>
-    <hyperlink r:id="rId36" ref="B21"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="K3" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="A5" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="A12" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="A13" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="A14" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="B14" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="A15" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="B15" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="A16" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="B16" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="A17" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="B17" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="A18" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="B18" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="A19" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="A20" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="B20" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="A21" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="B21" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="A22" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="B22" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="A23" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="B23" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="A24" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="B24" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="A25" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="B25" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="A26" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="B26" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="A27" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
+    <hyperlink ref="B27" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="A28" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="B28" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="A29" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="B29" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="A30" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="B30" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="A31" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="B31" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
+    <hyperlink ref="A32" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="B32" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="A33" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="B33" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="A34" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
+    <hyperlink ref="B34" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
+    <hyperlink ref="A35" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="B35" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="A36" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="B36" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="A37" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="B37" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="A38" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="B38" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="A39" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="B39" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="A40" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="B40" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
   </hyperlinks>
-  <drawing r:id="rId37"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="58.0"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
+        <v>319</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="12">
-        <v>45717.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="12">
-        <v>45716.0</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D15" s="14"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="C20" s="11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D2" s="14">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" s="14">
+        <v>45716</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>101</v>
+        <v>506</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>515</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="13" t="s">
+        <v>527</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E3:E6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="A3"/>
-    <hyperlink r:id="rId4" ref="B3"/>
-    <hyperlink r:id="rId5" ref="A4"/>
-    <hyperlink r:id="rId6" ref="B4"/>
-    <hyperlink r:id="rId7" ref="A5"/>
-    <hyperlink r:id="rId8" ref="B5"/>
-    <hyperlink r:id="rId9" ref="A6"/>
-    <hyperlink r:id="rId10" ref="B6"/>
-    <hyperlink r:id="rId11" ref="A7"/>
-    <hyperlink r:id="rId12" ref="B7"/>
-    <hyperlink r:id="rId13" ref="A8"/>
-    <hyperlink r:id="rId14" ref="B8"/>
-    <hyperlink r:id="rId15" ref="A9"/>
-    <hyperlink r:id="rId16" ref="B9"/>
-    <hyperlink r:id="rId17" ref="A10"/>
-    <hyperlink r:id="rId18" ref="B10"/>
-    <hyperlink r:id="rId19" ref="A11"/>
-    <hyperlink r:id="rId20" ref="B11"/>
-    <hyperlink r:id="rId21" ref="A12"/>
-    <hyperlink r:id="rId22" ref="B12"/>
-    <hyperlink r:id="rId23" ref="A13"/>
-    <hyperlink r:id="rId24" ref="B13"/>
-    <hyperlink r:id="rId25" ref="A14"/>
-    <hyperlink r:id="rId26" ref="B14"/>
-    <hyperlink r:id="rId27" ref="A15"/>
-    <hyperlink r:id="rId28" ref="B15"/>
-    <hyperlink r:id="rId29" ref="A16"/>
-    <hyperlink r:id="rId30" ref="B16"/>
-    <hyperlink r:id="rId31" ref="A17"/>
-    <hyperlink r:id="rId32" ref="B17"/>
-    <hyperlink r:id="rId33" ref="A18"/>
-    <hyperlink r:id="rId34" ref="B18"/>
-    <hyperlink r:id="rId35" ref="A19"/>
-    <hyperlink r:id="rId36" ref="B19"/>
-    <hyperlink r:id="rId37" ref="A20"/>
-    <hyperlink r:id="rId38" ref="B20"/>
-    <hyperlink r:id="rId39" ref="A21"/>
-    <hyperlink r:id="rId40" ref="B21"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="B11" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="A12" r:id="rId21" xr:uid="{00000000-0004-0000-0400-000014000000}"/>
+    <hyperlink ref="B12" r:id="rId22" xr:uid="{00000000-0004-0000-0400-000015000000}"/>
+    <hyperlink ref="A13" r:id="rId23" xr:uid="{00000000-0004-0000-0400-000016000000}"/>
+    <hyperlink ref="B13" r:id="rId24" xr:uid="{00000000-0004-0000-0400-000017000000}"/>
+    <hyperlink ref="A14" r:id="rId25" xr:uid="{00000000-0004-0000-0400-000018000000}"/>
+    <hyperlink ref="B14" r:id="rId26" xr:uid="{00000000-0004-0000-0400-000019000000}"/>
+    <hyperlink ref="A15" r:id="rId27" xr:uid="{00000000-0004-0000-0400-00001A000000}"/>
+    <hyperlink ref="B15" r:id="rId28" xr:uid="{00000000-0004-0000-0400-00001B000000}"/>
+    <hyperlink ref="A16" r:id="rId29" xr:uid="{00000000-0004-0000-0400-00001C000000}"/>
+    <hyperlink ref="B16" r:id="rId30" xr:uid="{00000000-0004-0000-0400-00001D000000}"/>
+    <hyperlink ref="A17" r:id="rId31" xr:uid="{00000000-0004-0000-0400-00001E000000}"/>
+    <hyperlink ref="B17" r:id="rId32" xr:uid="{00000000-0004-0000-0400-00001F000000}"/>
+    <hyperlink ref="A18" r:id="rId33" xr:uid="{00000000-0004-0000-0400-000020000000}"/>
+    <hyperlink ref="B18" r:id="rId34" xr:uid="{00000000-0004-0000-0400-000021000000}"/>
+    <hyperlink ref="A19" r:id="rId35" xr:uid="{00000000-0004-0000-0400-000022000000}"/>
+    <hyperlink ref="B19" r:id="rId36" xr:uid="{00000000-0004-0000-0400-000023000000}"/>
+    <hyperlink ref="A20" r:id="rId37" xr:uid="{00000000-0004-0000-0400-000024000000}"/>
+    <hyperlink ref="B20" r:id="rId38" xr:uid="{00000000-0004-0000-0400-000025000000}"/>
+    <hyperlink ref="A21" r:id="rId39" xr:uid="{00000000-0004-0000-0400-000026000000}"/>
+    <hyperlink ref="B21" r:id="rId40" xr:uid="{00000000-0004-0000-0400-000027000000}"/>
+    <hyperlink ref="A22" r:id="rId41" xr:uid="{00000000-0004-0000-0400-000028000000}"/>
+    <hyperlink ref="B22" r:id="rId42" xr:uid="{00000000-0004-0000-0400-000029000000}"/>
+    <hyperlink ref="A23" r:id="rId43" xr:uid="{00000000-0004-0000-0400-00002A000000}"/>
+    <hyperlink ref="B23" r:id="rId44" xr:uid="{00000000-0004-0000-0400-00002B000000}"/>
+    <hyperlink ref="A24" r:id="rId45" xr:uid="{00000000-0004-0000-0400-00002C000000}"/>
+    <hyperlink ref="B24" r:id="rId46" xr:uid="{00000000-0004-0000-0400-00002D000000}"/>
+    <hyperlink ref="A25" r:id="rId47" xr:uid="{00000000-0004-0000-0400-00002E000000}"/>
+    <hyperlink ref="B25" r:id="rId48" xr:uid="{00000000-0004-0000-0400-00002F000000}"/>
+    <hyperlink ref="A26" r:id="rId49" xr:uid="{00000000-0004-0000-0400-000030000000}"/>
+    <hyperlink ref="B26" r:id="rId50" xr:uid="{00000000-0004-0000-0400-000031000000}"/>
+    <hyperlink ref="A27" r:id="rId51" xr:uid="{00000000-0004-0000-0400-000032000000}"/>
+    <hyperlink ref="B27" r:id="rId52" xr:uid="{00000000-0004-0000-0400-000033000000}"/>
+    <hyperlink ref="A28" r:id="rId53" xr:uid="{00000000-0004-0000-0400-000034000000}"/>
+    <hyperlink ref="B28" r:id="rId54" xr:uid="{00000000-0004-0000-0400-000035000000}"/>
+    <hyperlink ref="A29" r:id="rId55" xr:uid="{00000000-0004-0000-0400-000036000000}"/>
+    <hyperlink ref="B29" r:id="rId56" xr:uid="{00000000-0004-0000-0400-000037000000}"/>
+    <hyperlink ref="A30" r:id="rId57" xr:uid="{00000000-0004-0000-0400-000038000000}"/>
+    <hyperlink ref="B30" r:id="rId58" xr:uid="{00000000-0004-0000-0400-000039000000}"/>
+    <hyperlink ref="A31" r:id="rId59" xr:uid="{00000000-0004-0000-0400-00003A000000}"/>
+    <hyperlink ref="B31" r:id="rId60" xr:uid="{00000000-0004-0000-0400-00003B000000}"/>
+    <hyperlink ref="A32" r:id="rId61" xr:uid="{00000000-0004-0000-0400-00003C000000}"/>
+    <hyperlink ref="B32" r:id="rId62" xr:uid="{00000000-0004-0000-0400-00003D000000}"/>
+    <hyperlink ref="A33" r:id="rId63" xr:uid="{00000000-0004-0000-0400-00003E000000}"/>
+    <hyperlink ref="B33" r:id="rId64" xr:uid="{00000000-0004-0000-0400-00003F000000}"/>
+    <hyperlink ref="A34" r:id="rId65" xr:uid="{00000000-0004-0000-0400-000040000000}"/>
+    <hyperlink ref="B34" r:id="rId66" xr:uid="{00000000-0004-0000-0400-000041000000}"/>
   </hyperlinks>
-  <drawing r:id="rId41"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>543</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>545</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>546</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>548</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>549</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>550</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>551</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>552</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>554</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>556</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>558</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>560</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>562</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>564</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>566</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>568</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>570</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>572</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>574</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>576</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>324</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2"/>
+    <row r="34" spans="1:2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="B2"/>
-    <hyperlink r:id="rId3" ref="A3"/>
-    <hyperlink r:id="rId4" ref="B3"/>
-    <hyperlink r:id="rId5" ref="A4"/>
-    <hyperlink r:id="rId6" ref="B4"/>
-    <hyperlink r:id="rId7" ref="A5"/>
-    <hyperlink r:id="rId8" ref="B5"/>
-    <hyperlink r:id="rId9" ref="A6"/>
-    <hyperlink r:id="rId10" ref="B6"/>
-    <hyperlink r:id="rId11" ref="A7"/>
-    <hyperlink r:id="rId12" ref="B7"/>
-    <hyperlink r:id="rId13" ref="A8"/>
-    <hyperlink r:id="rId14" ref="B8"/>
-    <hyperlink r:id="rId15" ref="A9"/>
-    <hyperlink r:id="rId16" ref="B9"/>
-    <hyperlink r:id="rId17" ref="A10"/>
-    <hyperlink r:id="rId18" ref="B10"/>
-    <hyperlink r:id="rId19" ref="A11"/>
-    <hyperlink r:id="rId20" ref="B11"/>
-    <hyperlink r:id="rId21" ref="A12"/>
-    <hyperlink r:id="rId22" ref="B12"/>
-    <hyperlink r:id="rId23" ref="A13"/>
-    <hyperlink r:id="rId24" ref="B13"/>
-    <hyperlink r:id="rId25" ref="A14"/>
-    <hyperlink r:id="rId26" ref="B14"/>
-    <hyperlink r:id="rId27" ref="A15"/>
-    <hyperlink r:id="rId28" ref="B15"/>
-    <hyperlink r:id="rId29" ref="A16"/>
-    <hyperlink r:id="rId30" ref="B16"/>
-    <hyperlink r:id="rId31" ref="A17"/>
-    <hyperlink r:id="rId32" ref="B17"/>
-    <hyperlink r:id="rId33" ref="A18"/>
-    <hyperlink r:id="rId34" ref="B18"/>
-    <hyperlink r:id="rId35" ref="A19"/>
-    <hyperlink r:id="rId36" ref="B19"/>
-    <hyperlink r:id="rId37" ref="A20"/>
-    <hyperlink r:id="rId38" ref="B20"/>
-    <hyperlink r:id="rId39" ref="A21"/>
-    <hyperlink r:id="rId40" ref="B21"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{00000000-0004-0000-0500-000007000000}"/>
+    <hyperlink ref="A6" r:id="rId9" xr:uid="{00000000-0004-0000-0500-000008000000}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{00000000-0004-0000-0500-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" xr:uid="{00000000-0004-0000-0500-00000A000000}"/>
+    <hyperlink ref="B7" r:id="rId12" xr:uid="{00000000-0004-0000-0500-00000B000000}"/>
+    <hyperlink ref="A8" r:id="rId13" xr:uid="{00000000-0004-0000-0500-00000C000000}"/>
+    <hyperlink ref="B8" r:id="rId14" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
+    <hyperlink ref="A9" r:id="rId15" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
+    <hyperlink ref="B9" r:id="rId16" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
+    <hyperlink ref="A10" r:id="rId17" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
+    <hyperlink ref="B10" r:id="rId18" xr:uid="{00000000-0004-0000-0500-000011000000}"/>
+    <hyperlink ref="A11" r:id="rId19" xr:uid="{00000000-0004-0000-0500-000012000000}"/>
+    <hyperlink ref="B11" r:id="rId20" xr:uid="{00000000-0004-0000-0500-000013000000}"/>
+    <hyperlink ref="A12" r:id="rId21" xr:uid="{00000000-0004-0000-0500-000014000000}"/>
+    <hyperlink ref="B12" r:id="rId22" xr:uid="{00000000-0004-0000-0500-000015000000}"/>
+    <hyperlink ref="A13" r:id="rId23" xr:uid="{00000000-0004-0000-0500-000016000000}"/>
+    <hyperlink ref="B13" r:id="rId24" xr:uid="{00000000-0004-0000-0500-000017000000}"/>
+    <hyperlink ref="A14" r:id="rId25" xr:uid="{00000000-0004-0000-0500-000018000000}"/>
+    <hyperlink ref="B14" r:id="rId26" xr:uid="{00000000-0004-0000-0500-000019000000}"/>
+    <hyperlink ref="A15" r:id="rId27" xr:uid="{00000000-0004-0000-0500-00001A000000}"/>
+    <hyperlink ref="B15" r:id="rId28" xr:uid="{00000000-0004-0000-0500-00001B000000}"/>
+    <hyperlink ref="A16" r:id="rId29" xr:uid="{00000000-0004-0000-0500-00001C000000}"/>
+    <hyperlink ref="B16" r:id="rId30" xr:uid="{00000000-0004-0000-0500-00001D000000}"/>
+    <hyperlink ref="A17" r:id="rId31" xr:uid="{00000000-0004-0000-0500-00001E000000}"/>
+    <hyperlink ref="B17" r:id="rId32" xr:uid="{00000000-0004-0000-0500-00001F000000}"/>
+    <hyperlink ref="A18" r:id="rId33" xr:uid="{00000000-0004-0000-0500-000020000000}"/>
+    <hyperlink ref="B18" r:id="rId34" xr:uid="{00000000-0004-0000-0500-000021000000}"/>
+    <hyperlink ref="A19" r:id="rId35" xr:uid="{00000000-0004-0000-0500-000022000000}"/>
+    <hyperlink ref="B19" r:id="rId36" xr:uid="{00000000-0004-0000-0500-000023000000}"/>
+    <hyperlink ref="A20" r:id="rId37" xr:uid="{00000000-0004-0000-0500-000024000000}"/>
+    <hyperlink ref="B20" r:id="rId38" xr:uid="{00000000-0004-0000-0500-000025000000}"/>
+    <hyperlink ref="A21" r:id="rId39" xr:uid="{00000000-0004-0000-0500-000026000000}"/>
+    <hyperlink ref="B21" r:id="rId40" xr:uid="{00000000-0004-0000-0500-000027000000}"/>
+    <hyperlink ref="A22" r:id="rId41" xr:uid="{00000000-0004-0000-0500-000028000000}"/>
+    <hyperlink ref="B22" r:id="rId42" xr:uid="{00000000-0004-0000-0500-000029000000}"/>
+    <hyperlink ref="A23" r:id="rId43" xr:uid="{00000000-0004-0000-0500-00002A000000}"/>
+    <hyperlink ref="B23" r:id="rId44" xr:uid="{00000000-0004-0000-0500-00002B000000}"/>
+    <hyperlink ref="A24" r:id="rId45" xr:uid="{00000000-0004-0000-0500-00002C000000}"/>
+    <hyperlink ref="B24" r:id="rId46" xr:uid="{00000000-0004-0000-0500-00002D000000}"/>
+    <hyperlink ref="A25" r:id="rId47" xr:uid="{00000000-0004-0000-0500-00002E000000}"/>
+    <hyperlink ref="B25" r:id="rId48" xr:uid="{00000000-0004-0000-0500-00002F000000}"/>
+    <hyperlink ref="A26" r:id="rId49" xr:uid="{00000000-0004-0000-0500-000030000000}"/>
+    <hyperlink ref="B26" r:id="rId50" xr:uid="{00000000-0004-0000-0500-000031000000}"/>
+    <hyperlink ref="A27" r:id="rId51" xr:uid="{00000000-0004-0000-0500-000032000000}"/>
+    <hyperlink ref="B27" r:id="rId52" xr:uid="{00000000-0004-0000-0500-000033000000}"/>
+    <hyperlink ref="A28" r:id="rId53" xr:uid="{00000000-0004-0000-0500-000034000000}"/>
+    <hyperlink ref="B28" r:id="rId54" xr:uid="{00000000-0004-0000-0500-000035000000}"/>
+    <hyperlink ref="A29" r:id="rId55" xr:uid="{00000000-0004-0000-0500-000036000000}"/>
+    <hyperlink ref="B29" r:id="rId56" xr:uid="{00000000-0004-0000-0500-000037000000}"/>
+    <hyperlink ref="A30" r:id="rId57" xr:uid="{00000000-0004-0000-0500-000038000000}"/>
+    <hyperlink ref="B30" r:id="rId58" xr:uid="{00000000-0004-0000-0500-000039000000}"/>
+    <hyperlink ref="A31" r:id="rId59" xr:uid="{00000000-0004-0000-0500-00003A000000}"/>
+    <hyperlink ref="B31" r:id="rId60" xr:uid="{00000000-0004-0000-0500-00003B000000}"/>
+    <hyperlink ref="B32" r:id="rId61" xr:uid="{00000000-0004-0000-0500-00003F000000}"/>
+    <hyperlink ref="A32" r:id="rId62" xr:uid="{00000000-0004-0000-0500-00003E000000}"/>
   </hyperlinks>
-  <drawing r:id="rId41"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>